--- a/testdata/excel2xml-testdata.xlsx
+++ b/testdata/excel2xml-testdata.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nusjoh00-adm/Desktop/dsp-tools/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D08F88-64B8-7346-B852-2B9B1FEF9CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11144152-9CDA-4F48-96A9-C4EBC81BFC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10380" yWindow="-20400" windowWidth="49140" windowHeight="21100" xr2:uid="{8DC9C588-8EAF-9149-8D6F-E65826635888}"/>
+    <workbookView xWindow="-10380" yWindow="-21100" windowWidth="49140" windowHeight="21100" xr2:uid="{8DC9C588-8EAF-9149-8D6F-E65826635888}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="example" localSheetId="0">Sheet1!$A$1:$PE$32</definedName>
+    <definedName name="example" localSheetId="0">Sheet1!$A$1:$PF$32</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="120">
   <si>
     <t>id</t>
   </si>
@@ -600,9 +600,6 @@
   </si>
   <si>
     <t>test_thing_1</t>
-  </si>
-  <si>
-    <t>annotation_1</t>
   </si>
   <si>
     <t>Annotation</t>
@@ -743,9 +740,6 @@
     <t>iri</t>
   </si>
   <si>
-    <t>http://rdfh.ch/4123/54SYvWF0QUW6d7ClGg6ZIw</t>
-  </si>
-  <si>
     <t>ark:/72163/4123-31ec6eab334-a.2022829</t>
   </si>
   <si>
@@ -761,10 +755,95 @@
     <t>Dies ist ein TestThing</t>
   </si>
   <si>
-    <t>Annotation to Testthing</t>
+    <t>This is an annotation to Testthing.</t>
   </si>
   <si>
-    <t>This is an annotation to Testthing.</t>
+    <t>region_0</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Region of img_obj_6</t>
+  </si>
+  <si>
+    <t>isRegionOf</t>
+  </si>
+  <si>
+    <t>hasColor</t>
+  </si>
+  <si>
+    <t>hasGeometry</t>
+  </si>
+  <si>
+    <t>color-prop</t>
+  </si>
+  <si>
+    <t>geometry-prop</t>
+  </si>
+  <si>
+    <t>res-restricted</t>
+  </si>
+  <si>
+    <t>{"type": "rectangle", "lineColor": "#ff3333", "lineWidth": 2, "points": [{"x": 0.08, "y": 0.16}, {"x": 0.73, "y": 0.72}], "original_index": 0}</t>
+  </si>
+  <si>
+    <t>link_thing_0</t>
+  </si>
+  <si>
+    <t>LinkObj</t>
+  </si>
+  <si>
+    <t>Link between person_0 and img_obj_6</t>
+  </si>
+  <si>
+    <t>This is a link between Homer and Iliad Prooem</t>
+  </si>
+  <si>
+    <t>hasLinkTo</t>
+  </si>
+  <si>
+    <t>ark:/72163/4123-31ec6eab334-a.202280</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>1999-12-31T23:59:59.9999999+01:00</t>
+  </si>
+  <si>
+    <t>http://rdfh.ch/4123/54SYvWF0QUW6d</t>
+  </si>
+  <si>
+    <t>http://rdfh.ch/4123/54SYvWF0QUW6a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         </t>
+  </si>
+  <si>
+    <t>#5d1f1e</t>
   </si>
 </sst>
 </file>
@@ -937,7 +1016,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -948,10 +1027,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -960,12 +1037,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1284,438 +1360,439 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B59957-CA62-894B-8744-01ADFD605729}">
-  <dimension ref="A1:RM44"/>
+  <dimension ref="A1:RN44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" customWidth="1"/>
+    <col min="3" max="3" width="32.5" customWidth="1"/>
     <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="14" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="12" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="14" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="14" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="12" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="14" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="12" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="14" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="12" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="14" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="12" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="14" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="12" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="14" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="12" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="14" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="12" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="14" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="12" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="14" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="12" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="14" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="12" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="14" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="12" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="14" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="12" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="14" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="12" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="14" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="12" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="14" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="12" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="14" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="12" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="14" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="12" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="14" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="12" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="14" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="12" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="14" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="12" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="14" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="12" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="14" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="12" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="14" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="12" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="14" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="12" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="14" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="12" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="14" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="12" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="14" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="12" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="14" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="12" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="14" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="12" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="14" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="12" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="14" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="12" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="14" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="12" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="14" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="12" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="14" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="12" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="14" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="12" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="14" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="12" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="14" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="12" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="14" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="12" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="14" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="12" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="14" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="12" bestFit="1" customWidth="1"/>
-    <col min="272" max="272" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="273" max="273" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="14" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="12" bestFit="1" customWidth="1"/>
-    <col min="277" max="277" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="278" max="278" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="279" max="279" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="280" max="280" width="14" bestFit="1" customWidth="1"/>
-    <col min="281" max="281" width="12" bestFit="1" customWidth="1"/>
-    <col min="282" max="282" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="283" max="283" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="284" max="284" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="285" max="285" width="14" bestFit="1" customWidth="1"/>
-    <col min="286" max="286" width="12" bestFit="1" customWidth="1"/>
-    <col min="287" max="287" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="288" max="288" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="289" max="289" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="290" max="290" width="14" bestFit="1" customWidth="1"/>
-    <col min="291" max="291" width="12" bestFit="1" customWidth="1"/>
-    <col min="292" max="292" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="293" max="293" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="294" max="294" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="295" max="295" width="14" bestFit="1" customWidth="1"/>
-    <col min="296" max="296" width="12" bestFit="1" customWidth="1"/>
-    <col min="297" max="297" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="298" max="298" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="299" max="299" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="300" max="300" width="14" bestFit="1" customWidth="1"/>
-    <col min="301" max="301" width="12" bestFit="1" customWidth="1"/>
-    <col min="302" max="302" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="303" max="303" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="304" max="304" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="305" max="305" width="14" bestFit="1" customWidth="1"/>
-    <col min="306" max="306" width="12" bestFit="1" customWidth="1"/>
-    <col min="307" max="307" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="308" max="308" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="309" max="309" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="310" max="310" width="14" bestFit="1" customWidth="1"/>
-    <col min="311" max="311" width="12" bestFit="1" customWidth="1"/>
-    <col min="312" max="312" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="313" max="313" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="314" max="314" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="315" max="315" width="14" bestFit="1" customWidth="1"/>
-    <col min="316" max="316" width="12" bestFit="1" customWidth="1"/>
-    <col min="317" max="317" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="318" max="318" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="319" max="319" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="320" max="320" width="14" bestFit="1" customWidth="1"/>
-    <col min="321" max="321" width="12" bestFit="1" customWidth="1"/>
-    <col min="322" max="322" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="323" max="323" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="324" max="324" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="325" max="325" width="14" bestFit="1" customWidth="1"/>
-    <col min="326" max="326" width="12" bestFit="1" customWidth="1"/>
-    <col min="327" max="327" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="328" max="328" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="329" max="329" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="330" max="330" width="14" bestFit="1" customWidth="1"/>
-    <col min="331" max="331" width="12" bestFit="1" customWidth="1"/>
-    <col min="332" max="332" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="333" max="333" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="334" max="334" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="335" max="335" width="14" bestFit="1" customWidth="1"/>
-    <col min="336" max="336" width="12" bestFit="1" customWidth="1"/>
-    <col min="337" max="337" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="338" max="338" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="339" max="339" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="340" max="340" width="14" bestFit="1" customWidth="1"/>
-    <col min="341" max="341" width="12" bestFit="1" customWidth="1"/>
-    <col min="342" max="342" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="343" max="343" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="344" max="344" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="345" max="345" width="14" bestFit="1" customWidth="1"/>
-    <col min="346" max="346" width="12" bestFit="1" customWidth="1"/>
-    <col min="347" max="347" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="348" max="348" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="349" max="349" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="350" max="350" width="14" bestFit="1" customWidth="1"/>
-    <col min="351" max="351" width="12" bestFit="1" customWidth="1"/>
-    <col min="352" max="352" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="353" max="353" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="354" max="354" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="355" max="355" width="14" bestFit="1" customWidth="1"/>
-    <col min="356" max="356" width="12" bestFit="1" customWidth="1"/>
-    <col min="357" max="357" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="358" max="358" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="359" max="359" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="360" max="360" width="14" bestFit="1" customWidth="1"/>
-    <col min="361" max="361" width="12" bestFit="1" customWidth="1"/>
-    <col min="362" max="362" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="363" max="363" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="364" max="364" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="365" max="365" width="14" bestFit="1" customWidth="1"/>
-    <col min="366" max="366" width="12" bestFit="1" customWidth="1"/>
-    <col min="367" max="367" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="368" max="368" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="369" max="369" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="370" max="370" width="14" bestFit="1" customWidth="1"/>
-    <col min="371" max="371" width="12" bestFit="1" customWidth="1"/>
-    <col min="372" max="372" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="373" max="373" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="374" max="374" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="375" max="375" width="14" bestFit="1" customWidth="1"/>
-    <col min="376" max="376" width="12" bestFit="1" customWidth="1"/>
-    <col min="377" max="377" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="378" max="378" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="379" max="379" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="380" max="380" width="14" bestFit="1" customWidth="1"/>
-    <col min="381" max="381" width="12" bestFit="1" customWidth="1"/>
-    <col min="382" max="382" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="383" max="383" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="384" max="384" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="385" max="385" width="14" bestFit="1" customWidth="1"/>
-    <col min="386" max="386" width="12" bestFit="1" customWidth="1"/>
-    <col min="387" max="387" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="388" max="388" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="389" max="389" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="390" max="390" width="14" bestFit="1" customWidth="1"/>
-    <col min="391" max="391" width="12" bestFit="1" customWidth="1"/>
-    <col min="392" max="392" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="393" max="393" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="394" max="394" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="395" max="395" width="14" bestFit="1" customWidth="1"/>
-    <col min="396" max="396" width="12" bestFit="1" customWidth="1"/>
-    <col min="397" max="397" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="398" max="398" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="399" max="399" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="400" max="400" width="14" bestFit="1" customWidth="1"/>
-    <col min="401" max="401" width="12" bestFit="1" customWidth="1"/>
-    <col min="402" max="402" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="403" max="403" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="404" max="404" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="405" max="405" width="14" bestFit="1" customWidth="1"/>
-    <col min="406" max="406" width="12" bestFit="1" customWidth="1"/>
-    <col min="407" max="407" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="408" max="408" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="409" max="409" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="410" max="410" width="14" bestFit="1" customWidth="1"/>
-    <col min="411" max="411" width="12" bestFit="1" customWidth="1"/>
-    <col min="412" max="412" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="413" max="413" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="414" max="414" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="415" max="415" width="14" bestFit="1" customWidth="1"/>
-    <col min="416" max="416" width="12" bestFit="1" customWidth="1"/>
-    <col min="417" max="417" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="418" max="418" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="419" max="419" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="420" max="420" width="14" bestFit="1" customWidth="1"/>
-    <col min="421" max="421" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="38.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="12" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="14" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="12" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="12" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="14" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="12" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="14" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="12" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="14" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="12" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="14" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="12" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="14" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="12" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="14" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="12" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="14" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="12" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="14" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="12" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="14" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="12" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="14" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="12" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="14" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="12" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="14" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="12" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="14" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="12" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="14" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="12" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="14" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="12" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="14" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="12" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="14" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="12" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="14" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="12" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="14" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="12" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="14" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="12" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="14" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="12" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="14" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="12" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="14" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="12" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="14" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="12" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="14" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="12" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="14" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="12" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="14" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="12" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="14" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="12" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="14" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="12" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="14" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="12" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="14" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="12" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="14" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="12" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="14" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="12" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="14" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="12" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="14" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="12" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="14" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="12" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="14" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="12" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="14" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="12" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="14" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="12" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="14" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="12" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="14" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="12" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="281" max="281" width="14" bestFit="1" customWidth="1"/>
+    <col min="282" max="282" width="12" bestFit="1" customWidth="1"/>
+    <col min="283" max="283" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="284" max="284" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="285" max="285" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="14" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="12" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="290" max="290" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="291" max="291" width="14" bestFit="1" customWidth="1"/>
+    <col min="292" max="292" width="12" bestFit="1" customWidth="1"/>
+    <col min="293" max="293" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="294" max="294" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="295" max="295" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="296" max="296" width="14" bestFit="1" customWidth="1"/>
+    <col min="297" max="297" width="12" bestFit="1" customWidth="1"/>
+    <col min="298" max="298" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="300" max="300" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="301" max="301" width="14" bestFit="1" customWidth="1"/>
+    <col min="302" max="302" width="12" bestFit="1" customWidth="1"/>
+    <col min="303" max="303" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="304" max="304" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="305" max="305" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="306" max="306" width="14" bestFit="1" customWidth="1"/>
+    <col min="307" max="307" width="12" bestFit="1" customWidth="1"/>
+    <col min="308" max="308" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="309" max="309" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="310" max="310" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="311" max="311" width="14" bestFit="1" customWidth="1"/>
+    <col min="312" max="312" width="12" bestFit="1" customWidth="1"/>
+    <col min="313" max="313" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="314" max="314" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="315" max="315" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="316" max="316" width="14" bestFit="1" customWidth="1"/>
+    <col min="317" max="317" width="12" bestFit="1" customWidth="1"/>
+    <col min="318" max="318" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="319" max="319" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="320" max="320" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="321" max="321" width="14" bestFit="1" customWidth="1"/>
+    <col min="322" max="322" width="12" bestFit="1" customWidth="1"/>
+    <col min="323" max="323" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="324" max="324" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="325" max="325" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="326" max="326" width="14" bestFit="1" customWidth="1"/>
+    <col min="327" max="327" width="12" bestFit="1" customWidth="1"/>
+    <col min="328" max="328" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="329" max="329" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="330" max="330" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="331" max="331" width="14" bestFit="1" customWidth="1"/>
+    <col min="332" max="332" width="12" bestFit="1" customWidth="1"/>
+    <col min="333" max="333" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="334" max="334" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="335" max="335" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="336" max="336" width="14" bestFit="1" customWidth="1"/>
+    <col min="337" max="337" width="12" bestFit="1" customWidth="1"/>
+    <col min="338" max="338" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="339" max="339" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="340" max="340" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="341" max="341" width="14" bestFit="1" customWidth="1"/>
+    <col min="342" max="342" width="12" bestFit="1" customWidth="1"/>
+    <col min="343" max="343" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="344" max="344" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="345" max="345" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="346" max="346" width="14" bestFit="1" customWidth="1"/>
+    <col min="347" max="347" width="12" bestFit="1" customWidth="1"/>
+    <col min="348" max="348" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="349" max="349" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="350" max="350" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="351" max="351" width="14" bestFit="1" customWidth="1"/>
+    <col min="352" max="352" width="12" bestFit="1" customWidth="1"/>
+    <col min="353" max="353" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="354" max="354" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="355" max="355" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="356" max="356" width="14" bestFit="1" customWidth="1"/>
+    <col min="357" max="357" width="12" bestFit="1" customWidth="1"/>
+    <col min="358" max="358" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="359" max="359" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="360" max="360" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="361" max="361" width="14" bestFit="1" customWidth="1"/>
+    <col min="362" max="362" width="12" bestFit="1" customWidth="1"/>
+    <col min="363" max="363" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="364" max="364" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="365" max="365" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="366" max="366" width="14" bestFit="1" customWidth="1"/>
+    <col min="367" max="367" width="12" bestFit="1" customWidth="1"/>
+    <col min="368" max="368" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="369" max="369" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="370" max="370" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="371" max="371" width="14" bestFit="1" customWidth="1"/>
+    <col min="372" max="372" width="12" bestFit="1" customWidth="1"/>
+    <col min="373" max="373" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="374" max="374" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="375" max="375" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="376" max="376" width="14" bestFit="1" customWidth="1"/>
+    <col min="377" max="377" width="12" bestFit="1" customWidth="1"/>
+    <col min="378" max="378" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="379" max="379" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="380" max="380" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="381" max="381" width="14" bestFit="1" customWidth="1"/>
+    <col min="382" max="382" width="12" bestFit="1" customWidth="1"/>
+    <col min="383" max="383" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="384" max="384" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="385" max="385" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="386" max="386" width="14" bestFit="1" customWidth="1"/>
+    <col min="387" max="387" width="12" bestFit="1" customWidth="1"/>
+    <col min="388" max="388" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="389" max="389" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="390" max="390" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="391" max="391" width="14" bestFit="1" customWidth="1"/>
+    <col min="392" max="392" width="12" bestFit="1" customWidth="1"/>
+    <col min="393" max="393" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="394" max="394" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="395" max="395" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="396" max="396" width="14" bestFit="1" customWidth="1"/>
+    <col min="397" max="397" width="12" bestFit="1" customWidth="1"/>
+    <col min="398" max="398" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="399" max="399" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="400" max="400" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="401" max="401" width="14" bestFit="1" customWidth="1"/>
+    <col min="402" max="402" width="12" bestFit="1" customWidth="1"/>
+    <col min="403" max="403" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="404" max="404" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="405" max="405" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="406" max="406" width="14" bestFit="1" customWidth="1"/>
+    <col min="407" max="407" width="12" bestFit="1" customWidth="1"/>
+    <col min="408" max="408" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="409" max="409" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="410" max="410" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="411" max="411" width="14" bestFit="1" customWidth="1"/>
+    <col min="412" max="412" width="12" bestFit="1" customWidth="1"/>
+    <col min="413" max="413" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="414" max="414" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="415" max="415" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="416" max="416" width="14" bestFit="1" customWidth="1"/>
+    <col min="417" max="417" width="12" bestFit="1" customWidth="1"/>
+    <col min="418" max="418" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="419" max="419" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="420" max="420" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="421" max="421" width="14" bestFit="1" customWidth="1"/>
+    <col min="422" max="422" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:481" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:482" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1729,82 +1806,88 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AB1"/>
-      <c r="AC1"/>
+      <c r="AC1" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="AD1"/>
       <c r="AE1"/>
       <c r="AF1"/>
       <c r="AG1"/>
       <c r="AH1"/>
-      <c r="AI1"/>
+      <c r="AI1" t="s">
+        <v>117</v>
+      </c>
       <c r="AJ1"/>
       <c r="AK1"/>
       <c r="AL1"/>
@@ -2251,30 +2334,34 @@
       <c r="RK1"/>
       <c r="RL1"/>
       <c r="RM1"/>
+      <c r="RN1"/>
     </row>
-    <row r="2" spans="1:481" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="F2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2"/>
+      <c r="I2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="AB2" s="7"/>
       <c r="AC2"/>
-      <c r="AD2"/>
+      <c r="AD2" t="s">
+        <v>118</v>
+      </c>
       <c r="AE2"/>
       <c r="AF2"/>
       <c r="AG2"/>
@@ -2726,43 +2813,44 @@
       <c r="RK2"/>
       <c r="RL2"/>
       <c r="RM2"/>
+      <c r="RN2"/>
     </row>
-    <row r="3" spans="1:481" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G3" s="20"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="6" t="s">
-        <v>50</v>
-      </c>
+    <row r="3" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="7"/>
       <c r="J3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="L3" s="7"/>
       <c r="M3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q3" s="8" t="s">
+      <c r="P3" s="7"/>
+      <c r="Q3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="S3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3"/>
+      <c r="T3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="AB3" s="7"/>
       <c r="AC3"/>
       <c r="AD3"/>
-      <c r="AE3"/>
+      <c r="AE3" t="s">
+        <v>117</v>
+      </c>
       <c r="AF3"/>
       <c r="AG3"/>
       <c r="AH3"/>
@@ -3213,28 +3301,27 @@
       <c r="RK3"/>
       <c r="RL3"/>
       <c r="RM3"/>
+      <c r="RN3"/>
     </row>
-    <row r="4" spans="1:481" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G4" s="20"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="6" t="s">
+    <row r="4" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="7"/>
+      <c r="J4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="L4" s="7"/>
+      <c r="M4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4"/>
+      <c r="P4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="AB4" s="7"/>
       <c r="AC4"/>
       <c r="AD4"/>
       <c r="AE4"/>
@@ -3688,44 +3775,45 @@
       <c r="RK4"/>
       <c r="RL4"/>
       <c r="RM4"/>
+      <c r="RN4"/>
     </row>
-    <row r="5" spans="1:481" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14" t="s">
+    <row r="5" spans="1:482" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="10"/>
+      <c r="O5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="11"/>
       <c r="AC5"/>
       <c r="AD5"/>
       <c r="AE5"/>
@@ -4179,33 +4267,36 @@
       <c r="RK5"/>
       <c r="RL5"/>
       <c r="RM5"/>
+      <c r="RN5"/>
     </row>
-    <row r="6" spans="1:481" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6"/>
+      <c r="I6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="AB6" s="7"/>
       <c r="AC6"/>
-      <c r="AD6"/>
+      <c r="AD6" t="s">
+        <v>117</v>
+      </c>
       <c r="AE6"/>
       <c r="AF6"/>
-      <c r="AG6"/>
+      <c r="AG6" t="s">
+        <v>116</v>
+      </c>
       <c r="AH6"/>
       <c r="AI6"/>
       <c r="AJ6"/>
@@ -4654,31 +4745,30 @@
       <c r="RK6"/>
       <c r="RL6"/>
       <c r="RM6"/>
+      <c r="RN6"/>
     </row>
-    <row r="7" spans="1:481" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G7" s="20"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="6" t="s">
+    <row r="7" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="7"/>
+      <c r="J7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="L7" s="7"/>
       <c r="M7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="O7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7"/>
+      <c r="P7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="AB7" s="7"/>
       <c r="AC7"/>
       <c r="AD7"/>
       <c r="AE7"/>
@@ -5132,34 +5222,35 @@
       <c r="RK7"/>
       <c r="RL7"/>
       <c r="RM7"/>
+      <c r="RN7"/>
     </row>
-    <row r="8" spans="1:481" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="6" t="s">
+    <row r="8" spans="1:482" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8" s="6" t="s">
+      <c r="O8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8"/>
+      <c r="P8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="AB8" s="7"/>
       <c r="AC8"/>
       <c r="AD8"/>
       <c r="AE8"/>
@@ -5613,46 +5704,46 @@
       <c r="RK8"/>
       <c r="RL8"/>
       <c r="RM8"/>
+      <c r="RN8"/>
     </row>
-    <row r="9" spans="1:481" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
       <c r="L9" s="16"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="18"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
       <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="18"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
       <c r="T9" s="16"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="18"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
       <c r="X9" s="16"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="16"/>
       <c r="AC9"/>
       <c r="AD9"/>
       <c r="AE9"/>
@@ -6106,41 +6197,36 @@
       <c r="RK9"/>
       <c r="RL9"/>
       <c r="RM9"/>
+      <c r="RN9"/>
     </row>
-    <row r="10" spans="1:481" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G10" s="20"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="20" t="s">
+    <row r="10" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="7"/>
+      <c r="J10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="K10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="M10" s="20" t="s">
+      <c r="L10" s="7"/>
+      <c r="M10" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="O10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10"/>
-      <c r="AC10"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="17"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="17"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="17"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" t="s">
+        <v>118</v>
+      </c>
       <c r="AD10"/>
       <c r="AE10"/>
       <c r="AF10"/>
@@ -6593,40 +6679,33 @@
       <c r="RK10"/>
       <c r="RL10"/>
       <c r="RM10"/>
+      <c r="RN10"/>
     </row>
-    <row r="11" spans="1:481" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G11" s="20"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="20" t="s">
+    <row r="11" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="7"/>
+      <c r="J11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="K11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="M11" s="20" t="s">
+      <c r="L11" s="7"/>
+      <c r="M11" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="20" t="s">
+      <c r="O11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="17"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="17"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="17"/>
+      <c r="AB11" s="7"/>
       <c r="AC11"/>
       <c r="AD11"/>
       <c r="AE11"/>
@@ -7080,40 +7159,33 @@
       <c r="RK11"/>
       <c r="RL11"/>
       <c r="RM11"/>
+      <c r="RN11"/>
     </row>
-    <row r="12" spans="1:481" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G12" s="20"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="20" t="s">
+    <row r="12" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I12" s="7"/>
+      <c r="J12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="M12" s="20" t="s">
+      <c r="N12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="O12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="17"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="17"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="17"/>
+      <c r="AB12" s="7"/>
       <c r="AC12"/>
       <c r="AD12"/>
       <c r="AE12"/>
@@ -7567,40 +7639,40 @@
       <c r="RK12"/>
       <c r="RL12"/>
       <c r="RM12"/>
+      <c r="RN12"/>
     </row>
-    <row r="13" spans="1:481" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="12" t="s">
+    <row r="13" spans="1:482" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="10"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="13" t="s">
+      <c r="M13" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="L13" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12" t="s">
+      <c r="N13" s="10"/>
+      <c r="O13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="11"/>
       <c r="AC13"/>
       <c r="AD13"/>
       <c r="AE13"/>
@@ -8054,46 +8126,47 @@
       <c r="RK13"/>
       <c r="RL13"/>
       <c r="RM13"/>
+      <c r="RN13"/>
     </row>
-    <row r="14" spans="1:481" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17" t="s">
+      <c r="C14" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="16"/>
       <c r="AC14"/>
       <c r="AD14"/>
       <c r="AE14"/>
@@ -8547,46 +8620,31 @@
       <c r="RK14"/>
       <c r="RL14"/>
       <c r="RM14"/>
+      <c r="RN14"/>
     </row>
-    <row r="15" spans="1:481" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="21" t="s">
+    <row r="15" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="K15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="M15" s="20" t="s">
+      <c r="L15" s="7"/>
+      <c r="M15" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N15" s="20" t="s">
+      <c r="O15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15"/>
+      <c r="P15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="AB15" s="7"/>
       <c r="AC15"/>
       <c r="AD15"/>
       <c r="AE15"/>
@@ -9040,44 +9098,45 @@
       <c r="RK15"/>
       <c r="RL15"/>
       <c r="RM15"/>
+      <c r="RN15"/>
     </row>
-    <row r="16" spans="1:481" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14" t="s">
+    <row r="16" spans="1:482" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="K16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14" t="s">
+      <c r="L16" s="11"/>
+      <c r="M16" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="M16" s="12"/>
-      <c r="N16" s="14" t="s">
+      <c r="N16" s="10"/>
+      <c r="O16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="13"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="11"/>
       <c r="AC16"/>
       <c r="AD16"/>
       <c r="AE16"/>
@@ -9531,28 +9590,31 @@
       <c r="RK16"/>
       <c r="RL16"/>
       <c r="RM16"/>
+      <c r="RN16"/>
     </row>
-    <row r="17" spans="1:481" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>43</v>
+    <row r="17" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17"/>
+      <c r="C17" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="AB17" s="7"/>
       <c r="AC17"/>
       <c r="AD17"/>
       <c r="AE17"/>
@@ -10006,40 +10068,39 @@
       <c r="RK17"/>
       <c r="RL17"/>
       <c r="RM17"/>
+      <c r="RN17"/>
     </row>
-    <row r="18" spans="1:481" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G18" s="20"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="9" t="s">
+    <row r="18" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I18" s="7"/>
+      <c r="J18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="K18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="9" t="s">
-        <v>93</v>
-      </c>
+      <c r="L18" s="7"/>
       <c r="M18" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="N18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O18" s="7"/>
-      <c r="P18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q18" s="8" t="s">
+      <c r="O18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="R18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="S18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18"/>
+      <c r="S18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="T18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="AB18" s="7"/>
       <c r="AC18"/>
       <c r="AD18"/>
       <c r="AE18"/>
@@ -10493,30 +10554,27 @@
       <c r="RK18"/>
       <c r="RL18"/>
       <c r="RM18"/>
+      <c r="RN18"/>
     </row>
-    <row r="19" spans="1:481" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19"/>
+    <row r="19" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I19" s="7"/>
+      <c r="J19" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="AB19" s="7"/>
       <c r="AC19"/>
       <c r="AD19"/>
       <c r="AE19"/>
@@ -10970,48 +11028,27 @@
       <c r="RK19"/>
       <c r="RL19"/>
       <c r="RM19"/>
+      <c r="RN19"/>
     </row>
-    <row r="20" spans="1:481" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="18"/>
-      <c r="AB20"/>
+    <row r="20" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="7"/>
+      <c r="J20" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="AB20" s="7"/>
       <c r="AC20"/>
       <c r="AD20"/>
       <c r="AE20"/>
@@ -11465,52 +11502,30 @@
       <c r="RK20"/>
       <c r="RL20"/>
       <c r="RM20"/>
+      <c r="RN20"/>
     </row>
-    <row r="21" spans="1:481" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="21" t="s">
-        <v>40</v>
-      </c>
+    <row r="21" spans="1:482" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="I21" s="11"/>
       <c r="J21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="21" t="s">
-        <v>62</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7"/>
       <c r="M21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O21" s="7"/>
-      <c r="P21" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="O21" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="Q21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="R21" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="S21" s="7"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21"/>
+      <c r="P21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="AB21" s="7"/>
       <c r="AC21"/>
       <c r="AD21"/>
       <c r="AE21"/>
@@ -11964,58 +11979,49 @@
       <c r="RK21"/>
       <c r="RL21"/>
       <c r="RM21"/>
+      <c r="RN21"/>
     </row>
-    <row r="22" spans="1:481" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O22" s="7"/>
-      <c r="P22" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="R22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="S22" s="7"/>
-      <c r="T22" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="U22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="V22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="W22" s="7"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22"/>
+    <row r="22" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="16"/>
       <c r="AC22"/>
       <c r="AD22"/>
       <c r="AE22"/>
@@ -12469,44 +12475,40 @@
       <c r="RK22"/>
       <c r="RL22"/>
       <c r="RM22"/>
+      <c r="RN22"/>
     </row>
-    <row r="23" spans="1:481" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="21" t="s">
-        <v>68</v>
-      </c>
+    <row r="23" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="I23" s="7"/>
       <c r="J23" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="M23" s="20"/>
-      <c r="N23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O23" s="7"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="T23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="AB23" s="7"/>
       <c r="AC23"/>
       <c r="AD23"/>
       <c r="AE23"/>
@@ -12960,44 +12962,49 @@
       <c r="RK23"/>
       <c r="RL23"/>
       <c r="RM23"/>
+      <c r="RN23"/>
     </row>
-    <row r="24" spans="1:481" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="21" t="s">
-        <v>70</v>
-      </c>
+    <row r="24" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="M24" s="20"/>
-      <c r="N24" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O24" s="7"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T24" s="7"/>
+      <c r="U24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="V24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="W24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="X24" s="7"/>
+      <c r="AB24" s="7"/>
       <c r="AC24"/>
       <c r="AD24"/>
       <c r="AE24"/>
@@ -13451,52 +13458,28 @@
       <c r="RK24"/>
       <c r="RL24"/>
       <c r="RM24"/>
+      <c r="RN24"/>
     </row>
-    <row r="25" spans="1:481" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="21" t="s">
-        <v>33</v>
-      </c>
+    <row r="25" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="M25" s="20"/>
-      <c r="N25" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O25" s="7"/>
-      <c r="P25" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="S25" s="7"/>
-      <c r="T25" s="20">
-        <v>2022</v>
-      </c>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="W25" s="7"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25"/>
+      <c r="P25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="AB25" s="7"/>
       <c r="AC25"/>
       <c r="AD25"/>
       <c r="AE25"/>
@@ -13950,44 +13933,28 @@
       <c r="RK25"/>
       <c r="RL25"/>
       <c r="RM25"/>
+      <c r="RN25"/>
     </row>
-    <row r="26" spans="1:481" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="J26" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="12">
-        <v>4711</v>
-      </c>
-      <c r="M26" s="12"/>
-      <c r="N26" s="23" t="s">
+    <row r="26" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" s="7"/>
+      <c r="M26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="O26" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O26" s="13"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="13"/>
-      <c r="AB26"/>
+      <c r="P26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="AB26" s="7"/>
       <c r="AC26"/>
       <c r="AD26"/>
       <c r="AE26"/>
@@ -14441,41 +14408,2951 @@
       <c r="RK26"/>
       <c r="RL26"/>
       <c r="RM26"/>
+      <c r="RN26"/>
     </row>
-    <row r="27" spans="1:481" x14ac:dyDescent="0.2">
-      <c r="W27" s="24"/>
-      <c r="AA27" s="24"/>
+    <row r="27" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="17"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T27" s="7"/>
+      <c r="U27" s="6">
+        <v>2022</v>
+      </c>
+      <c r="W27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="X27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
+      <c r="AH27"/>
+      <c r="AI27"/>
+      <c r="AJ27"/>
+      <c r="AK27"/>
+      <c r="AL27"/>
+      <c r="AM27"/>
+      <c r="AN27"/>
+      <c r="AO27"/>
+      <c r="AP27"/>
+      <c r="AQ27"/>
+      <c r="AR27"/>
+      <c r="AS27"/>
+      <c r="AT27"/>
+      <c r="AU27"/>
+      <c r="AV27"/>
+      <c r="AW27"/>
+      <c r="AX27"/>
+      <c r="AY27"/>
+      <c r="AZ27"/>
+      <c r="BA27"/>
+      <c r="BB27"/>
+      <c r="BC27"/>
+      <c r="BD27"/>
+      <c r="BE27"/>
+      <c r="BF27"/>
+      <c r="BG27"/>
+      <c r="BH27"/>
+      <c r="BI27"/>
+      <c r="BJ27"/>
+      <c r="BK27"/>
+      <c r="BL27"/>
+      <c r="BM27"/>
+      <c r="BN27"/>
+      <c r="BO27"/>
+      <c r="BP27"/>
+      <c r="BQ27"/>
+      <c r="BR27"/>
+      <c r="BS27"/>
+      <c r="BT27"/>
+      <c r="BU27"/>
+      <c r="BV27"/>
+      <c r="BW27"/>
+      <c r="BX27"/>
+      <c r="BY27"/>
+      <c r="BZ27"/>
+      <c r="CA27"/>
+      <c r="CB27"/>
+      <c r="CC27"/>
+      <c r="CD27"/>
+      <c r="CE27"/>
+      <c r="CF27"/>
+      <c r="CG27"/>
+      <c r="CH27"/>
+      <c r="CI27"/>
+      <c r="CJ27"/>
+      <c r="CK27"/>
+      <c r="CL27"/>
+      <c r="CM27"/>
+      <c r="CN27"/>
+      <c r="CO27"/>
+      <c r="CP27"/>
+      <c r="CQ27"/>
+      <c r="CR27"/>
+      <c r="CS27"/>
+      <c r="CT27"/>
+      <c r="CU27"/>
+      <c r="CV27"/>
+      <c r="CW27"/>
+      <c r="CX27"/>
+      <c r="CY27"/>
+      <c r="CZ27"/>
+      <c r="DA27"/>
+      <c r="DB27"/>
+      <c r="DC27"/>
+      <c r="DD27"/>
+      <c r="DE27"/>
+      <c r="DF27"/>
+      <c r="DG27"/>
+      <c r="DH27"/>
+      <c r="DI27"/>
+      <c r="DJ27"/>
+      <c r="DK27"/>
+      <c r="DL27"/>
+      <c r="DM27"/>
+      <c r="DN27"/>
+      <c r="DO27"/>
+      <c r="DP27"/>
+      <c r="DQ27"/>
+      <c r="DR27"/>
+      <c r="DS27"/>
+      <c r="DT27"/>
+      <c r="DU27"/>
+      <c r="DV27"/>
+      <c r="DW27"/>
+      <c r="DX27"/>
+      <c r="DY27"/>
+      <c r="DZ27"/>
+      <c r="EA27"/>
+      <c r="EB27"/>
+      <c r="EC27"/>
+      <c r="ED27"/>
+      <c r="EE27"/>
+      <c r="EF27"/>
+      <c r="EG27"/>
+      <c r="EH27"/>
+      <c r="EI27"/>
+      <c r="EJ27"/>
+      <c r="EK27"/>
+      <c r="EL27"/>
+      <c r="EM27"/>
+      <c r="EN27"/>
+      <c r="EO27"/>
+      <c r="EP27"/>
+      <c r="EQ27"/>
+      <c r="ER27"/>
+      <c r="ES27"/>
+      <c r="ET27"/>
+      <c r="EU27"/>
+      <c r="EV27"/>
+      <c r="EW27"/>
+      <c r="EX27"/>
+      <c r="EY27"/>
+      <c r="EZ27"/>
+      <c r="FA27"/>
+      <c r="FB27"/>
+      <c r="FC27"/>
+      <c r="FD27"/>
+      <c r="FE27"/>
+      <c r="FF27"/>
+      <c r="FG27"/>
+      <c r="FH27"/>
+      <c r="FI27"/>
+      <c r="FJ27"/>
+      <c r="FK27"/>
+      <c r="FL27"/>
+      <c r="FM27"/>
+      <c r="FN27"/>
+      <c r="FO27"/>
+      <c r="FP27"/>
+      <c r="FQ27"/>
+      <c r="FR27"/>
+      <c r="FS27"/>
+      <c r="FT27"/>
+      <c r="FU27"/>
+      <c r="FV27"/>
+      <c r="FW27"/>
+      <c r="FX27"/>
+      <c r="FY27"/>
+      <c r="FZ27"/>
+      <c r="GA27"/>
+      <c r="GB27"/>
+      <c r="GC27"/>
+      <c r="GD27"/>
+      <c r="GE27"/>
+      <c r="GF27"/>
+      <c r="GG27"/>
+      <c r="GH27"/>
+      <c r="GI27"/>
+      <c r="GJ27"/>
+      <c r="GK27"/>
+      <c r="GL27"/>
+      <c r="GM27"/>
+      <c r="GN27"/>
+      <c r="GO27"/>
+      <c r="GP27"/>
+      <c r="GQ27"/>
+      <c r="GR27"/>
+      <c r="GS27"/>
+      <c r="GT27"/>
+      <c r="GU27"/>
+      <c r="GV27"/>
+      <c r="GW27"/>
+      <c r="GX27"/>
+      <c r="GY27"/>
+      <c r="GZ27"/>
+      <c r="HA27"/>
+      <c r="HB27"/>
+      <c r="HC27"/>
+      <c r="HD27"/>
+      <c r="HE27"/>
+      <c r="HF27"/>
+      <c r="HG27"/>
+      <c r="HH27"/>
+      <c r="HI27"/>
+      <c r="HJ27"/>
+      <c r="HK27"/>
+      <c r="HL27"/>
+      <c r="HM27"/>
+      <c r="HN27"/>
+      <c r="HO27"/>
+      <c r="HP27"/>
+      <c r="HQ27"/>
+      <c r="HR27"/>
+      <c r="HS27"/>
+      <c r="HT27"/>
+      <c r="HU27"/>
+      <c r="HV27"/>
+      <c r="HW27"/>
+      <c r="HX27"/>
+      <c r="HY27"/>
+      <c r="HZ27"/>
+      <c r="IA27"/>
+      <c r="IB27"/>
+      <c r="IC27"/>
+      <c r="ID27"/>
+      <c r="IE27"/>
+      <c r="IF27"/>
+      <c r="IG27"/>
+      <c r="IH27"/>
+      <c r="II27"/>
+      <c r="IJ27"/>
+      <c r="IK27"/>
+      <c r="IL27"/>
+      <c r="IM27"/>
+      <c r="IN27"/>
+      <c r="IO27"/>
+      <c r="IP27"/>
+      <c r="IQ27"/>
+      <c r="IR27"/>
+      <c r="IS27"/>
+      <c r="IT27"/>
+      <c r="IU27"/>
+      <c r="IV27"/>
+      <c r="IW27"/>
+      <c r="IX27"/>
+      <c r="IY27"/>
+      <c r="IZ27"/>
+      <c r="JA27"/>
+      <c r="JB27"/>
+      <c r="JC27"/>
+      <c r="JD27"/>
+      <c r="JE27"/>
+      <c r="JF27"/>
+      <c r="JG27"/>
+      <c r="JH27"/>
+      <c r="JI27"/>
+      <c r="JJ27"/>
+      <c r="JK27"/>
+      <c r="JL27"/>
+      <c r="JM27"/>
+      <c r="JN27"/>
+      <c r="JO27"/>
+      <c r="JP27"/>
+      <c r="JQ27"/>
+      <c r="JR27"/>
+      <c r="JS27"/>
+      <c r="JT27"/>
+      <c r="JU27"/>
+      <c r="JV27"/>
+      <c r="JW27"/>
+      <c r="JX27"/>
+      <c r="JY27"/>
+      <c r="JZ27"/>
+      <c r="KA27"/>
+      <c r="KB27"/>
+      <c r="KC27"/>
+      <c r="KD27"/>
+      <c r="KE27"/>
+      <c r="KF27"/>
+      <c r="KG27"/>
+      <c r="KH27"/>
+      <c r="KI27"/>
+      <c r="KJ27"/>
+      <c r="KK27"/>
+      <c r="KL27"/>
+      <c r="KM27"/>
+      <c r="KN27"/>
+      <c r="KO27"/>
+      <c r="KP27"/>
+      <c r="KQ27"/>
+      <c r="KR27"/>
+      <c r="KS27"/>
+      <c r="KT27"/>
+      <c r="KU27"/>
+      <c r="KV27"/>
+      <c r="KW27"/>
+      <c r="KX27"/>
+      <c r="KY27"/>
+      <c r="KZ27"/>
+      <c r="LA27"/>
+      <c r="LB27"/>
+      <c r="LC27"/>
+      <c r="LD27"/>
+      <c r="LE27"/>
+      <c r="LF27"/>
+      <c r="LG27"/>
+      <c r="LH27"/>
+      <c r="LI27"/>
+      <c r="LJ27"/>
+      <c r="LK27"/>
+      <c r="LL27"/>
+      <c r="LM27"/>
+      <c r="LN27"/>
+      <c r="LO27"/>
+      <c r="LP27"/>
+      <c r="LQ27"/>
+      <c r="LR27"/>
+      <c r="LS27"/>
+      <c r="LT27"/>
+      <c r="LU27"/>
+      <c r="LV27"/>
+      <c r="LW27"/>
+      <c r="LX27"/>
+      <c r="LY27"/>
+      <c r="LZ27"/>
+      <c r="MA27"/>
+      <c r="MB27"/>
+      <c r="MC27"/>
+      <c r="MD27"/>
+      <c r="ME27"/>
+      <c r="MF27"/>
+      <c r="MG27"/>
+      <c r="MH27"/>
+      <c r="MI27"/>
+      <c r="MJ27"/>
+      <c r="MK27"/>
+      <c r="ML27"/>
+      <c r="MM27"/>
+      <c r="MN27"/>
+      <c r="MO27"/>
+      <c r="MP27"/>
+      <c r="MQ27"/>
+      <c r="MR27"/>
+      <c r="MS27"/>
+      <c r="MT27"/>
+      <c r="MU27"/>
+      <c r="MV27"/>
+      <c r="MW27"/>
+      <c r="MX27"/>
+      <c r="MY27"/>
+      <c r="MZ27"/>
+      <c r="NA27"/>
+      <c r="NB27"/>
+      <c r="NC27"/>
+      <c r="ND27"/>
+      <c r="NE27"/>
+      <c r="NF27"/>
+      <c r="NG27"/>
+      <c r="NH27"/>
+      <c r="NI27"/>
+      <c r="NJ27"/>
+      <c r="NK27"/>
+      <c r="NL27"/>
+      <c r="NM27"/>
+      <c r="NN27"/>
+      <c r="NO27"/>
+      <c r="NP27"/>
+      <c r="NQ27"/>
+      <c r="NR27"/>
+      <c r="NS27"/>
+      <c r="NT27"/>
+      <c r="NU27"/>
+      <c r="NV27"/>
+      <c r="NW27"/>
+      <c r="NX27"/>
+      <c r="NY27"/>
+      <c r="NZ27"/>
+      <c r="OA27"/>
+      <c r="OB27"/>
+      <c r="OC27"/>
+      <c r="OD27"/>
+      <c r="OE27"/>
+      <c r="OF27"/>
+      <c r="OG27"/>
+      <c r="OH27"/>
+      <c r="OI27"/>
+      <c r="OJ27"/>
+      <c r="OK27"/>
+      <c r="OL27"/>
+      <c r="OM27"/>
+      <c r="ON27"/>
+      <c r="OO27"/>
+      <c r="OP27"/>
+      <c r="OQ27"/>
+      <c r="OR27"/>
+      <c r="OS27"/>
+      <c r="OT27"/>
+      <c r="OU27"/>
+      <c r="OV27"/>
+      <c r="OW27"/>
+      <c r="OX27"/>
+      <c r="OY27"/>
+      <c r="OZ27"/>
+      <c r="PA27"/>
+      <c r="PB27"/>
+      <c r="PC27"/>
+      <c r="PD27"/>
+      <c r="PE27"/>
+      <c r="PF27"/>
+      <c r="PG27"/>
+      <c r="PH27"/>
+      <c r="PI27"/>
+      <c r="PJ27"/>
+      <c r="PK27"/>
+      <c r="PL27"/>
+      <c r="PM27"/>
+      <c r="PN27"/>
+      <c r="PO27"/>
+      <c r="PP27"/>
+      <c r="PQ27"/>
+      <c r="PR27"/>
+      <c r="PS27"/>
+      <c r="PT27"/>
+      <c r="PU27"/>
+      <c r="PV27"/>
+      <c r="PW27"/>
+      <c r="PX27"/>
+      <c r="PY27"/>
+      <c r="PZ27"/>
+      <c r="QA27"/>
+      <c r="QB27"/>
+      <c r="QC27"/>
+      <c r="QD27"/>
+      <c r="QE27"/>
+      <c r="QF27"/>
+      <c r="QG27"/>
+      <c r="QH27"/>
+      <c r="QI27"/>
+      <c r="QJ27"/>
+      <c r="QK27"/>
+      <c r="QL27"/>
+      <c r="QM27"/>
+      <c r="QN27"/>
+      <c r="QO27"/>
+      <c r="QP27"/>
+      <c r="QQ27"/>
+      <c r="QR27"/>
+      <c r="QS27"/>
+      <c r="QT27"/>
+      <c r="QU27"/>
+      <c r="QV27"/>
+      <c r="QW27"/>
+      <c r="QX27"/>
+      <c r="QY27"/>
+      <c r="QZ27"/>
+      <c r="RA27"/>
+      <c r="RB27"/>
+      <c r="RC27"/>
+      <c r="RD27"/>
+      <c r="RE27"/>
+      <c r="RF27"/>
+      <c r="RG27"/>
+      <c r="RH27"/>
+      <c r="RI27"/>
+      <c r="RJ27"/>
+      <c r="RK27"/>
+      <c r="RL27"/>
+      <c r="RM27"/>
+      <c r="RN27"/>
     </row>
-    <row r="28" spans="1:481" x14ac:dyDescent="0.2">
-      <c r="W28" s="24"/>
-      <c r="AA28" s="24"/>
+    <row r="28" spans="1:482" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" s="11"/>
+      <c r="M28" s="10">
+        <v>4711</v>
+      </c>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+      <c r="AG28"/>
+      <c r="AH28"/>
+      <c r="AI28"/>
+      <c r="AJ28"/>
+      <c r="AK28"/>
+      <c r="AL28"/>
+      <c r="AM28"/>
+      <c r="AN28"/>
+      <c r="AO28"/>
+      <c r="AP28"/>
+      <c r="AQ28"/>
+      <c r="AR28"/>
+      <c r="AS28"/>
+      <c r="AT28"/>
+      <c r="AU28"/>
+      <c r="AV28"/>
+      <c r="AW28"/>
+      <c r="AX28"/>
+      <c r="AY28"/>
+      <c r="AZ28"/>
+      <c r="BA28"/>
+      <c r="BB28"/>
+      <c r="BC28"/>
+      <c r="BD28"/>
+      <c r="BE28"/>
+      <c r="BF28"/>
+      <c r="BG28"/>
+      <c r="BH28"/>
+      <c r="BI28"/>
+      <c r="BJ28"/>
+      <c r="BK28"/>
+      <c r="BL28"/>
+      <c r="BM28"/>
+      <c r="BN28"/>
+      <c r="BO28"/>
+      <c r="BP28"/>
+      <c r="BQ28"/>
+      <c r="BR28"/>
+      <c r="BS28"/>
+      <c r="BT28"/>
+      <c r="BU28"/>
+      <c r="BV28"/>
+      <c r="BW28"/>
+      <c r="BX28"/>
+      <c r="BY28"/>
+      <c r="BZ28"/>
+      <c r="CA28"/>
+      <c r="CB28"/>
+      <c r="CC28"/>
+      <c r="CD28"/>
+      <c r="CE28"/>
+      <c r="CF28"/>
+      <c r="CG28"/>
+      <c r="CH28"/>
+      <c r="CI28"/>
+      <c r="CJ28"/>
+      <c r="CK28"/>
+      <c r="CL28"/>
+      <c r="CM28"/>
+      <c r="CN28"/>
+      <c r="CO28"/>
+      <c r="CP28"/>
+      <c r="CQ28"/>
+      <c r="CR28"/>
+      <c r="CS28"/>
+      <c r="CT28"/>
+      <c r="CU28"/>
+      <c r="CV28"/>
+      <c r="CW28"/>
+      <c r="CX28"/>
+      <c r="CY28"/>
+      <c r="CZ28"/>
+      <c r="DA28"/>
+      <c r="DB28"/>
+      <c r="DC28"/>
+      <c r="DD28"/>
+      <c r="DE28"/>
+      <c r="DF28"/>
+      <c r="DG28"/>
+      <c r="DH28"/>
+      <c r="DI28"/>
+      <c r="DJ28"/>
+      <c r="DK28"/>
+      <c r="DL28"/>
+      <c r="DM28"/>
+      <c r="DN28"/>
+      <c r="DO28"/>
+      <c r="DP28"/>
+      <c r="DQ28"/>
+      <c r="DR28"/>
+      <c r="DS28"/>
+      <c r="DT28"/>
+      <c r="DU28"/>
+      <c r="DV28"/>
+      <c r="DW28"/>
+      <c r="DX28"/>
+      <c r="DY28"/>
+      <c r="DZ28"/>
+      <c r="EA28"/>
+      <c r="EB28"/>
+      <c r="EC28"/>
+      <c r="ED28"/>
+      <c r="EE28"/>
+      <c r="EF28"/>
+      <c r="EG28"/>
+      <c r="EH28"/>
+      <c r="EI28"/>
+      <c r="EJ28"/>
+      <c r="EK28"/>
+      <c r="EL28"/>
+      <c r="EM28"/>
+      <c r="EN28"/>
+      <c r="EO28"/>
+      <c r="EP28"/>
+      <c r="EQ28"/>
+      <c r="ER28"/>
+      <c r="ES28"/>
+      <c r="ET28"/>
+      <c r="EU28"/>
+      <c r="EV28"/>
+      <c r="EW28"/>
+      <c r="EX28"/>
+      <c r="EY28"/>
+      <c r="EZ28"/>
+      <c r="FA28"/>
+      <c r="FB28"/>
+      <c r="FC28"/>
+      <c r="FD28"/>
+      <c r="FE28"/>
+      <c r="FF28"/>
+      <c r="FG28"/>
+      <c r="FH28"/>
+      <c r="FI28"/>
+      <c r="FJ28"/>
+      <c r="FK28"/>
+      <c r="FL28"/>
+      <c r="FM28"/>
+      <c r="FN28"/>
+      <c r="FO28"/>
+      <c r="FP28"/>
+      <c r="FQ28"/>
+      <c r="FR28"/>
+      <c r="FS28"/>
+      <c r="FT28"/>
+      <c r="FU28"/>
+      <c r="FV28"/>
+      <c r="FW28"/>
+      <c r="FX28"/>
+      <c r="FY28"/>
+      <c r="FZ28"/>
+      <c r="GA28"/>
+      <c r="GB28"/>
+      <c r="GC28"/>
+      <c r="GD28"/>
+      <c r="GE28"/>
+      <c r="GF28"/>
+      <c r="GG28"/>
+      <c r="GH28"/>
+      <c r="GI28"/>
+      <c r="GJ28"/>
+      <c r="GK28"/>
+      <c r="GL28"/>
+      <c r="GM28"/>
+      <c r="GN28"/>
+      <c r="GO28"/>
+      <c r="GP28"/>
+      <c r="GQ28"/>
+      <c r="GR28"/>
+      <c r="GS28"/>
+      <c r="GT28"/>
+      <c r="GU28"/>
+      <c r="GV28"/>
+      <c r="GW28"/>
+      <c r="GX28"/>
+      <c r="GY28"/>
+      <c r="GZ28"/>
+      <c r="HA28"/>
+      <c r="HB28"/>
+      <c r="HC28"/>
+      <c r="HD28"/>
+      <c r="HE28"/>
+      <c r="HF28"/>
+      <c r="HG28"/>
+      <c r="HH28"/>
+      <c r="HI28"/>
+      <c r="HJ28"/>
+      <c r="HK28"/>
+      <c r="HL28"/>
+      <c r="HM28"/>
+      <c r="HN28"/>
+      <c r="HO28"/>
+      <c r="HP28"/>
+      <c r="HQ28"/>
+      <c r="HR28"/>
+      <c r="HS28"/>
+      <c r="HT28"/>
+      <c r="HU28"/>
+      <c r="HV28"/>
+      <c r="HW28"/>
+      <c r="HX28"/>
+      <c r="HY28"/>
+      <c r="HZ28"/>
+      <c r="IA28"/>
+      <c r="IB28"/>
+      <c r="IC28"/>
+      <c r="ID28"/>
+      <c r="IE28"/>
+      <c r="IF28"/>
+      <c r="IG28"/>
+      <c r="IH28"/>
+      <c r="II28"/>
+      <c r="IJ28"/>
+      <c r="IK28"/>
+      <c r="IL28"/>
+      <c r="IM28"/>
+      <c r="IN28"/>
+      <c r="IO28"/>
+      <c r="IP28"/>
+      <c r="IQ28"/>
+      <c r="IR28"/>
+      <c r="IS28"/>
+      <c r="IT28"/>
+      <c r="IU28"/>
+      <c r="IV28"/>
+      <c r="IW28"/>
+      <c r="IX28"/>
+      <c r="IY28"/>
+      <c r="IZ28"/>
+      <c r="JA28"/>
+      <c r="JB28"/>
+      <c r="JC28"/>
+      <c r="JD28"/>
+      <c r="JE28"/>
+      <c r="JF28"/>
+      <c r="JG28"/>
+      <c r="JH28"/>
+      <c r="JI28"/>
+      <c r="JJ28"/>
+      <c r="JK28"/>
+      <c r="JL28"/>
+      <c r="JM28"/>
+      <c r="JN28"/>
+      <c r="JO28"/>
+      <c r="JP28"/>
+      <c r="JQ28"/>
+      <c r="JR28"/>
+      <c r="JS28"/>
+      <c r="JT28"/>
+      <c r="JU28"/>
+      <c r="JV28"/>
+      <c r="JW28"/>
+      <c r="JX28"/>
+      <c r="JY28"/>
+      <c r="JZ28"/>
+      <c r="KA28"/>
+      <c r="KB28"/>
+      <c r="KC28"/>
+      <c r="KD28"/>
+      <c r="KE28"/>
+      <c r="KF28"/>
+      <c r="KG28"/>
+      <c r="KH28"/>
+      <c r="KI28"/>
+      <c r="KJ28"/>
+      <c r="KK28"/>
+      <c r="KL28"/>
+      <c r="KM28"/>
+      <c r="KN28"/>
+      <c r="KO28"/>
+      <c r="KP28"/>
+      <c r="KQ28"/>
+      <c r="KR28"/>
+      <c r="KS28"/>
+      <c r="KT28"/>
+      <c r="KU28"/>
+      <c r="KV28"/>
+      <c r="KW28"/>
+      <c r="KX28"/>
+      <c r="KY28"/>
+      <c r="KZ28"/>
+      <c r="LA28"/>
+      <c r="LB28"/>
+      <c r="LC28"/>
+      <c r="LD28"/>
+      <c r="LE28"/>
+      <c r="LF28"/>
+      <c r="LG28"/>
+      <c r="LH28"/>
+      <c r="LI28"/>
+      <c r="LJ28"/>
+      <c r="LK28"/>
+      <c r="LL28"/>
+      <c r="LM28"/>
+      <c r="LN28"/>
+      <c r="LO28"/>
+      <c r="LP28"/>
+      <c r="LQ28"/>
+      <c r="LR28"/>
+      <c r="LS28"/>
+      <c r="LT28"/>
+      <c r="LU28"/>
+      <c r="LV28"/>
+      <c r="LW28"/>
+      <c r="LX28"/>
+      <c r="LY28"/>
+      <c r="LZ28"/>
+      <c r="MA28"/>
+      <c r="MB28"/>
+      <c r="MC28"/>
+      <c r="MD28"/>
+      <c r="ME28"/>
+      <c r="MF28"/>
+      <c r="MG28"/>
+      <c r="MH28"/>
+      <c r="MI28"/>
+      <c r="MJ28"/>
+      <c r="MK28"/>
+      <c r="ML28"/>
+      <c r="MM28"/>
+      <c r="MN28"/>
+      <c r="MO28"/>
+      <c r="MP28"/>
+      <c r="MQ28"/>
+      <c r="MR28"/>
+      <c r="MS28"/>
+      <c r="MT28"/>
+      <c r="MU28"/>
+      <c r="MV28"/>
+      <c r="MW28"/>
+      <c r="MX28"/>
+      <c r="MY28"/>
+      <c r="MZ28"/>
+      <c r="NA28"/>
+      <c r="NB28"/>
+      <c r="NC28"/>
+      <c r="ND28"/>
+      <c r="NE28"/>
+      <c r="NF28"/>
+      <c r="NG28"/>
+      <c r="NH28"/>
+      <c r="NI28"/>
+      <c r="NJ28"/>
+      <c r="NK28"/>
+      <c r="NL28"/>
+      <c r="NM28"/>
+      <c r="NN28"/>
+      <c r="NO28"/>
+      <c r="NP28"/>
+      <c r="NQ28"/>
+      <c r="NR28"/>
+      <c r="NS28"/>
+      <c r="NT28"/>
+      <c r="NU28"/>
+      <c r="NV28"/>
+      <c r="NW28"/>
+      <c r="NX28"/>
+      <c r="NY28"/>
+      <c r="NZ28"/>
+      <c r="OA28"/>
+      <c r="OB28"/>
+      <c r="OC28"/>
+      <c r="OD28"/>
+      <c r="OE28"/>
+      <c r="OF28"/>
+      <c r="OG28"/>
+      <c r="OH28"/>
+      <c r="OI28"/>
+      <c r="OJ28"/>
+      <c r="OK28"/>
+      <c r="OL28"/>
+      <c r="OM28"/>
+      <c r="ON28"/>
+      <c r="OO28"/>
+      <c r="OP28"/>
+      <c r="OQ28"/>
+      <c r="OR28"/>
+      <c r="OS28"/>
+      <c r="OT28"/>
+      <c r="OU28"/>
+      <c r="OV28"/>
+      <c r="OW28"/>
+      <c r="OX28"/>
+      <c r="OY28"/>
+      <c r="OZ28"/>
+      <c r="PA28"/>
+      <c r="PB28"/>
+      <c r="PC28"/>
+      <c r="PD28"/>
+      <c r="PE28"/>
+      <c r="PF28"/>
+      <c r="PG28"/>
+      <c r="PH28"/>
+      <c r="PI28"/>
+      <c r="PJ28"/>
+      <c r="PK28"/>
+      <c r="PL28"/>
+      <c r="PM28"/>
+      <c r="PN28"/>
+      <c r="PO28"/>
+      <c r="PP28"/>
+      <c r="PQ28"/>
+      <c r="PR28"/>
+      <c r="PS28"/>
+      <c r="PT28"/>
+      <c r="PU28"/>
+      <c r="PV28"/>
+      <c r="PW28"/>
+      <c r="PX28"/>
+      <c r="PY28"/>
+      <c r="PZ28"/>
+      <c r="QA28"/>
+      <c r="QB28"/>
+      <c r="QC28"/>
+      <c r="QD28"/>
+      <c r="QE28"/>
+      <c r="QF28"/>
+      <c r="QG28"/>
+      <c r="QH28"/>
+      <c r="QI28"/>
+      <c r="QJ28"/>
+      <c r="QK28"/>
+      <c r="QL28"/>
+      <c r="QM28"/>
+      <c r="QN28"/>
+      <c r="QO28"/>
+      <c r="QP28"/>
+      <c r="QQ28"/>
+      <c r="QR28"/>
+      <c r="QS28"/>
+      <c r="QT28"/>
+      <c r="QU28"/>
+      <c r="QV28"/>
+      <c r="QW28"/>
+      <c r="QX28"/>
+      <c r="QY28"/>
+      <c r="QZ28"/>
+      <c r="RA28"/>
+      <c r="RB28"/>
+      <c r="RC28"/>
+      <c r="RD28"/>
+      <c r="RE28"/>
+      <c r="RF28"/>
+      <c r="RG28"/>
+      <c r="RH28"/>
+      <c r="RI28"/>
+      <c r="RJ28"/>
+      <c r="RK28"/>
+      <c r="RL28"/>
+      <c r="RM28"/>
+      <c r="RN28"/>
     </row>
-    <row r="29" spans="1:481" x14ac:dyDescent="0.2">
-      <c r="W29" s="24"/>
-      <c r="AA29" s="24"/>
+    <row r="29" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+      <c r="AE29"/>
+      <c r="AF29"/>
+      <c r="AG29"/>
+      <c r="AH29"/>
+      <c r="AI29"/>
+      <c r="AJ29"/>
+      <c r="AK29"/>
+      <c r="AL29"/>
+      <c r="AM29"/>
+      <c r="AN29"/>
+      <c r="AO29"/>
+      <c r="AP29"/>
+      <c r="AQ29"/>
+      <c r="AR29"/>
+      <c r="AS29"/>
+      <c r="AT29"/>
+      <c r="AU29"/>
+      <c r="AV29"/>
+      <c r="AW29"/>
+      <c r="AX29"/>
+      <c r="AY29"/>
+      <c r="AZ29"/>
+      <c r="BA29"/>
+      <c r="BB29"/>
+      <c r="BC29"/>
+      <c r="BD29"/>
+      <c r="BE29"/>
+      <c r="BF29"/>
+      <c r="BG29"/>
+      <c r="BH29"/>
+      <c r="BI29"/>
+      <c r="BJ29"/>
+      <c r="BK29"/>
+      <c r="BL29"/>
+      <c r="BM29"/>
+      <c r="BN29"/>
+      <c r="BO29"/>
+      <c r="BP29"/>
+      <c r="BQ29"/>
+      <c r="BR29"/>
+      <c r="BS29"/>
+      <c r="BT29"/>
+      <c r="BU29"/>
+      <c r="BV29"/>
+      <c r="BW29"/>
+      <c r="BX29"/>
+      <c r="BY29"/>
+      <c r="BZ29"/>
+      <c r="CA29"/>
+      <c r="CB29"/>
+      <c r="CC29"/>
+      <c r="CD29"/>
+      <c r="CE29"/>
+      <c r="CF29"/>
+      <c r="CG29"/>
+      <c r="CH29"/>
+      <c r="CI29"/>
+      <c r="CJ29"/>
+      <c r="CK29"/>
+      <c r="CL29"/>
+      <c r="CM29"/>
+      <c r="CN29"/>
+      <c r="CO29"/>
+      <c r="CP29"/>
+      <c r="CQ29"/>
+      <c r="CR29"/>
+      <c r="CS29"/>
+      <c r="CT29"/>
+      <c r="CU29"/>
+      <c r="CV29"/>
+      <c r="CW29"/>
+      <c r="CX29"/>
+      <c r="CY29"/>
+      <c r="CZ29"/>
+      <c r="DA29"/>
+      <c r="DB29"/>
+      <c r="DC29"/>
+      <c r="DD29"/>
+      <c r="DE29"/>
+      <c r="DF29"/>
+      <c r="DG29"/>
+      <c r="DH29"/>
+      <c r="DI29"/>
+      <c r="DJ29"/>
+      <c r="DK29"/>
+      <c r="DL29"/>
+      <c r="DM29"/>
+      <c r="DN29"/>
+      <c r="DO29"/>
+      <c r="DP29"/>
+      <c r="DQ29"/>
+      <c r="DR29"/>
+      <c r="DS29"/>
+      <c r="DT29"/>
+      <c r="DU29"/>
+      <c r="DV29"/>
+      <c r="DW29"/>
+      <c r="DX29"/>
+      <c r="DY29"/>
+      <c r="DZ29"/>
+      <c r="EA29"/>
+      <c r="EB29"/>
+      <c r="EC29"/>
+      <c r="ED29"/>
+      <c r="EE29"/>
+      <c r="EF29"/>
+      <c r="EG29"/>
+      <c r="EH29"/>
+      <c r="EI29"/>
+      <c r="EJ29"/>
+      <c r="EK29"/>
+      <c r="EL29"/>
+      <c r="EM29"/>
+      <c r="EN29"/>
+      <c r="EO29"/>
+      <c r="EP29"/>
+      <c r="EQ29"/>
+      <c r="ER29"/>
+      <c r="ES29"/>
+      <c r="ET29"/>
+      <c r="EU29"/>
+      <c r="EV29"/>
+      <c r="EW29"/>
+      <c r="EX29"/>
+      <c r="EY29"/>
+      <c r="EZ29"/>
+      <c r="FA29"/>
+      <c r="FB29"/>
+      <c r="FC29"/>
+      <c r="FD29"/>
+      <c r="FE29"/>
+      <c r="FF29"/>
+      <c r="FG29"/>
+      <c r="FH29"/>
+      <c r="FI29"/>
+      <c r="FJ29"/>
+      <c r="FK29"/>
+      <c r="FL29"/>
+      <c r="FM29"/>
+      <c r="FN29"/>
+      <c r="FO29"/>
+      <c r="FP29"/>
+      <c r="FQ29"/>
+      <c r="FR29"/>
+      <c r="FS29"/>
+      <c r="FT29"/>
+      <c r="FU29"/>
+      <c r="FV29"/>
+      <c r="FW29"/>
+      <c r="FX29"/>
+      <c r="FY29"/>
+      <c r="FZ29"/>
+      <c r="GA29"/>
+      <c r="GB29"/>
+      <c r="GC29"/>
+      <c r="GD29"/>
+      <c r="GE29"/>
+      <c r="GF29"/>
+      <c r="GG29"/>
+      <c r="GH29"/>
+      <c r="GI29"/>
+      <c r="GJ29"/>
+      <c r="GK29"/>
+      <c r="GL29"/>
+      <c r="GM29"/>
+      <c r="GN29"/>
+      <c r="GO29"/>
+      <c r="GP29"/>
+      <c r="GQ29"/>
+      <c r="GR29"/>
+      <c r="GS29"/>
+      <c r="GT29"/>
+      <c r="GU29"/>
+      <c r="GV29"/>
+      <c r="GW29"/>
+      <c r="GX29"/>
+      <c r="GY29"/>
+      <c r="GZ29"/>
+      <c r="HA29"/>
+      <c r="HB29"/>
+      <c r="HC29"/>
+      <c r="HD29"/>
+      <c r="HE29"/>
+      <c r="HF29"/>
+      <c r="HG29"/>
+      <c r="HH29"/>
+      <c r="HI29"/>
+      <c r="HJ29"/>
+      <c r="HK29"/>
+      <c r="HL29"/>
+      <c r="HM29"/>
+      <c r="HN29"/>
+      <c r="HO29"/>
+      <c r="HP29"/>
+      <c r="HQ29"/>
+      <c r="HR29"/>
+      <c r="HS29"/>
+      <c r="HT29"/>
+      <c r="HU29"/>
+      <c r="HV29"/>
+      <c r="HW29"/>
+      <c r="HX29"/>
+      <c r="HY29"/>
+      <c r="HZ29"/>
+      <c r="IA29"/>
+      <c r="IB29"/>
+      <c r="IC29"/>
+      <c r="ID29"/>
+      <c r="IE29"/>
+      <c r="IF29"/>
+      <c r="IG29"/>
+      <c r="IH29"/>
+      <c r="II29"/>
+      <c r="IJ29"/>
+      <c r="IK29"/>
+      <c r="IL29"/>
+      <c r="IM29"/>
+      <c r="IN29"/>
+      <c r="IO29"/>
+      <c r="IP29"/>
+      <c r="IQ29"/>
+      <c r="IR29"/>
+      <c r="IS29"/>
+      <c r="IT29"/>
+      <c r="IU29"/>
+      <c r="IV29"/>
+      <c r="IW29"/>
+      <c r="IX29"/>
+      <c r="IY29"/>
+      <c r="IZ29"/>
+      <c r="JA29"/>
+      <c r="JB29"/>
+      <c r="JC29"/>
+      <c r="JD29"/>
+      <c r="JE29"/>
+      <c r="JF29"/>
+      <c r="JG29"/>
+      <c r="JH29"/>
+      <c r="JI29"/>
+      <c r="JJ29"/>
+      <c r="JK29"/>
+      <c r="JL29"/>
+      <c r="JM29"/>
+      <c r="JN29"/>
+      <c r="JO29"/>
+      <c r="JP29"/>
+      <c r="JQ29"/>
+      <c r="JR29"/>
+      <c r="JS29"/>
+      <c r="JT29"/>
+      <c r="JU29"/>
+      <c r="JV29"/>
+      <c r="JW29"/>
+      <c r="JX29"/>
+      <c r="JY29"/>
+      <c r="JZ29"/>
+      <c r="KA29"/>
+      <c r="KB29"/>
+      <c r="KC29"/>
+      <c r="KD29"/>
+      <c r="KE29"/>
+      <c r="KF29"/>
+      <c r="KG29"/>
+      <c r="KH29"/>
+      <c r="KI29"/>
+      <c r="KJ29"/>
+      <c r="KK29"/>
+      <c r="KL29"/>
+      <c r="KM29"/>
+      <c r="KN29"/>
+      <c r="KO29"/>
+      <c r="KP29"/>
+      <c r="KQ29"/>
+      <c r="KR29"/>
+      <c r="KS29"/>
+      <c r="KT29"/>
+      <c r="KU29"/>
+      <c r="KV29"/>
+      <c r="KW29"/>
+      <c r="KX29"/>
+      <c r="KY29"/>
+      <c r="KZ29"/>
+      <c r="LA29"/>
+      <c r="LB29"/>
+      <c r="LC29"/>
+      <c r="LD29"/>
+      <c r="LE29"/>
+      <c r="LF29"/>
+      <c r="LG29"/>
+      <c r="LH29"/>
+      <c r="LI29"/>
+      <c r="LJ29"/>
+      <c r="LK29"/>
+      <c r="LL29"/>
+      <c r="LM29"/>
+      <c r="LN29"/>
+      <c r="LO29"/>
+      <c r="LP29"/>
+      <c r="LQ29"/>
+      <c r="LR29"/>
+      <c r="LS29"/>
+      <c r="LT29"/>
+      <c r="LU29"/>
+      <c r="LV29"/>
+      <c r="LW29"/>
+      <c r="LX29"/>
+      <c r="LY29"/>
+      <c r="LZ29"/>
+      <c r="MA29"/>
+      <c r="MB29"/>
+      <c r="MC29"/>
+      <c r="MD29"/>
+      <c r="ME29"/>
+      <c r="MF29"/>
+      <c r="MG29"/>
+      <c r="MH29"/>
+      <c r="MI29"/>
+      <c r="MJ29"/>
+      <c r="MK29"/>
+      <c r="ML29"/>
+      <c r="MM29"/>
+      <c r="MN29"/>
+      <c r="MO29"/>
+      <c r="MP29"/>
+      <c r="MQ29"/>
+      <c r="MR29"/>
+      <c r="MS29"/>
+      <c r="MT29"/>
+      <c r="MU29"/>
+      <c r="MV29"/>
+      <c r="MW29"/>
+      <c r="MX29"/>
+      <c r="MY29"/>
+      <c r="MZ29"/>
+      <c r="NA29"/>
+      <c r="NB29"/>
+      <c r="NC29"/>
+      <c r="ND29"/>
+      <c r="NE29"/>
+      <c r="NF29"/>
+      <c r="NG29"/>
+      <c r="NH29"/>
+      <c r="NI29"/>
+      <c r="NJ29"/>
+      <c r="NK29"/>
+      <c r="NL29"/>
+      <c r="NM29"/>
+      <c r="NN29"/>
+      <c r="NO29"/>
+      <c r="NP29"/>
+      <c r="NQ29"/>
+      <c r="NR29"/>
+      <c r="NS29"/>
+      <c r="NT29"/>
+      <c r="NU29"/>
+      <c r="NV29"/>
+      <c r="NW29"/>
+      <c r="NX29"/>
+      <c r="NY29"/>
+      <c r="NZ29"/>
+      <c r="OA29"/>
+      <c r="OB29"/>
+      <c r="OC29"/>
+      <c r="OD29"/>
+      <c r="OE29"/>
+      <c r="OF29"/>
+      <c r="OG29"/>
+      <c r="OH29"/>
+      <c r="OI29"/>
+      <c r="OJ29"/>
+      <c r="OK29"/>
+      <c r="OL29"/>
+      <c r="OM29"/>
+      <c r="ON29"/>
+      <c r="OO29"/>
+      <c r="OP29"/>
+      <c r="OQ29"/>
+      <c r="OR29"/>
+      <c r="OS29"/>
+      <c r="OT29"/>
+      <c r="OU29"/>
+      <c r="OV29"/>
+      <c r="OW29"/>
+      <c r="OX29"/>
+      <c r="OY29"/>
+      <c r="OZ29"/>
+      <c r="PA29"/>
+      <c r="PB29"/>
+      <c r="PC29"/>
+      <c r="PD29"/>
+      <c r="PE29"/>
+      <c r="PF29"/>
+      <c r="PG29"/>
+      <c r="PH29"/>
+      <c r="PI29"/>
+      <c r="PJ29"/>
+      <c r="PK29"/>
+      <c r="PL29"/>
+      <c r="PM29"/>
+      <c r="PN29"/>
+      <c r="PO29"/>
+      <c r="PP29"/>
+      <c r="PQ29"/>
+      <c r="PR29"/>
+      <c r="PS29"/>
+      <c r="PT29"/>
+      <c r="PU29"/>
+      <c r="PV29"/>
+      <c r="PW29"/>
+      <c r="PX29"/>
+      <c r="PY29"/>
+      <c r="PZ29"/>
+      <c r="QA29"/>
+      <c r="QB29"/>
+      <c r="QC29"/>
+      <c r="QD29"/>
+      <c r="QE29"/>
+      <c r="QF29"/>
+      <c r="QG29"/>
+      <c r="QH29"/>
+      <c r="QI29"/>
+      <c r="QJ29"/>
+      <c r="QK29"/>
+      <c r="QL29"/>
+      <c r="QM29"/>
+      <c r="QN29"/>
+      <c r="QO29"/>
+      <c r="QP29"/>
+      <c r="QQ29"/>
+      <c r="QR29"/>
+      <c r="QS29"/>
+      <c r="QT29"/>
+      <c r="QU29"/>
+      <c r="QV29"/>
+      <c r="QW29"/>
+      <c r="QX29"/>
+      <c r="QY29"/>
+      <c r="QZ29"/>
+      <c r="RA29"/>
+      <c r="RB29"/>
+      <c r="RC29"/>
+      <c r="RD29"/>
+      <c r="RE29"/>
+      <c r="RF29"/>
+      <c r="RG29"/>
+      <c r="RH29"/>
+      <c r="RI29"/>
+      <c r="RJ29"/>
+      <c r="RK29"/>
+      <c r="RL29"/>
+      <c r="RM29"/>
+      <c r="RN29"/>
     </row>
-    <row r="30" spans="1:481" x14ac:dyDescent="0.2">
-      <c r="W30" s="24"/>
-      <c r="AA30" s="24"/>
+    <row r="30" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I30" s="7"/>
+      <c r="J30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" s="7"/>
+      <c r="M30" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30"/>
+      <c r="AD30" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE30"/>
+      <c r="AF30"/>
+      <c r="AG30"/>
+      <c r="AH30"/>
+      <c r="AI30"/>
+      <c r="AJ30"/>
+      <c r="AK30"/>
+      <c r="AL30"/>
+      <c r="AM30"/>
+      <c r="AN30"/>
+      <c r="AO30"/>
+      <c r="AP30"/>
+      <c r="AQ30"/>
+      <c r="AR30"/>
+      <c r="AS30"/>
+      <c r="AT30"/>
+      <c r="AU30"/>
+      <c r="AV30"/>
+      <c r="AW30"/>
+      <c r="AX30"/>
+      <c r="AY30"/>
+      <c r="AZ30"/>
+      <c r="BA30"/>
+      <c r="BB30"/>
+      <c r="BC30"/>
+      <c r="BD30"/>
+      <c r="BE30"/>
+      <c r="BF30"/>
+      <c r="BG30"/>
+      <c r="BH30"/>
+      <c r="BI30"/>
+      <c r="BJ30"/>
+      <c r="BK30"/>
+      <c r="BL30"/>
+      <c r="BM30"/>
+      <c r="BN30"/>
+      <c r="BO30"/>
+      <c r="BP30"/>
+      <c r="BQ30"/>
+      <c r="BR30"/>
+      <c r="BS30"/>
+      <c r="BT30"/>
+      <c r="BU30"/>
+      <c r="BV30"/>
+      <c r="BW30"/>
+      <c r="BX30"/>
+      <c r="BY30"/>
+      <c r="BZ30"/>
+      <c r="CA30"/>
+      <c r="CB30"/>
+      <c r="CC30"/>
+      <c r="CD30"/>
+      <c r="CE30"/>
+      <c r="CF30"/>
+      <c r="CG30"/>
+      <c r="CH30"/>
+      <c r="CI30"/>
+      <c r="CJ30"/>
+      <c r="CK30"/>
+      <c r="CL30"/>
+      <c r="CM30"/>
+      <c r="CN30"/>
+      <c r="CO30"/>
+      <c r="CP30"/>
+      <c r="CQ30"/>
+      <c r="CR30"/>
+      <c r="CS30"/>
+      <c r="CT30"/>
+      <c r="CU30"/>
+      <c r="CV30"/>
+      <c r="CW30"/>
+      <c r="CX30"/>
+      <c r="CY30"/>
+      <c r="CZ30"/>
+      <c r="DA30"/>
+      <c r="DB30"/>
+      <c r="DC30"/>
+      <c r="DD30"/>
+      <c r="DE30"/>
+      <c r="DF30"/>
+      <c r="DG30"/>
+      <c r="DH30"/>
+      <c r="DI30"/>
+      <c r="DJ30"/>
+      <c r="DK30"/>
+      <c r="DL30"/>
+      <c r="DM30"/>
+      <c r="DN30"/>
+      <c r="DO30"/>
+      <c r="DP30"/>
+      <c r="DQ30"/>
+      <c r="DR30"/>
+      <c r="DS30"/>
+      <c r="DT30"/>
+      <c r="DU30"/>
+      <c r="DV30"/>
+      <c r="DW30"/>
+      <c r="DX30"/>
+      <c r="DY30"/>
+      <c r="DZ30"/>
+      <c r="EA30"/>
+      <c r="EB30"/>
+      <c r="EC30"/>
+      <c r="ED30"/>
+      <c r="EE30"/>
+      <c r="EF30"/>
+      <c r="EG30"/>
+      <c r="EH30"/>
+      <c r="EI30"/>
+      <c r="EJ30"/>
+      <c r="EK30"/>
+      <c r="EL30"/>
+      <c r="EM30"/>
+      <c r="EN30"/>
+      <c r="EO30"/>
+      <c r="EP30"/>
+      <c r="EQ30"/>
+      <c r="ER30"/>
+      <c r="ES30"/>
+      <c r="ET30"/>
+      <c r="EU30"/>
+      <c r="EV30"/>
+      <c r="EW30"/>
+      <c r="EX30"/>
+      <c r="EY30"/>
+      <c r="EZ30"/>
+      <c r="FA30"/>
+      <c r="FB30"/>
+      <c r="FC30"/>
+      <c r="FD30"/>
+      <c r="FE30"/>
+      <c r="FF30"/>
+      <c r="FG30"/>
+      <c r="FH30"/>
+      <c r="FI30"/>
+      <c r="FJ30"/>
+      <c r="FK30"/>
+      <c r="FL30"/>
+      <c r="FM30"/>
+      <c r="FN30"/>
+      <c r="FO30"/>
+      <c r="FP30"/>
+      <c r="FQ30"/>
+      <c r="FR30"/>
+      <c r="FS30"/>
+      <c r="FT30"/>
+      <c r="FU30"/>
+      <c r="FV30"/>
+      <c r="FW30"/>
+      <c r="FX30"/>
+      <c r="FY30"/>
+      <c r="FZ30"/>
+      <c r="GA30"/>
+      <c r="GB30"/>
+      <c r="GC30"/>
+      <c r="GD30"/>
+      <c r="GE30"/>
+      <c r="GF30"/>
+      <c r="GG30"/>
+      <c r="GH30"/>
+      <c r="GI30"/>
+      <c r="GJ30"/>
+      <c r="GK30"/>
+      <c r="GL30"/>
+      <c r="GM30"/>
+      <c r="GN30"/>
+      <c r="GO30"/>
+      <c r="GP30"/>
+      <c r="GQ30"/>
+      <c r="GR30"/>
+      <c r="GS30"/>
+      <c r="GT30"/>
+      <c r="GU30"/>
+      <c r="GV30"/>
+      <c r="GW30"/>
+      <c r="GX30"/>
+      <c r="GY30"/>
+      <c r="GZ30"/>
+      <c r="HA30"/>
+      <c r="HB30"/>
+      <c r="HC30"/>
+      <c r="HD30"/>
+      <c r="HE30"/>
+      <c r="HF30"/>
+      <c r="HG30"/>
+      <c r="HH30"/>
+      <c r="HI30"/>
+      <c r="HJ30"/>
+      <c r="HK30"/>
+      <c r="HL30"/>
+      <c r="HM30"/>
+      <c r="HN30"/>
+      <c r="HO30"/>
+      <c r="HP30"/>
+      <c r="HQ30"/>
+      <c r="HR30"/>
+      <c r="HS30"/>
+      <c r="HT30"/>
+      <c r="HU30"/>
+      <c r="HV30"/>
+      <c r="HW30"/>
+      <c r="HX30"/>
+      <c r="HY30"/>
+      <c r="HZ30"/>
+      <c r="IA30"/>
+      <c r="IB30"/>
+      <c r="IC30"/>
+      <c r="ID30"/>
+      <c r="IE30"/>
+      <c r="IF30"/>
+      <c r="IG30"/>
+      <c r="IH30"/>
+      <c r="II30"/>
+      <c r="IJ30"/>
+      <c r="IK30"/>
+      <c r="IL30"/>
+      <c r="IM30"/>
+      <c r="IN30"/>
+      <c r="IO30"/>
+      <c r="IP30"/>
+      <c r="IQ30"/>
+      <c r="IR30"/>
+      <c r="IS30"/>
+      <c r="IT30"/>
+      <c r="IU30"/>
+      <c r="IV30"/>
+      <c r="IW30"/>
+      <c r="IX30"/>
+      <c r="IY30"/>
+      <c r="IZ30"/>
+      <c r="JA30"/>
+      <c r="JB30"/>
+      <c r="JC30"/>
+      <c r="JD30"/>
+      <c r="JE30"/>
+      <c r="JF30"/>
+      <c r="JG30"/>
+      <c r="JH30"/>
+      <c r="JI30"/>
+      <c r="JJ30"/>
+      <c r="JK30"/>
+      <c r="JL30"/>
+      <c r="JM30"/>
+      <c r="JN30"/>
+      <c r="JO30"/>
+      <c r="JP30"/>
+      <c r="JQ30"/>
+      <c r="JR30"/>
+      <c r="JS30"/>
+      <c r="JT30"/>
+      <c r="JU30"/>
+      <c r="JV30"/>
+      <c r="JW30"/>
+      <c r="JX30"/>
+      <c r="JY30"/>
+      <c r="JZ30"/>
+      <c r="KA30"/>
+      <c r="KB30"/>
+      <c r="KC30"/>
+      <c r="KD30"/>
+      <c r="KE30"/>
+      <c r="KF30"/>
+      <c r="KG30"/>
+      <c r="KH30"/>
+      <c r="KI30"/>
+      <c r="KJ30"/>
+      <c r="KK30"/>
+      <c r="KL30"/>
+      <c r="KM30"/>
+      <c r="KN30"/>
+      <c r="KO30"/>
+      <c r="KP30"/>
+      <c r="KQ30"/>
+      <c r="KR30"/>
+      <c r="KS30"/>
+      <c r="KT30"/>
+      <c r="KU30"/>
+      <c r="KV30"/>
+      <c r="KW30"/>
+      <c r="KX30"/>
+      <c r="KY30"/>
+      <c r="KZ30"/>
+      <c r="LA30"/>
+      <c r="LB30"/>
+      <c r="LC30"/>
+      <c r="LD30"/>
+      <c r="LE30"/>
+      <c r="LF30"/>
+      <c r="LG30"/>
+      <c r="LH30"/>
+      <c r="LI30"/>
+      <c r="LJ30"/>
+      <c r="LK30"/>
+      <c r="LL30"/>
+      <c r="LM30"/>
+      <c r="LN30"/>
+      <c r="LO30"/>
+      <c r="LP30"/>
+      <c r="LQ30"/>
+      <c r="LR30"/>
+      <c r="LS30"/>
+      <c r="LT30"/>
+      <c r="LU30"/>
+      <c r="LV30"/>
+      <c r="LW30"/>
+      <c r="LX30"/>
+      <c r="LY30"/>
+      <c r="LZ30"/>
+      <c r="MA30"/>
+      <c r="MB30"/>
+      <c r="MC30"/>
+      <c r="MD30"/>
+      <c r="ME30"/>
+      <c r="MF30"/>
+      <c r="MG30"/>
+      <c r="MH30"/>
+      <c r="MI30"/>
+      <c r="MJ30"/>
+      <c r="MK30"/>
+      <c r="ML30"/>
+      <c r="MM30"/>
+      <c r="MN30"/>
+      <c r="MO30"/>
+      <c r="MP30"/>
+      <c r="MQ30"/>
+      <c r="MR30"/>
+      <c r="MS30"/>
+      <c r="MT30"/>
+      <c r="MU30"/>
+      <c r="MV30"/>
+      <c r="MW30"/>
+      <c r="MX30"/>
+      <c r="MY30"/>
+      <c r="MZ30"/>
+      <c r="NA30"/>
+      <c r="NB30"/>
+      <c r="NC30"/>
+      <c r="ND30"/>
+      <c r="NE30"/>
+      <c r="NF30"/>
+      <c r="NG30"/>
+      <c r="NH30"/>
+      <c r="NI30"/>
+      <c r="NJ30"/>
+      <c r="NK30"/>
+      <c r="NL30"/>
+      <c r="NM30"/>
+      <c r="NN30"/>
+      <c r="NO30"/>
+      <c r="NP30"/>
+      <c r="NQ30"/>
+      <c r="NR30"/>
+      <c r="NS30"/>
+      <c r="NT30"/>
+      <c r="NU30"/>
+      <c r="NV30"/>
+      <c r="NW30"/>
+      <c r="NX30"/>
+      <c r="NY30"/>
+      <c r="NZ30"/>
+      <c r="OA30"/>
+      <c r="OB30"/>
+      <c r="OC30"/>
+      <c r="OD30"/>
+      <c r="OE30"/>
+      <c r="OF30"/>
+      <c r="OG30"/>
+      <c r="OH30"/>
+      <c r="OI30"/>
+      <c r="OJ30"/>
+      <c r="OK30"/>
+      <c r="OL30"/>
+      <c r="OM30"/>
+      <c r="ON30"/>
+      <c r="OO30"/>
+      <c r="OP30"/>
+      <c r="OQ30"/>
+      <c r="OR30"/>
+      <c r="OS30"/>
+      <c r="OT30"/>
+      <c r="OU30"/>
+      <c r="OV30"/>
+      <c r="OW30"/>
+      <c r="OX30"/>
+      <c r="OY30"/>
+      <c r="OZ30"/>
+      <c r="PA30"/>
+      <c r="PB30"/>
+      <c r="PC30"/>
+      <c r="PD30"/>
+      <c r="PE30"/>
+      <c r="PF30"/>
+      <c r="PG30"/>
+      <c r="PH30"/>
+      <c r="PI30"/>
+      <c r="PJ30"/>
+      <c r="PK30"/>
+      <c r="PL30"/>
+      <c r="PM30"/>
+      <c r="PN30"/>
+      <c r="PO30"/>
+      <c r="PP30"/>
+      <c r="PQ30"/>
+      <c r="PR30"/>
+      <c r="PS30"/>
+      <c r="PT30"/>
+      <c r="PU30"/>
+      <c r="PV30"/>
+      <c r="PW30"/>
+      <c r="PX30"/>
+      <c r="PY30"/>
+      <c r="PZ30"/>
+      <c r="QA30"/>
+      <c r="QB30"/>
+      <c r="QC30"/>
+      <c r="QD30"/>
+      <c r="QE30"/>
+      <c r="QF30"/>
+      <c r="QG30"/>
+      <c r="QH30"/>
+      <c r="QI30"/>
+      <c r="QJ30"/>
+      <c r="QK30"/>
+      <c r="QL30"/>
+      <c r="QM30"/>
+      <c r="QN30"/>
+      <c r="QO30"/>
+      <c r="QP30"/>
+      <c r="QQ30"/>
+      <c r="QR30"/>
+      <c r="QS30"/>
+      <c r="QT30"/>
+      <c r="QU30"/>
+      <c r="QV30"/>
+      <c r="QW30"/>
+      <c r="QX30"/>
+      <c r="QY30"/>
+      <c r="QZ30"/>
+      <c r="RA30"/>
+      <c r="RB30"/>
+      <c r="RC30"/>
+      <c r="RD30"/>
+      <c r="RE30"/>
+      <c r="RF30"/>
+      <c r="RG30"/>
+      <c r="RH30"/>
+      <c r="RI30"/>
+      <c r="RJ30"/>
+      <c r="RK30"/>
+      <c r="RL30"/>
+      <c r="RM30"/>
+      <c r="RN30"/>
     </row>
-    <row r="31" spans="1:481" x14ac:dyDescent="0.2">
-      <c r="W31" s="24"/>
-      <c r="AA31" s="24"/>
+    <row r="31" spans="1:482" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" s="7"/>
+      <c r="M31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD31"/>
+      <c r="AE31"/>
+      <c r="AF31"/>
+      <c r="AG31"/>
+      <c r="AH31"/>
+      <c r="AI31"/>
+      <c r="AJ31"/>
+      <c r="AK31"/>
+      <c r="AL31"/>
+      <c r="AM31"/>
+      <c r="AN31"/>
+      <c r="AO31"/>
+      <c r="AP31"/>
+      <c r="AQ31"/>
+      <c r="AR31"/>
+      <c r="AS31"/>
+      <c r="AT31"/>
+      <c r="AU31"/>
+      <c r="AV31"/>
+      <c r="AW31"/>
+      <c r="AX31"/>
+      <c r="AY31"/>
+      <c r="AZ31"/>
+      <c r="BA31"/>
+      <c r="BB31"/>
+      <c r="BC31"/>
+      <c r="BD31"/>
+      <c r="BE31"/>
+      <c r="BF31"/>
+      <c r="BG31"/>
+      <c r="BH31"/>
+      <c r="BI31"/>
+      <c r="BJ31"/>
+      <c r="BK31"/>
+      <c r="BL31"/>
+      <c r="BM31"/>
+      <c r="BN31"/>
+      <c r="BO31"/>
+      <c r="BP31"/>
+      <c r="BQ31"/>
+      <c r="BR31"/>
+      <c r="BS31"/>
+      <c r="BT31"/>
+      <c r="BU31"/>
+      <c r="BV31"/>
+      <c r="BW31"/>
+      <c r="BX31"/>
+      <c r="BY31"/>
+      <c r="BZ31"/>
+      <c r="CA31"/>
+      <c r="CB31"/>
+      <c r="CC31"/>
+      <c r="CD31"/>
+      <c r="CE31"/>
+      <c r="CF31"/>
+      <c r="CG31"/>
+      <c r="CH31"/>
+      <c r="CI31"/>
+      <c r="CJ31"/>
+      <c r="CK31"/>
+      <c r="CL31"/>
+      <c r="CM31"/>
+      <c r="CN31"/>
+      <c r="CO31"/>
+      <c r="CP31"/>
+      <c r="CQ31"/>
+      <c r="CR31"/>
+      <c r="CS31"/>
+      <c r="CT31"/>
+      <c r="CU31"/>
+      <c r="CV31"/>
+      <c r="CW31"/>
+      <c r="CX31"/>
+      <c r="CY31"/>
+      <c r="CZ31"/>
+      <c r="DA31"/>
+      <c r="DB31"/>
+      <c r="DC31"/>
+      <c r="DD31"/>
+      <c r="DE31"/>
+      <c r="DF31"/>
+      <c r="DG31"/>
+      <c r="DH31"/>
+      <c r="DI31"/>
+      <c r="DJ31"/>
+      <c r="DK31"/>
+      <c r="DL31"/>
+      <c r="DM31"/>
+      <c r="DN31"/>
+      <c r="DO31"/>
+      <c r="DP31"/>
+      <c r="DQ31"/>
+      <c r="DR31"/>
+      <c r="DS31"/>
+      <c r="DT31"/>
+      <c r="DU31"/>
+      <c r="DV31"/>
+      <c r="DW31"/>
+      <c r="DX31"/>
+      <c r="DY31"/>
+      <c r="DZ31"/>
+      <c r="EA31"/>
+      <c r="EB31"/>
+      <c r="EC31"/>
+      <c r="ED31"/>
+      <c r="EE31"/>
+      <c r="EF31"/>
+      <c r="EG31"/>
+      <c r="EH31"/>
+      <c r="EI31"/>
+      <c r="EJ31"/>
+      <c r="EK31"/>
+      <c r="EL31"/>
+      <c r="EM31"/>
+      <c r="EN31"/>
+      <c r="EO31"/>
+      <c r="EP31"/>
+      <c r="EQ31"/>
+      <c r="ER31"/>
+      <c r="ES31"/>
+      <c r="ET31"/>
+      <c r="EU31"/>
+      <c r="EV31"/>
+      <c r="EW31"/>
+      <c r="EX31"/>
+      <c r="EY31"/>
+      <c r="EZ31"/>
+      <c r="FA31"/>
+      <c r="FB31"/>
+      <c r="FC31"/>
+      <c r="FD31"/>
+      <c r="FE31"/>
+      <c r="FF31"/>
+      <c r="FG31"/>
+      <c r="FH31"/>
+      <c r="FI31"/>
+      <c r="FJ31"/>
+      <c r="FK31"/>
+      <c r="FL31"/>
+      <c r="FM31"/>
+      <c r="FN31"/>
+      <c r="FO31"/>
+      <c r="FP31"/>
+      <c r="FQ31"/>
+      <c r="FR31"/>
+      <c r="FS31"/>
+      <c r="FT31"/>
+      <c r="FU31"/>
+      <c r="FV31"/>
+      <c r="FW31"/>
+      <c r="FX31"/>
+      <c r="FY31"/>
+      <c r="FZ31"/>
+      <c r="GA31"/>
+      <c r="GB31"/>
+      <c r="GC31"/>
+      <c r="GD31"/>
+      <c r="GE31"/>
+      <c r="GF31"/>
+      <c r="GG31"/>
+      <c r="GH31"/>
+      <c r="GI31"/>
+      <c r="GJ31"/>
+      <c r="GK31"/>
+      <c r="GL31"/>
+      <c r="GM31"/>
+      <c r="GN31"/>
+      <c r="GO31"/>
+      <c r="GP31"/>
+      <c r="GQ31"/>
+      <c r="GR31"/>
+      <c r="GS31"/>
+      <c r="GT31"/>
+      <c r="GU31"/>
+      <c r="GV31"/>
+      <c r="GW31"/>
+      <c r="GX31"/>
+      <c r="GY31"/>
+      <c r="GZ31"/>
+      <c r="HA31"/>
+      <c r="HB31"/>
+      <c r="HC31"/>
+      <c r="HD31"/>
+      <c r="HE31"/>
+      <c r="HF31"/>
+      <c r="HG31"/>
+      <c r="HH31"/>
+      <c r="HI31"/>
+      <c r="HJ31"/>
+      <c r="HK31"/>
+      <c r="HL31"/>
+      <c r="HM31"/>
+      <c r="HN31"/>
+      <c r="HO31"/>
+      <c r="HP31"/>
+      <c r="HQ31"/>
+      <c r="HR31"/>
+      <c r="HS31"/>
+      <c r="HT31"/>
+      <c r="HU31"/>
+      <c r="HV31"/>
+      <c r="HW31"/>
+      <c r="HX31"/>
+      <c r="HY31"/>
+      <c r="HZ31"/>
+      <c r="IA31"/>
+      <c r="IB31"/>
+      <c r="IC31"/>
+      <c r="ID31"/>
+      <c r="IE31"/>
+      <c r="IF31"/>
+      <c r="IG31"/>
+      <c r="IH31"/>
+      <c r="II31"/>
+      <c r="IJ31"/>
+      <c r="IK31"/>
+      <c r="IL31"/>
+      <c r="IM31"/>
+      <c r="IN31"/>
+      <c r="IO31"/>
+      <c r="IP31"/>
+      <c r="IQ31"/>
+      <c r="IR31"/>
+      <c r="IS31"/>
+      <c r="IT31"/>
+      <c r="IU31"/>
+      <c r="IV31"/>
+      <c r="IW31"/>
+      <c r="IX31"/>
+      <c r="IY31"/>
+      <c r="IZ31"/>
+      <c r="JA31"/>
+      <c r="JB31"/>
+      <c r="JC31"/>
+      <c r="JD31"/>
+      <c r="JE31"/>
+      <c r="JF31"/>
+      <c r="JG31"/>
+      <c r="JH31"/>
+      <c r="JI31"/>
+      <c r="JJ31"/>
+      <c r="JK31"/>
+      <c r="JL31"/>
+      <c r="JM31"/>
+      <c r="JN31"/>
+      <c r="JO31"/>
+      <c r="JP31"/>
+      <c r="JQ31"/>
+      <c r="JR31"/>
+      <c r="JS31"/>
+      <c r="JT31"/>
+      <c r="JU31"/>
+      <c r="JV31"/>
+      <c r="JW31"/>
+      <c r="JX31"/>
+      <c r="JY31"/>
+      <c r="JZ31"/>
+      <c r="KA31"/>
+      <c r="KB31"/>
+      <c r="KC31"/>
+      <c r="KD31"/>
+      <c r="KE31"/>
+      <c r="KF31"/>
+      <c r="KG31"/>
+      <c r="KH31"/>
+      <c r="KI31"/>
+      <c r="KJ31"/>
+      <c r="KK31"/>
+      <c r="KL31"/>
+      <c r="KM31"/>
+      <c r="KN31"/>
+      <c r="KO31"/>
+      <c r="KP31"/>
+      <c r="KQ31"/>
+      <c r="KR31"/>
+      <c r="KS31"/>
+      <c r="KT31"/>
+      <c r="KU31"/>
+      <c r="KV31"/>
+      <c r="KW31"/>
+      <c r="KX31"/>
+      <c r="KY31"/>
+      <c r="KZ31"/>
+      <c r="LA31"/>
+      <c r="LB31"/>
+      <c r="LC31"/>
+      <c r="LD31"/>
+      <c r="LE31"/>
+      <c r="LF31"/>
+      <c r="LG31"/>
+      <c r="LH31"/>
+      <c r="LI31"/>
+      <c r="LJ31"/>
+      <c r="LK31"/>
+      <c r="LL31"/>
+      <c r="LM31"/>
+      <c r="LN31"/>
+      <c r="LO31"/>
+      <c r="LP31"/>
+      <c r="LQ31"/>
+      <c r="LR31"/>
+      <c r="LS31"/>
+      <c r="LT31"/>
+      <c r="LU31"/>
+      <c r="LV31"/>
+      <c r="LW31"/>
+      <c r="LX31"/>
+      <c r="LY31"/>
+      <c r="LZ31"/>
+      <c r="MA31"/>
+      <c r="MB31"/>
+      <c r="MC31"/>
+      <c r="MD31"/>
+      <c r="ME31"/>
+      <c r="MF31"/>
+      <c r="MG31"/>
+      <c r="MH31"/>
+      <c r="MI31"/>
+      <c r="MJ31"/>
+      <c r="MK31"/>
+      <c r="ML31"/>
+      <c r="MM31"/>
+      <c r="MN31"/>
+      <c r="MO31"/>
+      <c r="MP31"/>
+      <c r="MQ31"/>
+      <c r="MR31"/>
+      <c r="MS31"/>
+      <c r="MT31"/>
+      <c r="MU31"/>
+      <c r="MV31"/>
+      <c r="MW31"/>
+      <c r="MX31"/>
+      <c r="MY31"/>
+      <c r="MZ31"/>
+      <c r="NA31"/>
+      <c r="NB31"/>
+      <c r="NC31"/>
+      <c r="ND31"/>
+      <c r="NE31"/>
+      <c r="NF31"/>
+      <c r="NG31"/>
+      <c r="NH31"/>
+      <c r="NI31"/>
+      <c r="NJ31"/>
+      <c r="NK31"/>
+      <c r="NL31"/>
+      <c r="NM31"/>
+      <c r="NN31"/>
+      <c r="NO31"/>
+      <c r="NP31"/>
+      <c r="NQ31"/>
+      <c r="NR31"/>
+      <c r="NS31"/>
+      <c r="NT31"/>
+      <c r="NU31"/>
+      <c r="NV31"/>
+      <c r="NW31"/>
+      <c r="NX31"/>
+      <c r="NY31"/>
+      <c r="NZ31"/>
+      <c r="OA31"/>
+      <c r="OB31"/>
+      <c r="OC31"/>
+      <c r="OD31"/>
+      <c r="OE31"/>
+      <c r="OF31"/>
+      <c r="OG31"/>
+      <c r="OH31"/>
+      <c r="OI31"/>
+      <c r="OJ31"/>
+      <c r="OK31"/>
+      <c r="OL31"/>
+      <c r="OM31"/>
+      <c r="ON31"/>
+      <c r="OO31"/>
+      <c r="OP31"/>
+      <c r="OQ31"/>
+      <c r="OR31"/>
+      <c r="OS31"/>
+      <c r="OT31"/>
+      <c r="OU31"/>
+      <c r="OV31"/>
+      <c r="OW31"/>
+      <c r="OX31"/>
+      <c r="OY31"/>
+      <c r="OZ31"/>
+      <c r="PA31"/>
+      <c r="PB31"/>
+      <c r="PC31"/>
+      <c r="PD31"/>
+      <c r="PE31"/>
+      <c r="PF31"/>
+      <c r="PG31"/>
+      <c r="PH31"/>
+      <c r="PI31"/>
+      <c r="PJ31"/>
+      <c r="PK31"/>
+      <c r="PL31"/>
+      <c r="PM31"/>
+      <c r="PN31"/>
+      <c r="PO31"/>
+      <c r="PP31"/>
+      <c r="PQ31"/>
+      <c r="PR31"/>
+      <c r="PS31"/>
+      <c r="PT31"/>
+      <c r="PU31"/>
+      <c r="PV31"/>
+      <c r="PW31"/>
+      <c r="PX31"/>
+      <c r="PY31"/>
+      <c r="PZ31"/>
+      <c r="QA31"/>
+      <c r="QB31"/>
+      <c r="QC31"/>
+      <c r="QD31"/>
+      <c r="QE31"/>
+      <c r="QF31"/>
+      <c r="QG31"/>
+      <c r="QH31"/>
+      <c r="QI31"/>
+      <c r="QJ31"/>
+      <c r="QK31"/>
+      <c r="QL31"/>
+      <c r="QM31"/>
+      <c r="QN31"/>
+      <c r="QO31"/>
+      <c r="QP31"/>
+      <c r="QQ31"/>
+      <c r="QR31"/>
+      <c r="QS31"/>
+      <c r="QT31"/>
+      <c r="QU31"/>
+      <c r="QV31"/>
+      <c r="QW31"/>
+      <c r="QX31"/>
+      <c r="QY31"/>
+      <c r="QZ31"/>
+      <c r="RA31"/>
+      <c r="RB31"/>
+      <c r="RC31"/>
+      <c r="RD31"/>
+      <c r="RE31"/>
+      <c r="RF31"/>
+      <c r="RG31"/>
+      <c r="RH31"/>
+      <c r="RI31"/>
+      <c r="RJ31"/>
+      <c r="RK31"/>
+      <c r="RL31"/>
+      <c r="RM31"/>
+      <c r="RN31"/>
     </row>
-    <row r="32" spans="1:481" x14ac:dyDescent="0.2">
-      <c r="W32" s="24"/>
-      <c r="AA32" s="24"/>
+    <row r="32" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD32"/>
+      <c r="AE32"/>
+      <c r="AF32"/>
+      <c r="AG32"/>
+      <c r="AH32"/>
+      <c r="AI32"/>
+      <c r="AJ32"/>
+      <c r="AK32"/>
+      <c r="AL32"/>
+      <c r="AM32"/>
+      <c r="AN32"/>
+      <c r="AO32"/>
+      <c r="AP32"/>
+      <c r="AQ32"/>
+      <c r="AR32"/>
+      <c r="AS32"/>
+      <c r="AT32"/>
+      <c r="AU32"/>
+      <c r="AV32"/>
+      <c r="AW32"/>
+      <c r="AX32"/>
+      <c r="AY32"/>
+      <c r="AZ32"/>
+      <c r="BA32"/>
+      <c r="BB32"/>
+      <c r="BC32"/>
+      <c r="BD32"/>
+      <c r="BE32"/>
+      <c r="BF32"/>
+      <c r="BG32"/>
+      <c r="BH32"/>
+      <c r="BI32"/>
+      <c r="BJ32"/>
+      <c r="BK32"/>
+      <c r="BL32"/>
+      <c r="BM32"/>
+      <c r="BN32"/>
+      <c r="BO32"/>
+      <c r="BP32"/>
+      <c r="BQ32"/>
+      <c r="BR32"/>
+      <c r="BS32"/>
+      <c r="BT32"/>
+      <c r="BU32"/>
+      <c r="BV32"/>
+      <c r="BW32"/>
+      <c r="BX32"/>
+      <c r="BY32"/>
+      <c r="BZ32"/>
+      <c r="CA32"/>
+      <c r="CB32"/>
+      <c r="CC32"/>
+      <c r="CD32"/>
+      <c r="CE32"/>
+      <c r="CF32"/>
+      <c r="CG32"/>
+      <c r="CH32"/>
+      <c r="CI32"/>
+      <c r="CJ32"/>
+      <c r="CK32"/>
+      <c r="CL32"/>
+      <c r="CM32"/>
+      <c r="CN32"/>
+      <c r="CO32"/>
+      <c r="CP32"/>
+      <c r="CQ32"/>
+      <c r="CR32"/>
+      <c r="CS32"/>
+      <c r="CT32"/>
+      <c r="CU32"/>
+      <c r="CV32"/>
+      <c r="CW32"/>
+      <c r="CX32"/>
+      <c r="CY32"/>
+      <c r="CZ32"/>
+      <c r="DA32"/>
+      <c r="DB32"/>
+      <c r="DC32"/>
+      <c r="DD32"/>
+      <c r="DE32"/>
+      <c r="DF32"/>
+      <c r="DG32"/>
+      <c r="DH32"/>
+      <c r="DI32"/>
+      <c r="DJ32"/>
+      <c r="DK32"/>
+      <c r="DL32"/>
+      <c r="DM32"/>
+      <c r="DN32"/>
+      <c r="DO32"/>
+      <c r="DP32"/>
+      <c r="DQ32"/>
+      <c r="DR32"/>
+      <c r="DS32"/>
+      <c r="DT32"/>
+      <c r="DU32"/>
+      <c r="DV32"/>
+      <c r="DW32"/>
+      <c r="DX32"/>
+      <c r="DY32"/>
+      <c r="DZ32"/>
+      <c r="EA32"/>
+      <c r="EB32"/>
+      <c r="EC32"/>
+      <c r="ED32"/>
+      <c r="EE32"/>
+      <c r="EF32"/>
+      <c r="EG32"/>
+      <c r="EH32"/>
+      <c r="EI32"/>
+      <c r="EJ32"/>
+      <c r="EK32"/>
+      <c r="EL32"/>
+      <c r="EM32"/>
+      <c r="EN32"/>
+      <c r="EO32"/>
+      <c r="EP32"/>
+      <c r="EQ32"/>
+      <c r="ER32"/>
+      <c r="ES32"/>
+      <c r="ET32"/>
+      <c r="EU32"/>
+      <c r="EV32"/>
+      <c r="EW32"/>
+      <c r="EX32"/>
+      <c r="EY32"/>
+      <c r="EZ32"/>
+      <c r="FA32"/>
+      <c r="FB32"/>
+      <c r="FC32"/>
+      <c r="FD32"/>
+      <c r="FE32"/>
+      <c r="FF32"/>
+      <c r="FG32"/>
+      <c r="FH32"/>
+      <c r="FI32"/>
+      <c r="FJ32"/>
+      <c r="FK32"/>
+      <c r="FL32"/>
+      <c r="FM32"/>
+      <c r="FN32"/>
+      <c r="FO32"/>
+      <c r="FP32"/>
+      <c r="FQ32"/>
+      <c r="FR32"/>
+      <c r="FS32"/>
+      <c r="FT32"/>
+      <c r="FU32"/>
+      <c r="FV32"/>
+      <c r="FW32"/>
+      <c r="FX32"/>
+      <c r="FY32"/>
+      <c r="FZ32"/>
+      <c r="GA32"/>
+      <c r="GB32"/>
+      <c r="GC32"/>
+      <c r="GD32"/>
+      <c r="GE32"/>
+      <c r="GF32"/>
+      <c r="GG32"/>
+      <c r="GH32"/>
+      <c r="GI32"/>
+      <c r="GJ32"/>
+      <c r="GK32"/>
+      <c r="GL32"/>
+      <c r="GM32"/>
+      <c r="GN32"/>
+      <c r="GO32"/>
+      <c r="GP32"/>
+      <c r="GQ32"/>
+      <c r="GR32"/>
+      <c r="GS32"/>
+      <c r="GT32"/>
+      <c r="GU32"/>
+      <c r="GV32"/>
+      <c r="GW32"/>
+      <c r="GX32"/>
+      <c r="GY32"/>
+      <c r="GZ32"/>
+      <c r="HA32"/>
+      <c r="HB32"/>
+      <c r="HC32"/>
+      <c r="HD32"/>
+      <c r="HE32"/>
+      <c r="HF32"/>
+      <c r="HG32"/>
+      <c r="HH32"/>
+      <c r="HI32"/>
+      <c r="HJ32"/>
+      <c r="HK32"/>
+      <c r="HL32"/>
+      <c r="HM32"/>
+      <c r="HN32"/>
+      <c r="HO32"/>
+      <c r="HP32"/>
+      <c r="HQ32"/>
+      <c r="HR32"/>
+      <c r="HS32"/>
+      <c r="HT32"/>
+      <c r="HU32"/>
+      <c r="HV32"/>
+      <c r="HW32"/>
+      <c r="HX32"/>
+      <c r="HY32"/>
+      <c r="HZ32"/>
+      <c r="IA32"/>
+      <c r="IB32"/>
+      <c r="IC32"/>
+      <c r="ID32"/>
+      <c r="IE32"/>
+      <c r="IF32"/>
+      <c r="IG32"/>
+      <c r="IH32"/>
+      <c r="II32"/>
+      <c r="IJ32"/>
+      <c r="IK32"/>
+      <c r="IL32"/>
+      <c r="IM32"/>
+      <c r="IN32"/>
+      <c r="IO32"/>
+      <c r="IP32"/>
+      <c r="IQ32"/>
+      <c r="IR32"/>
+      <c r="IS32"/>
+      <c r="IT32"/>
+      <c r="IU32"/>
+      <c r="IV32"/>
+      <c r="IW32"/>
+      <c r="IX32"/>
+      <c r="IY32"/>
+      <c r="IZ32"/>
+      <c r="JA32"/>
+      <c r="JB32"/>
+      <c r="JC32"/>
+      <c r="JD32"/>
+      <c r="JE32"/>
+      <c r="JF32"/>
+      <c r="JG32"/>
+      <c r="JH32"/>
+      <c r="JI32"/>
+      <c r="JJ32"/>
+      <c r="JK32"/>
+      <c r="JL32"/>
+      <c r="JM32"/>
+      <c r="JN32"/>
+      <c r="JO32"/>
+      <c r="JP32"/>
+      <c r="JQ32"/>
+      <c r="JR32"/>
+      <c r="JS32"/>
+      <c r="JT32"/>
+      <c r="JU32"/>
+      <c r="JV32"/>
+      <c r="JW32"/>
+      <c r="JX32"/>
+      <c r="JY32"/>
+      <c r="JZ32"/>
+      <c r="KA32"/>
+      <c r="KB32"/>
+      <c r="KC32"/>
+      <c r="KD32"/>
+      <c r="KE32"/>
+      <c r="KF32"/>
+      <c r="KG32"/>
+      <c r="KH32"/>
+      <c r="KI32"/>
+      <c r="KJ32"/>
+      <c r="KK32"/>
+      <c r="KL32"/>
+      <c r="KM32"/>
+      <c r="KN32"/>
+      <c r="KO32"/>
+      <c r="KP32"/>
+      <c r="KQ32"/>
+      <c r="KR32"/>
+      <c r="KS32"/>
+      <c r="KT32"/>
+      <c r="KU32"/>
+      <c r="KV32"/>
+      <c r="KW32"/>
+      <c r="KX32"/>
+      <c r="KY32"/>
+      <c r="KZ32"/>
+      <c r="LA32"/>
+      <c r="LB32"/>
+      <c r="LC32"/>
+      <c r="LD32"/>
+      <c r="LE32"/>
+      <c r="LF32"/>
+      <c r="LG32"/>
+      <c r="LH32"/>
+      <c r="LI32"/>
+      <c r="LJ32"/>
+      <c r="LK32"/>
+      <c r="LL32"/>
+      <c r="LM32"/>
+      <c r="LN32"/>
+      <c r="LO32"/>
+      <c r="LP32"/>
+      <c r="LQ32"/>
+      <c r="LR32"/>
+      <c r="LS32"/>
+      <c r="LT32"/>
+      <c r="LU32"/>
+      <c r="LV32"/>
+      <c r="LW32"/>
+      <c r="LX32"/>
+      <c r="LY32"/>
+      <c r="LZ32"/>
+      <c r="MA32"/>
+      <c r="MB32"/>
+      <c r="MC32"/>
+      <c r="MD32"/>
+      <c r="ME32"/>
+      <c r="MF32"/>
+      <c r="MG32"/>
+      <c r="MH32"/>
+      <c r="MI32"/>
+      <c r="MJ32"/>
+      <c r="MK32"/>
+      <c r="ML32"/>
+      <c r="MM32"/>
+      <c r="MN32"/>
+      <c r="MO32"/>
+      <c r="MP32"/>
+      <c r="MQ32"/>
+      <c r="MR32"/>
+      <c r="MS32"/>
+      <c r="MT32"/>
+      <c r="MU32"/>
+      <c r="MV32"/>
+      <c r="MW32"/>
+      <c r="MX32"/>
+      <c r="MY32"/>
+      <c r="MZ32"/>
+      <c r="NA32"/>
+      <c r="NB32"/>
+      <c r="NC32"/>
+      <c r="ND32"/>
+      <c r="NE32"/>
+      <c r="NF32"/>
+      <c r="NG32"/>
+      <c r="NH32"/>
+      <c r="NI32"/>
+      <c r="NJ32"/>
+      <c r="NK32"/>
+      <c r="NL32"/>
+      <c r="NM32"/>
+      <c r="NN32"/>
+      <c r="NO32"/>
+      <c r="NP32"/>
+      <c r="NQ32"/>
+      <c r="NR32"/>
+      <c r="NS32"/>
+      <c r="NT32"/>
+      <c r="NU32"/>
+      <c r="NV32"/>
+      <c r="NW32"/>
+      <c r="NX32"/>
+      <c r="NY32"/>
+      <c r="NZ32"/>
+      <c r="OA32"/>
+      <c r="OB32"/>
+      <c r="OC32"/>
+      <c r="OD32"/>
+      <c r="OE32"/>
+      <c r="OF32"/>
+      <c r="OG32"/>
+      <c r="OH32"/>
+      <c r="OI32"/>
+      <c r="OJ32"/>
+      <c r="OK32"/>
+      <c r="OL32"/>
+      <c r="OM32"/>
+      <c r="ON32"/>
+      <c r="OO32"/>
+      <c r="OP32"/>
+      <c r="OQ32"/>
+      <c r="OR32"/>
+      <c r="OS32"/>
+      <c r="OT32"/>
+      <c r="OU32"/>
+      <c r="OV32"/>
+      <c r="OW32"/>
+      <c r="OX32"/>
+      <c r="OY32"/>
+      <c r="OZ32"/>
+      <c r="PA32"/>
+      <c r="PB32"/>
+      <c r="PC32"/>
+      <c r="PD32"/>
+      <c r="PE32"/>
+      <c r="PF32"/>
+      <c r="PG32"/>
+      <c r="PH32"/>
+      <c r="PI32"/>
+      <c r="PJ32"/>
+      <c r="PK32"/>
+      <c r="PL32"/>
+      <c r="PM32"/>
+      <c r="PN32"/>
+      <c r="PO32"/>
+      <c r="PP32"/>
+      <c r="PQ32"/>
+      <c r="PR32"/>
+      <c r="PS32"/>
+      <c r="PT32"/>
+      <c r="PU32"/>
+      <c r="PV32"/>
+      <c r="PW32"/>
+      <c r="PX32"/>
+      <c r="PY32"/>
+      <c r="PZ32"/>
+      <c r="QA32"/>
+      <c r="QB32"/>
+      <c r="QC32"/>
+      <c r="QD32"/>
+      <c r="QE32"/>
+      <c r="QF32"/>
+      <c r="QG32"/>
+      <c r="QH32"/>
+      <c r="QI32"/>
+      <c r="QJ32"/>
+      <c r="QK32"/>
+      <c r="QL32"/>
+      <c r="QM32"/>
+      <c r="QN32"/>
+      <c r="QO32"/>
+      <c r="QP32"/>
+      <c r="QQ32"/>
+      <c r="QR32"/>
+      <c r="QS32"/>
+      <c r="QT32"/>
+      <c r="QU32"/>
+      <c r="QV32"/>
+      <c r="QW32"/>
+      <c r="QX32"/>
+      <c r="QY32"/>
+      <c r="QZ32"/>
+      <c r="RA32"/>
+      <c r="RB32"/>
+      <c r="RC32"/>
+      <c r="RD32"/>
+      <c r="RE32"/>
+      <c r="RF32"/>
+      <c r="RG32"/>
+      <c r="RH32"/>
+      <c r="RI32"/>
+      <c r="RJ32"/>
+      <c r="RK32"/>
+      <c r="RL32"/>
+      <c r="RM32"/>
+      <c r="RN32"/>
     </row>
-    <row r="34" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="AA34" s="24"/>
+    <row r="33" spans="2:30" ht="34" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="40" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AD35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="5"/>
     </row>
-    <row r="42" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="5"/>
     </row>
-    <row r="44" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="5"/>
     </row>
   </sheetData>

--- a/testdata/excel2xml-testdata.xlsx
+++ b/testdata/excel2xml-testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nusjoh00-adm/Desktop/dsp-tools/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11144152-9CDA-4F48-96A9-C4EBC81BFC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB0E0CE-89D2-714E-AB1E-611B19505BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10380" yWindow="-21100" windowWidth="49140" windowHeight="21100" xr2:uid="{8DC9C588-8EAF-9149-8D6F-E65826635888}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{8DC9C588-8EAF-9149-8D6F-E65826635888}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="122">
   <si>
     <t>id</t>
   </si>
@@ -845,6 +845,12 @@
   <si>
     <t>#5d1f1e</t>
   </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
@@ -1016,7 +1022,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1042,6 +1048,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1362,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B59957-CA62-894B-8744-01ADFD605729}">
   <dimension ref="A1:RN44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2844,7 +2851,25 @@
         <v>29</v>
       </c>
       <c r="T3" s="7"/>
+      <c r="U3" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="X3" s="7"/>
+      <c r="Y3" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="AB3" s="7"/>
       <c r="AC3"/>
       <c r="AD3"/>

--- a/testdata/excel2xml-testdata.xlsx
+++ b/testdata/excel2xml-testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nusjoh00-adm/Desktop/dsp-tools/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB0E0CE-89D2-714E-AB1E-611B19505BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D752EB-02B9-0D41-9AE7-A54300710A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{8DC9C588-8EAF-9149-8D6F-E65826635888}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="example" localSheetId="0">Sheet1!$A$1:$PF$32</definedName>
+    <definedName name="example" localSheetId="0">Sheet1!$A$1:$PF$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="139">
   <si>
     <t>id</t>
   </si>
@@ -629,13 +629,7 @@
     <t>uri-prop</t>
   </si>
   <si>
-    <t>http://d-nb.info/gnd/11855333X</t>
-  </si>
-  <si>
     <t>:hasExternalLink</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Homer</t>
   </si>
   <si>
     <t>annotation_0</t>
@@ -851,12 +845,69 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>https://reg-exr.com:3000/path/to/file_(%C3%89).htm</t>
+  </si>
+  <si>
+    <t>https://en.wiktionary.org/wiki/Ῥόδος</t>
+  </si>
+  <si>
+    <t>https://www.test-case.ch/</t>
+  </si>
+  <si>
+    <t>https://reg-exr.com:3000</t>
+  </si>
+  <si>
+    <t>https://reg-exr.com:3000/path/to/file#fragment</t>
+  </si>
+  <si>
+    <t>https://reg-exr.com:3000/path/to/file?query=test</t>
+  </si>
+  <si>
+    <t>https://reg-exr.com:3000/path/to/file?query=test#fragment</t>
+  </si>
+  <si>
+    <t>https://reg-exr.com/path/to/file?query=test#fragment</t>
+  </si>
+  <si>
+    <t>:hasAnotherLink</t>
+  </si>
+  <si>
+    <t>http://www.168.1.1.0/path</t>
+  </si>
+  <si>
+    <t>http://www.168.1.1.0:4200/path</t>
+  </si>
+  <si>
+    <t>http://[2001:0db8:0000:0000:0000:8a2e:0370:7334]:4200/path</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Haiku#/media/File:Basho_Horohoroto.jpg</t>
+  </si>
+  <si>
+    <t>:hasThirdLink</t>
+  </si>
+  <si>
+    <t>http://datypic.com/prod.html#shirt</t>
+  </si>
+  <si>
+    <t>https://www.findagrave.com/memorial/171722836/krikor-madenician?_gl=1*100n0s5*_ga*NzIzMDQxNjc2LjE2Mjg2MDk1OTQ.*_ga_4QT8FMEX30*MTY1Mjc5OTI4OC4xNC4xLjE2NTI4MDA2MDQuMA..</t>
+  </si>
+  <si>
+    <t>https://markarslan.org/ArmenianImmigrants/Public-ViewDetail-ArmenianImmigrants-Main.php?submit=View&amp;Staging=&amp;SourcePage=Public-ViewSummary-ArmenianImmigrants-Main-ByDestinationDate&amp;SelectDestinationYear=1907&amp;SelectLastNameStd=all&amp;argument1=PLIN-29NOV1907-3-73-0018</t>
+  </si>
+  <si>
+    <t>http://markarslan.org/ArmenianImmigrants/Public-ViewDetail-ArmenianImmigrants-Main.php?submit=View&amp;Staging=&amp;SourcePage=Public-ViewSummary-ArmenianImmigrants-Main-ByDestinationDate&amp;SelectDestinationYear=1907&amp;SelectLastNameStd=all&amp;argument1=CRTH-12JAN1907-3-%404-0016</t>
+  </si>
+  <si>
+    <t>https://www.ancestry.com/discoveryui-content/view/47577828:60525?ssrc=pt&amp;tid=109007397&amp;pid=410070328478</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -880,6 +931,14 @@
     </font>
     <font>
       <sz val="11.3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1019,10 +1078,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1049,8 +1109,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1367,10 +1432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B59957-CA62-894B-8744-01ADFD605729}">
-  <dimension ref="A1:RN44"/>
+  <dimension ref="A1:RN47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1813,10 +1878,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
@@ -1825,7 +1890,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>6</v>
@@ -1885,7 +1950,7 @@
         <v>24</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AD1"/>
       <c r="AE1"/>
@@ -1893,7 +1958,7 @@
       <c r="AG1"/>
       <c r="AH1"/>
       <c r="AI1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AJ1"/>
       <c r="AK1"/>
@@ -2354,7 +2419,7 @@
         <v>48</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>25</v>
@@ -2367,7 +2432,7 @@
       <c r="AB2" s="7"/>
       <c r="AC2"/>
       <c r="AD2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AE2"/>
       <c r="AF2"/>
@@ -2842,7 +2907,7 @@
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="R3" s="6" t="s">
         <v>28</v>
@@ -2852,7 +2917,7 @@
       </c>
       <c r="T3" s="7"/>
       <c r="U3" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>28</v>
@@ -2862,7 +2927,7 @@
       </c>
       <c r="X3" s="7"/>
       <c r="Y3" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Z3" s="6" t="s">
         <v>28</v>
@@ -2874,7 +2939,7 @@
       <c r="AC3"/>
       <c r="AD3"/>
       <c r="AE3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AF3"/>
       <c r="AG3"/>
@@ -3337,15 +3402,33 @@
         <v>51</v>
       </c>
       <c r="L4" s="7"/>
-      <c r="M4" s="8" t="s">
-        <v>52</v>
+      <c r="M4" t="s">
+        <v>121</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="P4" s="7"/>
+      <c r="Q4" t="s">
+        <v>122</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="T4" s="7"/>
+      <c r="U4" t="s">
+        <v>123</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="X4" s="7"/>
+      <c r="Y4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="AB4" s="7"/>
       <c r="AC4"/>
       <c r="AD4"/>
@@ -3802,43 +3885,43 @@
       <c r="RM4"/>
       <c r="RN4"/>
     </row>
-    <row r="5" spans="1:482" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="10" t="s">
+    <row r="5" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="7"/>
+      <c r="J5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10" t="s">
+      <c r="L5" s="7"/>
+      <c r="M5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="11"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="7"/>
+      <c r="U5" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB5" s="7"/>
       <c r="AC5"/>
       <c r="AD5"/>
       <c r="AE5"/>
@@ -4295,33 +4378,47 @@
       <c r="RN5"/>
     </row>
     <row r="6" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="I6" s="7"/>
+      <c r="J6" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="L6" s="7"/>
+      <c r="M6" t="s">
+        <v>129</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="P6" s="7"/>
+      <c r="Q6" t="s">
+        <v>130</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="T6" s="7"/>
+      <c r="U6" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="X6" s="7"/>
+      <c r="Y6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="AB6" s="7"/>
       <c r="AC6"/>
-      <c r="AD6" t="s">
-        <v>117</v>
-      </c>
+      <c r="AD6"/>
       <c r="AE6"/>
       <c r="AF6"/>
-      <c r="AG6" t="s">
-        <v>116</v>
-      </c>
+      <c r="AG6"/>
       <c r="AH6"/>
       <c r="AI6"/>
       <c r="AJ6"/>
@@ -4775,24 +4872,39 @@
     <row r="7" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I7" s="7"/>
       <c r="J7" s="6" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="L7" s="7"/>
-      <c r="M7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>28</v>
+      <c r="M7" t="s">
+        <v>134</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="P7" s="7"/>
+      <c r="Q7" t="s">
+        <v>135</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="T7" s="7"/>
+      <c r="U7" t="s">
+        <v>136</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="X7" s="7"/>
+      <c r="Y7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="AB7" s="7"/>
       <c r="AC7"/>
       <c r="AD7"/>
@@ -5259,23 +5371,33 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" s="6" t="s">
+      <c r="J8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="AB8" s="7"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="11"/>
       <c r="AC8"/>
       <c r="AD8"/>
       <c r="AE8"/>
@@ -5733,47 +5855,32 @@
     </row>
     <row r="9" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="16"/>
+      <c r="I9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="AB9" s="7"/>
       <c r="AC9"/>
-      <c r="AD9"/>
+      <c r="AD9" t="s">
+        <v>115</v>
+      </c>
       <c r="AE9"/>
       <c r="AF9"/>
-      <c r="AG9"/>
+      <c r="AG9" t="s">
+        <v>114</v>
+      </c>
       <c r="AH9"/>
       <c r="AI9"/>
       <c r="AJ9"/>
@@ -6227,14 +6334,14 @@
     <row r="10" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I10" s="7"/>
       <c r="J10" s="6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>27</v>
       </c>
       <c r="L10" s="7"/>
-      <c r="M10" s="17" t="s">
-        <v>77</v>
+      <c r="M10" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>28</v>
@@ -6243,15 +6350,10 @@
         <v>29</v>
       </c>
       <c r="P10" s="7"/>
-      <c r="Q10" s="17"/>
       <c r="T10" s="7"/>
-      <c r="U10" s="17"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="17"/>
       <c r="AB10" s="7"/>
-      <c r="AC10" t="s">
-        <v>118</v>
-      </c>
+      <c r="AC10"/>
       <c r="AD10"/>
       <c r="AE10"/>
       <c r="AF10"/>
@@ -6706,30 +6808,32 @@
       <c r="RM10"/>
       <c r="RN10"/>
     </row>
-    <row r="11" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I11" s="7"/>
+    <row r="11" spans="1:482" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="6" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L11" s="7"/>
-      <c r="M11" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>31</v>
+      <c r="M11" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="P11" s="7"/>
-      <c r="Q11" s="17"/>
       <c r="T11" s="7"/>
-      <c r="U11" s="17"/>
       <c r="X11" s="7"/>
-      <c r="Y11" s="17"/>
       <c r="AB11" s="7"/>
       <c r="AC11"/>
       <c r="AD11"/>
@@ -7187,30 +7291,43 @@
       <c r="RN11"/>
     </row>
     <row r="12" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I12" s="7"/>
-      <c r="J12" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O12" s="6" t="s">
+      <c r="A12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="17"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="17"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="17"/>
-      <c r="AB12" s="7"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="16"/>
       <c r="AC12"/>
       <c r="AD12"/>
       <c r="AE12"/>
@@ -7666,39 +7783,34 @@
       <c r="RM12"/>
       <c r="RN12"/>
     </row>
-    <row r="13" spans="1:482" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10" t="s">
+    <row r="13" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="7"/>
+      <c r="J13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="17"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="17"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="17"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" t="s">
+        <v>116</v>
+      </c>
       <c r="AD13"/>
       <c r="AE13"/>
       <c r="AF13"/>
@@ -8154,44 +8266,30 @@
       <c r="RN13"/>
     </row>
     <row r="14" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="15"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="16"/>
+      <c r="J14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="17"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="17"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="17"/>
+      <c r="AB14" s="7"/>
       <c r="AC14"/>
       <c r="AD14"/>
       <c r="AE14"/>
@@ -8648,27 +8746,29 @@
       <c r="RN14"/>
     </row>
     <row r="15" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="8" t="s">
-        <v>40</v>
+      <c r="J15" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>27</v>
       </c>
       <c r="L15" s="7"/>
-      <c r="M15" s="8" t="s">
-        <v>89</v>
+      <c r="M15" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>29</v>
       </c>
       <c r="P15" s="7"/>
+      <c r="Q15" s="17"/>
       <c r="T15" s="7"/>
+      <c r="U15" s="17"/>
       <c r="X15" s="7"/>
+      <c r="Y15" s="17"/>
       <c r="AB15" s="7"/>
       <c r="AC15"/>
       <c r="AD15"/>
@@ -9126,39 +9226,34 @@
       <c r="RN15"/>
     </row>
     <row r="16" spans="1:482" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="12" t="s">
-        <v>41</v>
+      <c r="J16" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="12" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="N16" s="10"/>
-      <c r="O16" s="12" t="s">
+      <c r="O16" s="10" t="s">
         <v>29</v>
       </c>
       <c r="P16" s="11"/>
-      <c r="Q16" s="10"/>
+      <c r="Q16" s="13"/>
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
       <c r="T16" s="11"/>
-      <c r="U16" s="10"/>
+      <c r="U16" s="13"/>
       <c r="V16" s="10"/>
       <c r="W16" s="10"/>
       <c r="X16" s="11"/>
-      <c r="Y16" s="10"/>
+      <c r="Y16" s="13"/>
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
       <c r="AB16" s="11"/>
@@ -9618,28 +9713,44 @@
       <c r="RN16"/>
     </row>
     <row r="17" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17"/>
-      <c r="G17" s="6" t="s">
-        <v>99</v>
-      </c>
+      <c r="A17" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="15"/>
       <c r="I17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="AB17" s="7"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="16"/>
       <c r="AC17"/>
       <c r="AD17"/>
       <c r="AE17"/>
@@ -10096,33 +10207,25 @@
       <c r="RN17"/>
     </row>
     <row r="18" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
       <c r="I18" s="7"/>
       <c r="J18" s="8" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>27</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>28</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="P18" s="7"/>
-      <c r="Q18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="R18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="S18" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="T18" s="7"/>
       <c r="X18" s="7"/>
       <c r="AB18" s="7"/>
@@ -10581,25 +10684,43 @@
       <c r="RM18"/>
       <c r="RN18"/>
     </row>
-    <row r="19" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I19" s="7"/>
-      <c r="J19" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="P19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="AB19" s="7"/>
+    <row r="19" spans="1:482" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="11"/>
+      <c r="M19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="10"/>
+      <c r="O19" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="11"/>
       <c r="AC19"/>
       <c r="AD19"/>
       <c r="AE19"/>
@@ -11056,20 +11177,24 @@
       <c r="RN19"/>
     </row>
     <row r="20" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="I20" s="7"/>
-      <c r="J20" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="L20" s="7"/>
-      <c r="M20" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="P20" s="7"/>
       <c r="T20" s="7"/>
       <c r="X20" s="7"/>
@@ -11529,25 +11654,34 @@
       <c r="RM20"/>
       <c r="RN20"/>
     </row>
-    <row r="21" spans="1:482" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="I21" s="11"/>
+    <row r="21" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I21" s="7"/>
       <c r="J21" s="8" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="8" t="s">
-        <v>75</v>
+        <v>88</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7"/>
+      <c r="Q21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="T21" s="7"/>
       <c r="X21" s="7"/>
       <c r="AB21" s="7"/>
@@ -12007,46 +12141,24 @@
       <c r="RN21"/>
     </row>
     <row r="22" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="15"/>
-      <c r="E22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22"/>
-      <c r="G22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>86</v>
-      </c>
       <c r="I22" s="7"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="16"/>
+      <c r="J22" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="AB22" s="7"/>
       <c r="AC22"/>
       <c r="AD22"/>
       <c r="AE22"/>
@@ -12503,34 +12615,21 @@
       <c r="RN22"/>
     </row>
     <row r="23" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
       <c r="I23" s="7"/>
       <c r="J23" s="8" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O23" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N23" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="P23" s="7"/>
-      <c r="Q23" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="R23" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="S23" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="T23" s="7"/>
       <c r="X23" s="7"/>
       <c r="AB23" s="7"/>
@@ -12989,45 +13088,26 @@
       <c r="RM23"/>
       <c r="RN23"/>
     </row>
-    <row r="24" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="I24" s="7"/>
+    <row r="24" spans="1:482" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="I24" s="11"/>
       <c r="J24" s="8" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="P24" s="7"/>
-      <c r="Q24" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="R24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="S24" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="T24" s="7"/>
-      <c r="U24" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="V24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="W24" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="X24" s="7"/>
       <c r="AB24" s="7"/>
       <c r="AC24"/>
@@ -13486,25 +13566,46 @@
       <c r="RN24"/>
     </row>
     <row r="25" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
+      <c r="A25" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25"/>
+      <c r="G25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="I25" s="7"/>
-      <c r="J25" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="AB25" s="7"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="16"/>
       <c r="AC25"/>
       <c r="AD25"/>
       <c r="AE25"/>
@@ -13964,19 +14065,31 @@
       <c r="A26" s="17"/>
       <c r="I26" s="7"/>
       <c r="J26" s="8" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="L26" s="7"/>
-      <c r="M26" s="9" t="s">
-        <v>71</v>
+      <c r="M26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>29</v>
       </c>
       <c r="P26" s="7"/>
+      <c r="Q26" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="T26" s="7"/>
       <c r="X26" s="7"/>
       <c r="AB26" s="7"/>
@@ -14439,28 +14552,37 @@
       <c r="A27" s="17"/>
       <c r="I27" s="7"/>
       <c r="J27" s="8" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="L27" s="7"/>
       <c r="M27" s="8" t="s">
-        <v>72</v>
+        <v>63</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>29</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="8" t="s">
-        <v>73</v>
+        <v>64</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="S27" s="6" t="s">
         <v>29</v>
       </c>
       <c r="T27" s="7"/>
-      <c r="U27" s="6">
-        <v>2022</v>
+      <c r="U27" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="V27" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="W27" s="6" t="s">
         <v>29</v>
@@ -14922,43 +15044,26 @@
       <c r="RM27"/>
       <c r="RN27"/>
     </row>
-    <row r="28" spans="1:482" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L28" s="11"/>
-      <c r="M28" s="10">
-        <v>4711</v>
-      </c>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10" t="s">
+    <row r="28" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L28" s="7"/>
+      <c r="M28" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="11"/>
+      <c r="P28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="AB28" s="7"/>
       <c r="AC28"/>
       <c r="AD28"/>
       <c r="AE28"/>
@@ -15415,23 +15520,21 @@
       <c r="RN28"/>
     </row>
     <row r="29" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="A29" s="17"/>
       <c r="I29" s="7"/>
+      <c r="J29" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="L29" s="7"/>
+      <c r="M29" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="P29" s="7"/>
       <c r="T29" s="7"/>
       <c r="X29" s="7"/>
@@ -15892,31 +15995,39 @@
       <c r="RN29"/>
     </row>
     <row r="30" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="17"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="6" t="s">
-        <v>26</v>
+      <c r="J30" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="L30" s="7"/>
-      <c r="M30" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>28</v>
+      <c r="M30" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="O30" s="6" t="s">
         <v>29</v>
       </c>
       <c r="P30" s="7"/>
+      <c r="Q30" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="T30" s="7"/>
+      <c r="U30" s="6">
+        <v>2022</v>
+      </c>
+      <c r="W30" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="X30" s="7"/>
       <c r="AB30" s="7"/>
       <c r="AC30"/>
-      <c r="AD30" t="s">
-        <v>116</v>
-      </c>
+      <c r="AD30"/>
       <c r="AE30"/>
       <c r="AF30"/>
       <c r="AG30"/>
@@ -16371,7 +16482,7 @@
       <c r="RN30"/>
     </row>
     <row r="31" spans="1:482" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -16380,32 +16491,34 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="11"/>
-      <c r="J31" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L31" s="7"/>
-      <c r="M31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O31" s="6" t="s">
+      <c r="J31" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L31" s="11"/>
+      <c r="M31" s="10">
+        <v>4711</v>
+      </c>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="S31" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="T31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="AB31" s="7"/>
-      <c r="AC31" t="s">
-        <v>118</v>
-      </c>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31"/>
       <c r="AD31"/>
       <c r="AE31"/>
       <c r="AF31"/>
@@ -16862,37 +16975,27 @@
     </row>
     <row r="32" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="15"/>
-      <c r="Z32" s="15"/>
-      <c r="AA32" s="15"/>
-      <c r="AB32" s="15"/>
-      <c r="AC32" t="s">
-        <v>115</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32"/>
       <c r="AD32"/>
       <c r="AE32"/>
       <c r="AF32"/>
@@ -17347,38 +17450,1494 @@
       <c r="RM32"/>
       <c r="RN32"/>
     </row>
-    <row r="33" spans="2:30" ht="34" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+    <row r="33" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I33" s="7"/>
+      <c r="J33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33"/>
+      <c r="AD33" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE33"/>
+      <c r="AF33"/>
+      <c r="AG33"/>
+      <c r="AH33"/>
+      <c r="AI33"/>
+      <c r="AJ33"/>
+      <c r="AK33"/>
+      <c r="AL33"/>
+      <c r="AM33"/>
+      <c r="AN33"/>
+      <c r="AO33"/>
+      <c r="AP33"/>
+      <c r="AQ33"/>
+      <c r="AR33"/>
+      <c r="AS33"/>
+      <c r="AT33"/>
+      <c r="AU33"/>
+      <c r="AV33"/>
+      <c r="AW33"/>
+      <c r="AX33"/>
+      <c r="AY33"/>
+      <c r="AZ33"/>
+      <c r="BA33"/>
+      <c r="BB33"/>
+      <c r="BC33"/>
+      <c r="BD33"/>
+      <c r="BE33"/>
+      <c r="BF33"/>
+      <c r="BG33"/>
+      <c r="BH33"/>
+      <c r="BI33"/>
+      <c r="BJ33"/>
+      <c r="BK33"/>
+      <c r="BL33"/>
+      <c r="BM33"/>
+      <c r="BN33"/>
+      <c r="BO33"/>
+      <c r="BP33"/>
+      <c r="BQ33"/>
+      <c r="BR33"/>
+      <c r="BS33"/>
+      <c r="BT33"/>
+      <c r="BU33"/>
+      <c r="BV33"/>
+      <c r="BW33"/>
+      <c r="BX33"/>
+      <c r="BY33"/>
+      <c r="BZ33"/>
+      <c r="CA33"/>
+      <c r="CB33"/>
+      <c r="CC33"/>
+      <c r="CD33"/>
+      <c r="CE33"/>
+      <c r="CF33"/>
+      <c r="CG33"/>
+      <c r="CH33"/>
+      <c r="CI33"/>
+      <c r="CJ33"/>
+      <c r="CK33"/>
+      <c r="CL33"/>
+      <c r="CM33"/>
+      <c r="CN33"/>
+      <c r="CO33"/>
+      <c r="CP33"/>
+      <c r="CQ33"/>
+      <c r="CR33"/>
+      <c r="CS33"/>
+      <c r="CT33"/>
+      <c r="CU33"/>
+      <c r="CV33"/>
+      <c r="CW33"/>
+      <c r="CX33"/>
+      <c r="CY33"/>
+      <c r="CZ33"/>
+      <c r="DA33"/>
+      <c r="DB33"/>
+      <c r="DC33"/>
+      <c r="DD33"/>
+      <c r="DE33"/>
+      <c r="DF33"/>
+      <c r="DG33"/>
+      <c r="DH33"/>
+      <c r="DI33"/>
+      <c r="DJ33"/>
+      <c r="DK33"/>
+      <c r="DL33"/>
+      <c r="DM33"/>
+      <c r="DN33"/>
+      <c r="DO33"/>
+      <c r="DP33"/>
+      <c r="DQ33"/>
+      <c r="DR33"/>
+      <c r="DS33"/>
+      <c r="DT33"/>
+      <c r="DU33"/>
+      <c r="DV33"/>
+      <c r="DW33"/>
+      <c r="DX33"/>
+      <c r="DY33"/>
+      <c r="DZ33"/>
+      <c r="EA33"/>
+      <c r="EB33"/>
+      <c r="EC33"/>
+      <c r="ED33"/>
+      <c r="EE33"/>
+      <c r="EF33"/>
+      <c r="EG33"/>
+      <c r="EH33"/>
+      <c r="EI33"/>
+      <c r="EJ33"/>
+      <c r="EK33"/>
+      <c r="EL33"/>
+      <c r="EM33"/>
+      <c r="EN33"/>
+      <c r="EO33"/>
+      <c r="EP33"/>
+      <c r="EQ33"/>
+      <c r="ER33"/>
+      <c r="ES33"/>
+      <c r="ET33"/>
+      <c r="EU33"/>
+      <c r="EV33"/>
+      <c r="EW33"/>
+      <c r="EX33"/>
+      <c r="EY33"/>
+      <c r="EZ33"/>
+      <c r="FA33"/>
+      <c r="FB33"/>
+      <c r="FC33"/>
+      <c r="FD33"/>
+      <c r="FE33"/>
+      <c r="FF33"/>
+      <c r="FG33"/>
+      <c r="FH33"/>
+      <c r="FI33"/>
+      <c r="FJ33"/>
+      <c r="FK33"/>
+      <c r="FL33"/>
+      <c r="FM33"/>
+      <c r="FN33"/>
+      <c r="FO33"/>
+      <c r="FP33"/>
+      <c r="FQ33"/>
+      <c r="FR33"/>
+      <c r="FS33"/>
+      <c r="FT33"/>
+      <c r="FU33"/>
+      <c r="FV33"/>
+      <c r="FW33"/>
+      <c r="FX33"/>
+      <c r="FY33"/>
+      <c r="FZ33"/>
+      <c r="GA33"/>
+      <c r="GB33"/>
+      <c r="GC33"/>
+      <c r="GD33"/>
+      <c r="GE33"/>
+      <c r="GF33"/>
+      <c r="GG33"/>
+      <c r="GH33"/>
+      <c r="GI33"/>
+      <c r="GJ33"/>
+      <c r="GK33"/>
+      <c r="GL33"/>
+      <c r="GM33"/>
+      <c r="GN33"/>
+      <c r="GO33"/>
+      <c r="GP33"/>
+      <c r="GQ33"/>
+      <c r="GR33"/>
+      <c r="GS33"/>
+      <c r="GT33"/>
+      <c r="GU33"/>
+      <c r="GV33"/>
+      <c r="GW33"/>
+      <c r="GX33"/>
+      <c r="GY33"/>
+      <c r="GZ33"/>
+      <c r="HA33"/>
+      <c r="HB33"/>
+      <c r="HC33"/>
+      <c r="HD33"/>
+      <c r="HE33"/>
+      <c r="HF33"/>
+      <c r="HG33"/>
+      <c r="HH33"/>
+      <c r="HI33"/>
+      <c r="HJ33"/>
+      <c r="HK33"/>
+      <c r="HL33"/>
+      <c r="HM33"/>
+      <c r="HN33"/>
+      <c r="HO33"/>
+      <c r="HP33"/>
+      <c r="HQ33"/>
+      <c r="HR33"/>
+      <c r="HS33"/>
+      <c r="HT33"/>
+      <c r="HU33"/>
+      <c r="HV33"/>
+      <c r="HW33"/>
+      <c r="HX33"/>
+      <c r="HY33"/>
+      <c r="HZ33"/>
+      <c r="IA33"/>
+      <c r="IB33"/>
+      <c r="IC33"/>
+      <c r="ID33"/>
+      <c r="IE33"/>
+      <c r="IF33"/>
+      <c r="IG33"/>
+      <c r="IH33"/>
+      <c r="II33"/>
+      <c r="IJ33"/>
+      <c r="IK33"/>
+      <c r="IL33"/>
+      <c r="IM33"/>
+      <c r="IN33"/>
+      <c r="IO33"/>
+      <c r="IP33"/>
+      <c r="IQ33"/>
+      <c r="IR33"/>
+      <c r="IS33"/>
+      <c r="IT33"/>
+      <c r="IU33"/>
+      <c r="IV33"/>
+      <c r="IW33"/>
+      <c r="IX33"/>
+      <c r="IY33"/>
+      <c r="IZ33"/>
+      <c r="JA33"/>
+      <c r="JB33"/>
+      <c r="JC33"/>
+      <c r="JD33"/>
+      <c r="JE33"/>
+      <c r="JF33"/>
+      <c r="JG33"/>
+      <c r="JH33"/>
+      <c r="JI33"/>
+      <c r="JJ33"/>
+      <c r="JK33"/>
+      <c r="JL33"/>
+      <c r="JM33"/>
+      <c r="JN33"/>
+      <c r="JO33"/>
+      <c r="JP33"/>
+      <c r="JQ33"/>
+      <c r="JR33"/>
+      <c r="JS33"/>
+      <c r="JT33"/>
+      <c r="JU33"/>
+      <c r="JV33"/>
+      <c r="JW33"/>
+      <c r="JX33"/>
+      <c r="JY33"/>
+      <c r="JZ33"/>
+      <c r="KA33"/>
+      <c r="KB33"/>
+      <c r="KC33"/>
+      <c r="KD33"/>
+      <c r="KE33"/>
+      <c r="KF33"/>
+      <c r="KG33"/>
+      <c r="KH33"/>
+      <c r="KI33"/>
+      <c r="KJ33"/>
+      <c r="KK33"/>
+      <c r="KL33"/>
+      <c r="KM33"/>
+      <c r="KN33"/>
+      <c r="KO33"/>
+      <c r="KP33"/>
+      <c r="KQ33"/>
+      <c r="KR33"/>
+      <c r="KS33"/>
+      <c r="KT33"/>
+      <c r="KU33"/>
+      <c r="KV33"/>
+      <c r="KW33"/>
+      <c r="KX33"/>
+      <c r="KY33"/>
+      <c r="KZ33"/>
+      <c r="LA33"/>
+      <c r="LB33"/>
+      <c r="LC33"/>
+      <c r="LD33"/>
+      <c r="LE33"/>
+      <c r="LF33"/>
+      <c r="LG33"/>
+      <c r="LH33"/>
+      <c r="LI33"/>
+      <c r="LJ33"/>
+      <c r="LK33"/>
+      <c r="LL33"/>
+      <c r="LM33"/>
+      <c r="LN33"/>
+      <c r="LO33"/>
+      <c r="LP33"/>
+      <c r="LQ33"/>
+      <c r="LR33"/>
+      <c r="LS33"/>
+      <c r="LT33"/>
+      <c r="LU33"/>
+      <c r="LV33"/>
+      <c r="LW33"/>
+      <c r="LX33"/>
+      <c r="LY33"/>
+      <c r="LZ33"/>
+      <c r="MA33"/>
+      <c r="MB33"/>
+      <c r="MC33"/>
+      <c r="MD33"/>
+      <c r="ME33"/>
+      <c r="MF33"/>
+      <c r="MG33"/>
+      <c r="MH33"/>
+      <c r="MI33"/>
+      <c r="MJ33"/>
+      <c r="MK33"/>
+      <c r="ML33"/>
+      <c r="MM33"/>
+      <c r="MN33"/>
+      <c r="MO33"/>
+      <c r="MP33"/>
+      <c r="MQ33"/>
+      <c r="MR33"/>
+      <c r="MS33"/>
+      <c r="MT33"/>
+      <c r="MU33"/>
+      <c r="MV33"/>
+      <c r="MW33"/>
+      <c r="MX33"/>
+      <c r="MY33"/>
+      <c r="MZ33"/>
+      <c r="NA33"/>
+      <c r="NB33"/>
+      <c r="NC33"/>
+      <c r="ND33"/>
+      <c r="NE33"/>
+      <c r="NF33"/>
+      <c r="NG33"/>
+      <c r="NH33"/>
+      <c r="NI33"/>
+      <c r="NJ33"/>
+      <c r="NK33"/>
+      <c r="NL33"/>
+      <c r="NM33"/>
+      <c r="NN33"/>
+      <c r="NO33"/>
+      <c r="NP33"/>
+      <c r="NQ33"/>
+      <c r="NR33"/>
+      <c r="NS33"/>
+      <c r="NT33"/>
+      <c r="NU33"/>
+      <c r="NV33"/>
+      <c r="NW33"/>
+      <c r="NX33"/>
+      <c r="NY33"/>
+      <c r="NZ33"/>
+      <c r="OA33"/>
+      <c r="OB33"/>
+      <c r="OC33"/>
+      <c r="OD33"/>
+      <c r="OE33"/>
+      <c r="OF33"/>
+      <c r="OG33"/>
+      <c r="OH33"/>
+      <c r="OI33"/>
+      <c r="OJ33"/>
+      <c r="OK33"/>
+      <c r="OL33"/>
+      <c r="OM33"/>
+      <c r="ON33"/>
+      <c r="OO33"/>
+      <c r="OP33"/>
+      <c r="OQ33"/>
+      <c r="OR33"/>
+      <c r="OS33"/>
+      <c r="OT33"/>
+      <c r="OU33"/>
+      <c r="OV33"/>
+      <c r="OW33"/>
+      <c r="OX33"/>
+      <c r="OY33"/>
+      <c r="OZ33"/>
+      <c r="PA33"/>
+      <c r="PB33"/>
+      <c r="PC33"/>
+      <c r="PD33"/>
+      <c r="PE33"/>
+      <c r="PF33"/>
+      <c r="PG33"/>
+      <c r="PH33"/>
+      <c r="PI33"/>
+      <c r="PJ33"/>
+      <c r="PK33"/>
+      <c r="PL33"/>
+      <c r="PM33"/>
+      <c r="PN33"/>
+      <c r="PO33"/>
+      <c r="PP33"/>
+      <c r="PQ33"/>
+      <c r="PR33"/>
+      <c r="PS33"/>
+      <c r="PT33"/>
+      <c r="PU33"/>
+      <c r="PV33"/>
+      <c r="PW33"/>
+      <c r="PX33"/>
+      <c r="PY33"/>
+      <c r="PZ33"/>
+      <c r="QA33"/>
+      <c r="QB33"/>
+      <c r="QC33"/>
+      <c r="QD33"/>
+      <c r="QE33"/>
+      <c r="QF33"/>
+      <c r="QG33"/>
+      <c r="QH33"/>
+      <c r="QI33"/>
+      <c r="QJ33"/>
+      <c r="QK33"/>
+      <c r="QL33"/>
+      <c r="QM33"/>
+      <c r="QN33"/>
+      <c r="QO33"/>
+      <c r="QP33"/>
+      <c r="QQ33"/>
+      <c r="QR33"/>
+      <c r="QS33"/>
+      <c r="QT33"/>
+      <c r="QU33"/>
+      <c r="QV33"/>
+      <c r="QW33"/>
+      <c r="QX33"/>
+      <c r="QY33"/>
+      <c r="QZ33"/>
+      <c r="RA33"/>
+      <c r="RB33"/>
+      <c r="RC33"/>
+      <c r="RD33"/>
+      <c r="RE33"/>
+      <c r="RF33"/>
+      <c r="RG33"/>
+      <c r="RH33"/>
+      <c r="RI33"/>
+      <c r="RJ33"/>
+      <c r="RK33"/>
+      <c r="RL33"/>
+      <c r="RM33"/>
+      <c r="RN33"/>
+    </row>
+    <row r="34" spans="1:482" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L34" s="7"/>
+      <c r="M34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="S34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD34"/>
+      <c r="AE34"/>
+      <c r="AF34"/>
+      <c r="AG34"/>
+      <c r="AH34"/>
+      <c r="AI34"/>
+      <c r="AJ34"/>
+      <c r="AK34"/>
+      <c r="AL34"/>
+      <c r="AM34"/>
+      <c r="AN34"/>
+      <c r="AO34"/>
+      <c r="AP34"/>
+      <c r="AQ34"/>
+      <c r="AR34"/>
+      <c r="AS34"/>
+      <c r="AT34"/>
+      <c r="AU34"/>
+      <c r="AV34"/>
+      <c r="AW34"/>
+      <c r="AX34"/>
+      <c r="AY34"/>
+      <c r="AZ34"/>
+      <c r="BA34"/>
+      <c r="BB34"/>
+      <c r="BC34"/>
+      <c r="BD34"/>
+      <c r="BE34"/>
+      <c r="BF34"/>
+      <c r="BG34"/>
+      <c r="BH34"/>
+      <c r="BI34"/>
+      <c r="BJ34"/>
+      <c r="BK34"/>
+      <c r="BL34"/>
+      <c r="BM34"/>
+      <c r="BN34"/>
+      <c r="BO34"/>
+      <c r="BP34"/>
+      <c r="BQ34"/>
+      <c r="BR34"/>
+      <c r="BS34"/>
+      <c r="BT34"/>
+      <c r="BU34"/>
+      <c r="BV34"/>
+      <c r="BW34"/>
+      <c r="BX34"/>
+      <c r="BY34"/>
+      <c r="BZ34"/>
+      <c r="CA34"/>
+      <c r="CB34"/>
+      <c r="CC34"/>
+      <c r="CD34"/>
+      <c r="CE34"/>
+      <c r="CF34"/>
+      <c r="CG34"/>
+      <c r="CH34"/>
+      <c r="CI34"/>
+      <c r="CJ34"/>
+      <c r="CK34"/>
+      <c r="CL34"/>
+      <c r="CM34"/>
+      <c r="CN34"/>
+      <c r="CO34"/>
+      <c r="CP34"/>
+      <c r="CQ34"/>
+      <c r="CR34"/>
+      <c r="CS34"/>
+      <c r="CT34"/>
+      <c r="CU34"/>
+      <c r="CV34"/>
+      <c r="CW34"/>
+      <c r="CX34"/>
+      <c r="CY34"/>
+      <c r="CZ34"/>
+      <c r="DA34"/>
+      <c r="DB34"/>
+      <c r="DC34"/>
+      <c r="DD34"/>
+      <c r="DE34"/>
+      <c r="DF34"/>
+      <c r="DG34"/>
+      <c r="DH34"/>
+      <c r="DI34"/>
+      <c r="DJ34"/>
+      <c r="DK34"/>
+      <c r="DL34"/>
+      <c r="DM34"/>
+      <c r="DN34"/>
+      <c r="DO34"/>
+      <c r="DP34"/>
+      <c r="DQ34"/>
+      <c r="DR34"/>
+      <c r="DS34"/>
+      <c r="DT34"/>
+      <c r="DU34"/>
+      <c r="DV34"/>
+      <c r="DW34"/>
+      <c r="DX34"/>
+      <c r="DY34"/>
+      <c r="DZ34"/>
+      <c r="EA34"/>
+      <c r="EB34"/>
+      <c r="EC34"/>
+      <c r="ED34"/>
+      <c r="EE34"/>
+      <c r="EF34"/>
+      <c r="EG34"/>
+      <c r="EH34"/>
+      <c r="EI34"/>
+      <c r="EJ34"/>
+      <c r="EK34"/>
+      <c r="EL34"/>
+      <c r="EM34"/>
+      <c r="EN34"/>
+      <c r="EO34"/>
+      <c r="EP34"/>
+      <c r="EQ34"/>
+      <c r="ER34"/>
+      <c r="ES34"/>
+      <c r="ET34"/>
+      <c r="EU34"/>
+      <c r="EV34"/>
+      <c r="EW34"/>
+      <c r="EX34"/>
+      <c r="EY34"/>
+      <c r="EZ34"/>
+      <c r="FA34"/>
+      <c r="FB34"/>
+      <c r="FC34"/>
+      <c r="FD34"/>
+      <c r="FE34"/>
+      <c r="FF34"/>
+      <c r="FG34"/>
+      <c r="FH34"/>
+      <c r="FI34"/>
+      <c r="FJ34"/>
+      <c r="FK34"/>
+      <c r="FL34"/>
+      <c r="FM34"/>
+      <c r="FN34"/>
+      <c r="FO34"/>
+      <c r="FP34"/>
+      <c r="FQ34"/>
+      <c r="FR34"/>
+      <c r="FS34"/>
+      <c r="FT34"/>
+      <c r="FU34"/>
+      <c r="FV34"/>
+      <c r="FW34"/>
+      <c r="FX34"/>
+      <c r="FY34"/>
+      <c r="FZ34"/>
+      <c r="GA34"/>
+      <c r="GB34"/>
+      <c r="GC34"/>
+      <c r="GD34"/>
+      <c r="GE34"/>
+      <c r="GF34"/>
+      <c r="GG34"/>
+      <c r="GH34"/>
+      <c r="GI34"/>
+      <c r="GJ34"/>
+      <c r="GK34"/>
+      <c r="GL34"/>
+      <c r="GM34"/>
+      <c r="GN34"/>
+      <c r="GO34"/>
+      <c r="GP34"/>
+      <c r="GQ34"/>
+      <c r="GR34"/>
+      <c r="GS34"/>
+      <c r="GT34"/>
+      <c r="GU34"/>
+      <c r="GV34"/>
+      <c r="GW34"/>
+      <c r="GX34"/>
+      <c r="GY34"/>
+      <c r="GZ34"/>
+      <c r="HA34"/>
+      <c r="HB34"/>
+      <c r="HC34"/>
+      <c r="HD34"/>
+      <c r="HE34"/>
+      <c r="HF34"/>
+      <c r="HG34"/>
+      <c r="HH34"/>
+      <c r="HI34"/>
+      <c r="HJ34"/>
+      <c r="HK34"/>
+      <c r="HL34"/>
+      <c r="HM34"/>
+      <c r="HN34"/>
+      <c r="HO34"/>
+      <c r="HP34"/>
+      <c r="HQ34"/>
+      <c r="HR34"/>
+      <c r="HS34"/>
+      <c r="HT34"/>
+      <c r="HU34"/>
+      <c r="HV34"/>
+      <c r="HW34"/>
+      <c r="HX34"/>
+      <c r="HY34"/>
+      <c r="HZ34"/>
+      <c r="IA34"/>
+      <c r="IB34"/>
+      <c r="IC34"/>
+      <c r="ID34"/>
+      <c r="IE34"/>
+      <c r="IF34"/>
+      <c r="IG34"/>
+      <c r="IH34"/>
+      <c r="II34"/>
+      <c r="IJ34"/>
+      <c r="IK34"/>
+      <c r="IL34"/>
+      <c r="IM34"/>
+      <c r="IN34"/>
+      <c r="IO34"/>
+      <c r="IP34"/>
+      <c r="IQ34"/>
+      <c r="IR34"/>
+      <c r="IS34"/>
+      <c r="IT34"/>
+      <c r="IU34"/>
+      <c r="IV34"/>
+      <c r="IW34"/>
+      <c r="IX34"/>
+      <c r="IY34"/>
+      <c r="IZ34"/>
+      <c r="JA34"/>
+      <c r="JB34"/>
+      <c r="JC34"/>
+      <c r="JD34"/>
+      <c r="JE34"/>
+      <c r="JF34"/>
+      <c r="JG34"/>
+      <c r="JH34"/>
+      <c r="JI34"/>
+      <c r="JJ34"/>
+      <c r="JK34"/>
+      <c r="JL34"/>
+      <c r="JM34"/>
+      <c r="JN34"/>
+      <c r="JO34"/>
+      <c r="JP34"/>
+      <c r="JQ34"/>
+      <c r="JR34"/>
+      <c r="JS34"/>
+      <c r="JT34"/>
+      <c r="JU34"/>
+      <c r="JV34"/>
+      <c r="JW34"/>
+      <c r="JX34"/>
+      <c r="JY34"/>
+      <c r="JZ34"/>
+      <c r="KA34"/>
+      <c r="KB34"/>
+      <c r="KC34"/>
+      <c r="KD34"/>
+      <c r="KE34"/>
+      <c r="KF34"/>
+      <c r="KG34"/>
+      <c r="KH34"/>
+      <c r="KI34"/>
+      <c r="KJ34"/>
+      <c r="KK34"/>
+      <c r="KL34"/>
+      <c r="KM34"/>
+      <c r="KN34"/>
+      <c r="KO34"/>
+      <c r="KP34"/>
+      <c r="KQ34"/>
+      <c r="KR34"/>
+      <c r="KS34"/>
+      <c r="KT34"/>
+      <c r="KU34"/>
+      <c r="KV34"/>
+      <c r="KW34"/>
+      <c r="KX34"/>
+      <c r="KY34"/>
+      <c r="KZ34"/>
+      <c r="LA34"/>
+      <c r="LB34"/>
+      <c r="LC34"/>
+      <c r="LD34"/>
+      <c r="LE34"/>
+      <c r="LF34"/>
+      <c r="LG34"/>
+      <c r="LH34"/>
+      <c r="LI34"/>
+      <c r="LJ34"/>
+      <c r="LK34"/>
+      <c r="LL34"/>
+      <c r="LM34"/>
+      <c r="LN34"/>
+      <c r="LO34"/>
+      <c r="LP34"/>
+      <c r="LQ34"/>
+      <c r="LR34"/>
+      <c r="LS34"/>
+      <c r="LT34"/>
+      <c r="LU34"/>
+      <c r="LV34"/>
+      <c r="LW34"/>
+      <c r="LX34"/>
+      <c r="LY34"/>
+      <c r="LZ34"/>
+      <c r="MA34"/>
+      <c r="MB34"/>
+      <c r="MC34"/>
+      <c r="MD34"/>
+      <c r="ME34"/>
+      <c r="MF34"/>
+      <c r="MG34"/>
+      <c r="MH34"/>
+      <c r="MI34"/>
+      <c r="MJ34"/>
+      <c r="MK34"/>
+      <c r="ML34"/>
+      <c r="MM34"/>
+      <c r="MN34"/>
+      <c r="MO34"/>
+      <c r="MP34"/>
+      <c r="MQ34"/>
+      <c r="MR34"/>
+      <c r="MS34"/>
+      <c r="MT34"/>
+      <c r="MU34"/>
+      <c r="MV34"/>
+      <c r="MW34"/>
+      <c r="MX34"/>
+      <c r="MY34"/>
+      <c r="MZ34"/>
+      <c r="NA34"/>
+      <c r="NB34"/>
+      <c r="NC34"/>
+      <c r="ND34"/>
+      <c r="NE34"/>
+      <c r="NF34"/>
+      <c r="NG34"/>
+      <c r="NH34"/>
+      <c r="NI34"/>
+      <c r="NJ34"/>
+      <c r="NK34"/>
+      <c r="NL34"/>
+      <c r="NM34"/>
+      <c r="NN34"/>
+      <c r="NO34"/>
+      <c r="NP34"/>
+      <c r="NQ34"/>
+      <c r="NR34"/>
+      <c r="NS34"/>
+      <c r="NT34"/>
+      <c r="NU34"/>
+      <c r="NV34"/>
+      <c r="NW34"/>
+      <c r="NX34"/>
+      <c r="NY34"/>
+      <c r="NZ34"/>
+      <c r="OA34"/>
+      <c r="OB34"/>
+      <c r="OC34"/>
+      <c r="OD34"/>
+      <c r="OE34"/>
+      <c r="OF34"/>
+      <c r="OG34"/>
+      <c r="OH34"/>
+      <c r="OI34"/>
+      <c r="OJ34"/>
+      <c r="OK34"/>
+      <c r="OL34"/>
+      <c r="OM34"/>
+      <c r="ON34"/>
+      <c r="OO34"/>
+      <c r="OP34"/>
+      <c r="OQ34"/>
+      <c r="OR34"/>
+      <c r="OS34"/>
+      <c r="OT34"/>
+      <c r="OU34"/>
+      <c r="OV34"/>
+      <c r="OW34"/>
+      <c r="OX34"/>
+      <c r="OY34"/>
+      <c r="OZ34"/>
+      <c r="PA34"/>
+      <c r="PB34"/>
+      <c r="PC34"/>
+      <c r="PD34"/>
+      <c r="PE34"/>
+      <c r="PF34"/>
+      <c r="PG34"/>
+      <c r="PH34"/>
+      <c r="PI34"/>
+      <c r="PJ34"/>
+      <c r="PK34"/>
+      <c r="PL34"/>
+      <c r="PM34"/>
+      <c r="PN34"/>
+      <c r="PO34"/>
+      <c r="PP34"/>
+      <c r="PQ34"/>
+      <c r="PR34"/>
+      <c r="PS34"/>
+      <c r="PT34"/>
+      <c r="PU34"/>
+      <c r="PV34"/>
+      <c r="PW34"/>
+      <c r="PX34"/>
+      <c r="PY34"/>
+      <c r="PZ34"/>
+      <c r="QA34"/>
+      <c r="QB34"/>
+      <c r="QC34"/>
+      <c r="QD34"/>
+      <c r="QE34"/>
+      <c r="QF34"/>
+      <c r="QG34"/>
+      <c r="QH34"/>
+      <c r="QI34"/>
+      <c r="QJ34"/>
+      <c r="QK34"/>
+      <c r="QL34"/>
+      <c r="QM34"/>
+      <c r="QN34"/>
+      <c r="QO34"/>
+      <c r="QP34"/>
+      <c r="QQ34"/>
+      <c r="QR34"/>
+      <c r="QS34"/>
+      <c r="QT34"/>
+      <c r="QU34"/>
+      <c r="QV34"/>
+      <c r="QW34"/>
+      <c r="QX34"/>
+      <c r="QY34"/>
+      <c r="QZ34"/>
+      <c r="RA34"/>
+      <c r="RB34"/>
+      <c r="RC34"/>
+      <c r="RD34"/>
+      <c r="RE34"/>
+      <c r="RF34"/>
+      <c r="RG34"/>
+      <c r="RH34"/>
+      <c r="RI34"/>
+      <c r="RJ34"/>
+      <c r="RK34"/>
+      <c r="RL34"/>
+      <c r="RM34"/>
+      <c r="RN34"/>
+    </row>
+    <row r="35" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD35"/>
+      <c r="AE35"/>
+      <c r="AF35"/>
+      <c r="AG35"/>
+      <c r="AH35"/>
+      <c r="AI35"/>
+      <c r="AJ35"/>
+      <c r="AK35"/>
+      <c r="AL35"/>
+      <c r="AM35"/>
+      <c r="AN35"/>
+      <c r="AO35"/>
+      <c r="AP35"/>
+      <c r="AQ35"/>
+      <c r="AR35"/>
+      <c r="AS35"/>
+      <c r="AT35"/>
+      <c r="AU35"/>
+      <c r="AV35"/>
+      <c r="AW35"/>
+      <c r="AX35"/>
+      <c r="AY35"/>
+      <c r="AZ35"/>
+      <c r="BA35"/>
+      <c r="BB35"/>
+      <c r="BC35"/>
+      <c r="BD35"/>
+      <c r="BE35"/>
+      <c r="BF35"/>
+      <c r="BG35"/>
+      <c r="BH35"/>
+      <c r="BI35"/>
+      <c r="BJ35"/>
+      <c r="BK35"/>
+      <c r="BL35"/>
+      <c r="BM35"/>
+      <c r="BN35"/>
+      <c r="BO35"/>
+      <c r="BP35"/>
+      <c r="BQ35"/>
+      <c r="BR35"/>
+      <c r="BS35"/>
+      <c r="BT35"/>
+      <c r="BU35"/>
+      <c r="BV35"/>
+      <c r="BW35"/>
+      <c r="BX35"/>
+      <c r="BY35"/>
+      <c r="BZ35"/>
+      <c r="CA35"/>
+      <c r="CB35"/>
+      <c r="CC35"/>
+      <c r="CD35"/>
+      <c r="CE35"/>
+      <c r="CF35"/>
+      <c r="CG35"/>
+      <c r="CH35"/>
+      <c r="CI35"/>
+      <c r="CJ35"/>
+      <c r="CK35"/>
+      <c r="CL35"/>
+      <c r="CM35"/>
+      <c r="CN35"/>
+      <c r="CO35"/>
+      <c r="CP35"/>
+      <c r="CQ35"/>
+      <c r="CR35"/>
+      <c r="CS35"/>
+      <c r="CT35"/>
+      <c r="CU35"/>
+      <c r="CV35"/>
+      <c r="CW35"/>
+      <c r="CX35"/>
+      <c r="CY35"/>
+      <c r="CZ35"/>
+      <c r="DA35"/>
+      <c r="DB35"/>
+      <c r="DC35"/>
+      <c r="DD35"/>
+      <c r="DE35"/>
+      <c r="DF35"/>
+      <c r="DG35"/>
+      <c r="DH35"/>
+      <c r="DI35"/>
+      <c r="DJ35"/>
+      <c r="DK35"/>
+      <c r="DL35"/>
+      <c r="DM35"/>
+      <c r="DN35"/>
+      <c r="DO35"/>
+      <c r="DP35"/>
+      <c r="DQ35"/>
+      <c r="DR35"/>
+      <c r="DS35"/>
+      <c r="DT35"/>
+      <c r="DU35"/>
+      <c r="DV35"/>
+      <c r="DW35"/>
+      <c r="DX35"/>
+      <c r="DY35"/>
+      <c r="DZ35"/>
+      <c r="EA35"/>
+      <c r="EB35"/>
+      <c r="EC35"/>
+      <c r="ED35"/>
+      <c r="EE35"/>
+      <c r="EF35"/>
+      <c r="EG35"/>
+      <c r="EH35"/>
+      <c r="EI35"/>
+      <c r="EJ35"/>
+      <c r="EK35"/>
+      <c r="EL35"/>
+      <c r="EM35"/>
+      <c r="EN35"/>
+      <c r="EO35"/>
+      <c r="EP35"/>
+      <c r="EQ35"/>
+      <c r="ER35"/>
+      <c r="ES35"/>
+      <c r="ET35"/>
+      <c r="EU35"/>
+      <c r="EV35"/>
+      <c r="EW35"/>
+      <c r="EX35"/>
+      <c r="EY35"/>
+      <c r="EZ35"/>
+      <c r="FA35"/>
+      <c r="FB35"/>
+      <c r="FC35"/>
+      <c r="FD35"/>
+      <c r="FE35"/>
+      <c r="FF35"/>
+      <c r="FG35"/>
+      <c r="FH35"/>
+      <c r="FI35"/>
+      <c r="FJ35"/>
+      <c r="FK35"/>
+      <c r="FL35"/>
+      <c r="FM35"/>
+      <c r="FN35"/>
+      <c r="FO35"/>
+      <c r="FP35"/>
+      <c r="FQ35"/>
+      <c r="FR35"/>
+      <c r="FS35"/>
+      <c r="FT35"/>
+      <c r="FU35"/>
+      <c r="FV35"/>
+      <c r="FW35"/>
+      <c r="FX35"/>
+      <c r="FY35"/>
+      <c r="FZ35"/>
+      <c r="GA35"/>
+      <c r="GB35"/>
+      <c r="GC35"/>
+      <c r="GD35"/>
+      <c r="GE35"/>
+      <c r="GF35"/>
+      <c r="GG35"/>
+      <c r="GH35"/>
+      <c r="GI35"/>
+      <c r="GJ35"/>
+      <c r="GK35"/>
+      <c r="GL35"/>
+      <c r="GM35"/>
+      <c r="GN35"/>
+      <c r="GO35"/>
+      <c r="GP35"/>
+      <c r="GQ35"/>
+      <c r="GR35"/>
+      <c r="GS35"/>
+      <c r="GT35"/>
+      <c r="GU35"/>
+      <c r="GV35"/>
+      <c r="GW35"/>
+      <c r="GX35"/>
+      <c r="GY35"/>
+      <c r="GZ35"/>
+      <c r="HA35"/>
+      <c r="HB35"/>
+      <c r="HC35"/>
+      <c r="HD35"/>
+      <c r="HE35"/>
+      <c r="HF35"/>
+      <c r="HG35"/>
+      <c r="HH35"/>
+      <c r="HI35"/>
+      <c r="HJ35"/>
+      <c r="HK35"/>
+      <c r="HL35"/>
+      <c r="HM35"/>
+      <c r="HN35"/>
+      <c r="HO35"/>
+      <c r="HP35"/>
+      <c r="HQ35"/>
+      <c r="HR35"/>
+      <c r="HS35"/>
+      <c r="HT35"/>
+      <c r="HU35"/>
+      <c r="HV35"/>
+      <c r="HW35"/>
+      <c r="HX35"/>
+      <c r="HY35"/>
+      <c r="HZ35"/>
+      <c r="IA35"/>
+      <c r="IB35"/>
+      <c r="IC35"/>
+      <c r="ID35"/>
+      <c r="IE35"/>
+      <c r="IF35"/>
+      <c r="IG35"/>
+      <c r="IH35"/>
+      <c r="II35"/>
+      <c r="IJ35"/>
+      <c r="IK35"/>
+      <c r="IL35"/>
+      <c r="IM35"/>
+      <c r="IN35"/>
+      <c r="IO35"/>
+      <c r="IP35"/>
+      <c r="IQ35"/>
+      <c r="IR35"/>
+      <c r="IS35"/>
+      <c r="IT35"/>
+      <c r="IU35"/>
+      <c r="IV35"/>
+      <c r="IW35"/>
+      <c r="IX35"/>
+      <c r="IY35"/>
+      <c r="IZ35"/>
+      <c r="JA35"/>
+      <c r="JB35"/>
+      <c r="JC35"/>
+      <c r="JD35"/>
+      <c r="JE35"/>
+      <c r="JF35"/>
+      <c r="JG35"/>
+      <c r="JH35"/>
+      <c r="JI35"/>
+      <c r="JJ35"/>
+      <c r="JK35"/>
+      <c r="JL35"/>
+      <c r="JM35"/>
+      <c r="JN35"/>
+      <c r="JO35"/>
+      <c r="JP35"/>
+      <c r="JQ35"/>
+      <c r="JR35"/>
+      <c r="JS35"/>
+      <c r="JT35"/>
+      <c r="JU35"/>
+      <c r="JV35"/>
+      <c r="JW35"/>
+      <c r="JX35"/>
+      <c r="JY35"/>
+      <c r="JZ35"/>
+      <c r="KA35"/>
+      <c r="KB35"/>
+      <c r="KC35"/>
+      <c r="KD35"/>
+      <c r="KE35"/>
+      <c r="KF35"/>
+      <c r="KG35"/>
+      <c r="KH35"/>
+      <c r="KI35"/>
+      <c r="KJ35"/>
+      <c r="KK35"/>
+      <c r="KL35"/>
+      <c r="KM35"/>
+      <c r="KN35"/>
+      <c r="KO35"/>
+      <c r="KP35"/>
+      <c r="KQ35"/>
+      <c r="KR35"/>
+      <c r="KS35"/>
+      <c r="KT35"/>
+      <c r="KU35"/>
+      <c r="KV35"/>
+      <c r="KW35"/>
+      <c r="KX35"/>
+      <c r="KY35"/>
+      <c r="KZ35"/>
+      <c r="LA35"/>
+      <c r="LB35"/>
+      <c r="LC35"/>
+      <c r="LD35"/>
+      <c r="LE35"/>
+      <c r="LF35"/>
+      <c r="LG35"/>
+      <c r="LH35"/>
+      <c r="LI35"/>
+      <c r="LJ35"/>
+      <c r="LK35"/>
+      <c r="LL35"/>
+      <c r="LM35"/>
+      <c r="LN35"/>
+      <c r="LO35"/>
+      <c r="LP35"/>
+      <c r="LQ35"/>
+      <c r="LR35"/>
+      <c r="LS35"/>
+      <c r="LT35"/>
+      <c r="LU35"/>
+      <c r="LV35"/>
+      <c r="LW35"/>
+      <c r="LX35"/>
+      <c r="LY35"/>
+      <c r="LZ35"/>
+      <c r="MA35"/>
+      <c r="MB35"/>
+      <c r="MC35"/>
+      <c r="MD35"/>
+      <c r="ME35"/>
+      <c r="MF35"/>
+      <c r="MG35"/>
+      <c r="MH35"/>
+      <c r="MI35"/>
+      <c r="MJ35"/>
+      <c r="MK35"/>
+      <c r="ML35"/>
+      <c r="MM35"/>
+      <c r="MN35"/>
+      <c r="MO35"/>
+      <c r="MP35"/>
+      <c r="MQ35"/>
+      <c r="MR35"/>
+      <c r="MS35"/>
+      <c r="MT35"/>
+      <c r="MU35"/>
+      <c r="MV35"/>
+      <c r="MW35"/>
+      <c r="MX35"/>
+      <c r="MY35"/>
+      <c r="MZ35"/>
+      <c r="NA35"/>
+      <c r="NB35"/>
+      <c r="NC35"/>
+      <c r="ND35"/>
+      <c r="NE35"/>
+      <c r="NF35"/>
+      <c r="NG35"/>
+      <c r="NH35"/>
+      <c r="NI35"/>
+      <c r="NJ35"/>
+      <c r="NK35"/>
+      <c r="NL35"/>
+      <c r="NM35"/>
+      <c r="NN35"/>
+      <c r="NO35"/>
+      <c r="NP35"/>
+      <c r="NQ35"/>
+      <c r="NR35"/>
+      <c r="NS35"/>
+      <c r="NT35"/>
+      <c r="NU35"/>
+      <c r="NV35"/>
+      <c r="NW35"/>
+      <c r="NX35"/>
+      <c r="NY35"/>
+      <c r="NZ35"/>
+      <c r="OA35"/>
+      <c r="OB35"/>
+      <c r="OC35"/>
+      <c r="OD35"/>
+      <c r="OE35"/>
+      <c r="OF35"/>
+      <c r="OG35"/>
+      <c r="OH35"/>
+      <c r="OI35"/>
+      <c r="OJ35"/>
+      <c r="OK35"/>
+      <c r="OL35"/>
+      <c r="OM35"/>
+      <c r="ON35"/>
+      <c r="OO35"/>
+      <c r="OP35"/>
+      <c r="OQ35"/>
+      <c r="OR35"/>
+      <c r="OS35"/>
+      <c r="OT35"/>
+      <c r="OU35"/>
+      <c r="OV35"/>
+      <c r="OW35"/>
+      <c r="OX35"/>
+      <c r="OY35"/>
+      <c r="OZ35"/>
+      <c r="PA35"/>
+      <c r="PB35"/>
+      <c r="PC35"/>
+      <c r="PD35"/>
+      <c r="PE35"/>
+      <c r="PF35"/>
+      <c r="PG35"/>
+      <c r="PH35"/>
+      <c r="PI35"/>
+      <c r="PJ35"/>
+      <c r="PK35"/>
+      <c r="PL35"/>
+      <c r="PM35"/>
+      <c r="PN35"/>
+      <c r="PO35"/>
+      <c r="PP35"/>
+      <c r="PQ35"/>
+      <c r="PR35"/>
+      <c r="PS35"/>
+      <c r="PT35"/>
+      <c r="PU35"/>
+      <c r="PV35"/>
+      <c r="PW35"/>
+      <c r="PX35"/>
+      <c r="PY35"/>
+      <c r="PZ35"/>
+      <c r="QA35"/>
+      <c r="QB35"/>
+      <c r="QC35"/>
+      <c r="QD35"/>
+      <c r="QE35"/>
+      <c r="QF35"/>
+      <c r="QG35"/>
+      <c r="QH35"/>
+      <c r="QI35"/>
+      <c r="QJ35"/>
+      <c r="QK35"/>
+      <c r="QL35"/>
+      <c r="QM35"/>
+      <c r="QN35"/>
+      <c r="QO35"/>
+      <c r="QP35"/>
+      <c r="QQ35"/>
+      <c r="QR35"/>
+      <c r="QS35"/>
+      <c r="QT35"/>
+      <c r="QU35"/>
+      <c r="QV35"/>
+      <c r="QW35"/>
+      <c r="QX35"/>
+      <c r="QY35"/>
+      <c r="QZ35"/>
+      <c r="RA35"/>
+      <c r="RB35"/>
+      <c r="RC35"/>
+      <c r="RD35"/>
+      <c r="RE35"/>
+      <c r="RF35"/>
+      <c r="RG35"/>
+      <c r="RH35"/>
+      <c r="RI35"/>
+      <c r="RJ35"/>
+      <c r="RK35"/>
+      <c r="RL35"/>
+      <c r="RM35"/>
+      <c r="RN35"/>
+    </row>
+    <row r="36" spans="1:482" ht="34" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="D36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:482" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:482" x14ac:dyDescent="0.2">
+      <c r="AD38" t="s">
         <v>114</v>
       </c>
-      <c r="D33" t="s">
-        <v>111</v>
-      </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>113</v>
-      </c>
-      <c r="E34" t="s">
-        <v>112</v>
-      </c>
+    <row r="43" spans="1:482" x14ac:dyDescent="0.2">
+      <c r="C43" s="5"/>
     </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="AD35" t="s">
-        <v>116</v>
-      </c>
+    <row r="45" spans="1:482" x14ac:dyDescent="0.2">
+      <c r="C45" s="5"/>
     </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="C40" s="5"/>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="C42" s="5"/>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="C44" s="5"/>
+    <row r="47" spans="1:482" x14ac:dyDescent="0.2">
+      <c r="C47" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/excel2xml-testdata.xlsx
+++ b/testdata/excel2xml-testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nusjoh00-adm/Desktop/dsp-tools/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D752EB-02B9-0D41-9AE7-A54300710A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52D4EAF-34A2-174B-B0AE-B44196716646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{8DC9C588-8EAF-9149-8D6F-E65826635888}"/>
   </bookViews>
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="140">
   <si>
     <t>id</t>
   </si>
@@ -901,6 +901,9 @@
   </si>
   <si>
     <t>https://www.ancestry.com/discoveryui-content/view/47577828:60525?ssrc=pt&amp;tid=109007397&amp;pid=410070328478</t>
+  </si>
+  <si>
+    <t>:hasFourthLink</t>
   </si>
 </sst>
 </file>
@@ -1435,7 +1438,7 @@
   <dimension ref="A1:RN47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5372,7 +5375,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="11"/>
       <c r="J8" s="12" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>51</v>

--- a/testdata/excel2xml-testdata.xlsx
+++ b/testdata/excel2xml-testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nusjoh00-adm/Desktop/dsp-tools/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB0E0CE-89D2-714E-AB1E-611B19505BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52D4EAF-34A2-174B-B0AE-B44196716646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{8DC9C588-8EAF-9149-8D6F-E65826635888}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="example" localSheetId="0">Sheet1!$A$1:$PF$32</definedName>
+    <definedName name="example" localSheetId="0">Sheet1!$A$1:$PF$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="140">
   <si>
     <t>id</t>
   </si>
@@ -629,13 +629,7 @@
     <t>uri-prop</t>
   </si>
   <si>
-    <t>http://d-nb.info/gnd/11855333X</t>
-  </si>
-  <si>
     <t>:hasExternalLink</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Homer</t>
   </si>
   <si>
     <t>annotation_0</t>
@@ -851,12 +845,72 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>https://reg-exr.com:3000/path/to/file_(%C3%89).htm</t>
+  </si>
+  <si>
+    <t>https://en.wiktionary.org/wiki/Ῥόδος</t>
+  </si>
+  <si>
+    <t>https://www.test-case.ch/</t>
+  </si>
+  <si>
+    <t>https://reg-exr.com:3000</t>
+  </si>
+  <si>
+    <t>https://reg-exr.com:3000/path/to/file#fragment</t>
+  </si>
+  <si>
+    <t>https://reg-exr.com:3000/path/to/file?query=test</t>
+  </si>
+  <si>
+    <t>https://reg-exr.com:3000/path/to/file?query=test#fragment</t>
+  </si>
+  <si>
+    <t>https://reg-exr.com/path/to/file?query=test#fragment</t>
+  </si>
+  <si>
+    <t>:hasAnotherLink</t>
+  </si>
+  <si>
+    <t>http://www.168.1.1.0/path</t>
+  </si>
+  <si>
+    <t>http://www.168.1.1.0:4200/path</t>
+  </si>
+  <si>
+    <t>http://[2001:0db8:0000:0000:0000:8a2e:0370:7334]:4200/path</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Haiku#/media/File:Basho_Horohoroto.jpg</t>
+  </si>
+  <si>
+    <t>:hasThirdLink</t>
+  </si>
+  <si>
+    <t>http://datypic.com/prod.html#shirt</t>
+  </si>
+  <si>
+    <t>https://www.findagrave.com/memorial/171722836/krikor-madenician?_gl=1*100n0s5*_ga*NzIzMDQxNjc2LjE2Mjg2MDk1OTQ.*_ga_4QT8FMEX30*MTY1Mjc5OTI4OC4xNC4xLjE2NTI4MDA2MDQuMA..</t>
+  </si>
+  <si>
+    <t>https://markarslan.org/ArmenianImmigrants/Public-ViewDetail-ArmenianImmigrants-Main.php?submit=View&amp;Staging=&amp;SourcePage=Public-ViewSummary-ArmenianImmigrants-Main-ByDestinationDate&amp;SelectDestinationYear=1907&amp;SelectLastNameStd=all&amp;argument1=PLIN-29NOV1907-3-73-0018</t>
+  </si>
+  <si>
+    <t>http://markarslan.org/ArmenianImmigrants/Public-ViewDetail-ArmenianImmigrants-Main.php?submit=View&amp;Staging=&amp;SourcePage=Public-ViewSummary-ArmenianImmigrants-Main-ByDestinationDate&amp;SelectDestinationYear=1907&amp;SelectLastNameStd=all&amp;argument1=CRTH-12JAN1907-3-%404-0016</t>
+  </si>
+  <si>
+    <t>https://www.ancestry.com/discoveryui-content/view/47577828:60525?ssrc=pt&amp;tid=109007397&amp;pid=410070328478</t>
+  </si>
+  <si>
+    <t>:hasFourthLink</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -880,6 +934,14 @@
     </font>
     <font>
       <sz val="11.3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1019,10 +1081,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1049,8 +1112,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1367,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B59957-CA62-894B-8744-01ADFD605729}">
-  <dimension ref="A1:RN44"/>
+  <dimension ref="A1:RN47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1813,10 +1881,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
@@ -1825,7 +1893,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>6</v>
@@ -1885,7 +1953,7 @@
         <v>24</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AD1"/>
       <c r="AE1"/>
@@ -1893,7 +1961,7 @@
       <c r="AG1"/>
       <c r="AH1"/>
       <c r="AI1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AJ1"/>
       <c r="AK1"/>
@@ -2354,7 +2422,7 @@
         <v>48</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>25</v>
@@ -2367,7 +2435,7 @@
       <c r="AB2" s="7"/>
       <c r="AC2"/>
       <c r="AD2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AE2"/>
       <c r="AF2"/>
@@ -2842,7 +2910,7 @@
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="R3" s="6" t="s">
         <v>28</v>
@@ -2852,7 +2920,7 @@
       </c>
       <c r="T3" s="7"/>
       <c r="U3" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>28</v>
@@ -2862,7 +2930,7 @@
       </c>
       <c r="X3" s="7"/>
       <c r="Y3" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Z3" s="6" t="s">
         <v>28</v>
@@ -2874,7 +2942,7 @@
       <c r="AC3"/>
       <c r="AD3"/>
       <c r="AE3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AF3"/>
       <c r="AG3"/>
@@ -3337,15 +3405,33 @@
         <v>51</v>
       </c>
       <c r="L4" s="7"/>
-      <c r="M4" s="8" t="s">
-        <v>52</v>
+      <c r="M4" t="s">
+        <v>121</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="P4" s="7"/>
+      <c r="Q4" t="s">
+        <v>122</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="T4" s="7"/>
+      <c r="U4" t="s">
+        <v>123</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="X4" s="7"/>
+      <c r="Y4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="AB4" s="7"/>
       <c r="AC4"/>
       <c r="AD4"/>
@@ -3802,43 +3888,43 @@
       <c r="RM4"/>
       <c r="RN4"/>
     </row>
-    <row r="5" spans="1:482" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="10" t="s">
+    <row r="5" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="7"/>
+      <c r="J5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10" t="s">
+      <c r="L5" s="7"/>
+      <c r="M5" t="s">
+        <v>124</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="11"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="7"/>
+      <c r="U5" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB5" s="7"/>
       <c r="AC5"/>
       <c r="AD5"/>
       <c r="AE5"/>
@@ -4295,33 +4381,47 @@
       <c r="RN5"/>
     </row>
     <row r="6" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="I6" s="7"/>
+      <c r="J6" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="L6" s="7"/>
+      <c r="M6" t="s">
+        <v>129</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="P6" s="7"/>
+      <c r="Q6" t="s">
+        <v>130</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="T6" s="7"/>
+      <c r="U6" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="X6" s="7"/>
+      <c r="Y6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="AB6" s="7"/>
       <c r="AC6"/>
-      <c r="AD6" t="s">
-        <v>117</v>
-      </c>
+      <c r="AD6"/>
       <c r="AE6"/>
       <c r="AF6"/>
-      <c r="AG6" t="s">
-        <v>116</v>
-      </c>
+      <c r="AG6"/>
       <c r="AH6"/>
       <c r="AI6"/>
       <c r="AJ6"/>
@@ -4775,24 +4875,39 @@
     <row r="7" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I7" s="7"/>
       <c r="J7" s="6" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="L7" s="7"/>
-      <c r="M7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>28</v>
+      <c r="M7" t="s">
+        <v>134</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="P7" s="7"/>
+      <c r="Q7" t="s">
+        <v>135</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="T7" s="7"/>
+      <c r="U7" t="s">
+        <v>136</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="X7" s="7"/>
+      <c r="Y7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="AB7" s="7"/>
       <c r="AC7"/>
       <c r="AD7"/>
@@ -5259,23 +5374,33 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" s="6" t="s">
+      <c r="J8" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="AB8" s="7"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="11"/>
       <c r="AC8"/>
       <c r="AD8"/>
       <c r="AE8"/>
@@ -5733,47 +5858,32 @@
     </row>
     <row r="9" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="16"/>
+      <c r="I9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="AB9" s="7"/>
       <c r="AC9"/>
-      <c r="AD9"/>
+      <c r="AD9" t="s">
+        <v>115</v>
+      </c>
       <c r="AE9"/>
       <c r="AF9"/>
-      <c r="AG9"/>
+      <c r="AG9" t="s">
+        <v>114</v>
+      </c>
       <c r="AH9"/>
       <c r="AI9"/>
       <c r="AJ9"/>
@@ -6227,14 +6337,14 @@
     <row r="10" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I10" s="7"/>
       <c r="J10" s="6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>27</v>
       </c>
       <c r="L10" s="7"/>
-      <c r="M10" s="17" t="s">
-        <v>77</v>
+      <c r="M10" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>28</v>
@@ -6243,15 +6353,10 @@
         <v>29</v>
       </c>
       <c r="P10" s="7"/>
-      <c r="Q10" s="17"/>
       <c r="T10" s="7"/>
-      <c r="U10" s="17"/>
       <c r="X10" s="7"/>
-      <c r="Y10" s="17"/>
       <c r="AB10" s="7"/>
-      <c r="AC10" t="s">
-        <v>118</v>
-      </c>
+      <c r="AC10"/>
       <c r="AD10"/>
       <c r="AE10"/>
       <c r="AF10"/>
@@ -6706,30 +6811,32 @@
       <c r="RM10"/>
       <c r="RN10"/>
     </row>
-    <row r="11" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I11" s="7"/>
+    <row r="11" spans="1:482" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="6" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L11" s="7"/>
-      <c r="M11" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>31</v>
+      <c r="M11" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="P11" s="7"/>
-      <c r="Q11" s="17"/>
       <c r="T11" s="7"/>
-      <c r="U11" s="17"/>
       <c r="X11" s="7"/>
-      <c r="Y11" s="17"/>
       <c r="AB11" s="7"/>
       <c r="AC11"/>
       <c r="AD11"/>
@@ -7187,30 +7294,43 @@
       <c r="RN11"/>
     </row>
     <row r="12" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I12" s="7"/>
-      <c r="J12" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O12" s="6" t="s">
+      <c r="A12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="17"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="17"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="17"/>
-      <c r="AB12" s="7"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="16"/>
       <c r="AC12"/>
       <c r="AD12"/>
       <c r="AE12"/>
@@ -7666,39 +7786,34 @@
       <c r="RM12"/>
       <c r="RN12"/>
     </row>
-    <row r="13" spans="1:482" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10" t="s">
+    <row r="13" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="7"/>
+      <c r="J13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="17"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="17"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="17"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" t="s">
+        <v>116</v>
+      </c>
       <c r="AD13"/>
       <c r="AE13"/>
       <c r="AF13"/>
@@ -8154,44 +8269,30 @@
       <c r="RN13"/>
     </row>
     <row r="14" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="15"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="16"/>
+      <c r="J14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="17"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="17"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="17"/>
+      <c r="AB14" s="7"/>
       <c r="AC14"/>
       <c r="AD14"/>
       <c r="AE14"/>
@@ -8648,27 +8749,29 @@
       <c r="RN14"/>
     </row>
     <row r="15" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="8" t="s">
-        <v>40</v>
+      <c r="J15" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>27</v>
       </c>
       <c r="L15" s="7"/>
-      <c r="M15" s="8" t="s">
-        <v>89</v>
+      <c r="M15" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>29</v>
       </c>
       <c r="P15" s="7"/>
+      <c r="Q15" s="17"/>
       <c r="T15" s="7"/>
+      <c r="U15" s="17"/>
       <c r="X15" s="7"/>
+      <c r="Y15" s="17"/>
       <c r="AB15" s="7"/>
       <c r="AC15"/>
       <c r="AD15"/>
@@ -9126,39 +9229,34 @@
       <c r="RN15"/>
     </row>
     <row r="16" spans="1:482" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="12" t="s">
-        <v>41</v>
+      <c r="J16" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="12" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="N16" s="10"/>
-      <c r="O16" s="12" t="s">
+      <c r="O16" s="10" t="s">
         <v>29</v>
       </c>
       <c r="P16" s="11"/>
-      <c r="Q16" s="10"/>
+      <c r="Q16" s="13"/>
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
       <c r="T16" s="11"/>
-      <c r="U16" s="10"/>
+      <c r="U16" s="13"/>
       <c r="V16" s="10"/>
       <c r="W16" s="10"/>
       <c r="X16" s="11"/>
-      <c r="Y16" s="10"/>
+      <c r="Y16" s="13"/>
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
       <c r="AB16" s="11"/>
@@ -9618,28 +9716,44 @@
       <c r="RN16"/>
     </row>
     <row r="17" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17"/>
-      <c r="G17" s="6" t="s">
-        <v>99</v>
-      </c>
+      <c r="A17" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="15"/>
       <c r="I17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="AB17" s="7"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="16"/>
       <c r="AC17"/>
       <c r="AD17"/>
       <c r="AE17"/>
@@ -10096,33 +10210,25 @@
       <c r="RN17"/>
     </row>
     <row r="18" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
       <c r="I18" s="7"/>
       <c r="J18" s="8" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>27</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>28</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="P18" s="7"/>
-      <c r="Q18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="R18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="S18" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="T18" s="7"/>
       <c r="X18" s="7"/>
       <c r="AB18" s="7"/>
@@ -10581,25 +10687,43 @@
       <c r="RM18"/>
       <c r="RN18"/>
     </row>
-    <row r="19" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="I19" s="7"/>
-      <c r="J19" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="P19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="AB19" s="7"/>
+    <row r="19" spans="1:482" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="11"/>
+      <c r="M19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="10"/>
+      <c r="O19" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="11"/>
       <c r="AC19"/>
       <c r="AD19"/>
       <c r="AE19"/>
@@ -11056,20 +11180,24 @@
       <c r="RN19"/>
     </row>
     <row r="20" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="I20" s="7"/>
-      <c r="J20" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="L20" s="7"/>
-      <c r="M20" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="P20" s="7"/>
       <c r="T20" s="7"/>
       <c r="X20" s="7"/>
@@ -11529,25 +11657,34 @@
       <c r="RM20"/>
       <c r="RN20"/>
     </row>
-    <row r="21" spans="1:482" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="I21" s="11"/>
+    <row r="21" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I21" s="7"/>
       <c r="J21" s="8" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="8" t="s">
-        <v>75</v>
+        <v>88</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7"/>
+      <c r="Q21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="T21" s="7"/>
       <c r="X21" s="7"/>
       <c r="AB21" s="7"/>
@@ -12007,46 +12144,24 @@
       <c r="RN21"/>
     </row>
     <row r="22" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="15"/>
-      <c r="E22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22"/>
-      <c r="G22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>86</v>
-      </c>
       <c r="I22" s="7"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="16"/>
+      <c r="J22" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="AB22" s="7"/>
       <c r="AC22"/>
       <c r="AD22"/>
       <c r="AE22"/>
@@ -12503,34 +12618,21 @@
       <c r="RN22"/>
     </row>
     <row r="23" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
       <c r="I23" s="7"/>
       <c r="J23" s="8" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O23" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N23" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="P23" s="7"/>
-      <c r="Q23" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="R23" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="S23" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="T23" s="7"/>
       <c r="X23" s="7"/>
       <c r="AB23" s="7"/>
@@ -12989,45 +13091,26 @@
       <c r="RM23"/>
       <c r="RN23"/>
     </row>
-    <row r="24" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="I24" s="7"/>
+    <row r="24" spans="1:482" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="I24" s="11"/>
       <c r="J24" s="8" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="P24" s="7"/>
-      <c r="Q24" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="R24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="S24" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="T24" s="7"/>
-      <c r="U24" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="V24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="W24" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="X24" s="7"/>
       <c r="AB24" s="7"/>
       <c r="AC24"/>
@@ -13486,25 +13569,46 @@
       <c r="RN24"/>
     </row>
     <row r="25" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
+      <c r="A25" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25"/>
+      <c r="G25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="I25" s="7"/>
-      <c r="J25" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="AB25" s="7"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="16"/>
       <c r="AC25"/>
       <c r="AD25"/>
       <c r="AE25"/>
@@ -13964,19 +14068,31 @@
       <c r="A26" s="17"/>
       <c r="I26" s="7"/>
       <c r="J26" s="8" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="L26" s="7"/>
-      <c r="M26" s="9" t="s">
-        <v>71</v>
+      <c r="M26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>29</v>
       </c>
       <c r="P26" s="7"/>
+      <c r="Q26" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="T26" s="7"/>
       <c r="X26" s="7"/>
       <c r="AB26" s="7"/>
@@ -14439,28 +14555,37 @@
       <c r="A27" s="17"/>
       <c r="I27" s="7"/>
       <c r="J27" s="8" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="L27" s="7"/>
       <c r="M27" s="8" t="s">
-        <v>72</v>
+        <v>63</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>29</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="8" t="s">
-        <v>73</v>
+        <v>64</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="S27" s="6" t="s">
         <v>29</v>
       </c>
       <c r="T27" s="7"/>
-      <c r="U27" s="6">
-        <v>2022</v>
+      <c r="U27" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="V27" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="W27" s="6" t="s">
         <v>29</v>
@@ -14922,43 +15047,26 @@
       <c r="RM27"/>
       <c r="RN27"/>
     </row>
-    <row r="28" spans="1:482" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L28" s="11"/>
-      <c r="M28" s="10">
-        <v>4711</v>
-      </c>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10" t="s">
+    <row r="28" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L28" s="7"/>
+      <c r="M28" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="11"/>
+      <c r="P28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="AB28" s="7"/>
       <c r="AC28"/>
       <c r="AD28"/>
       <c r="AE28"/>
@@ -15415,23 +15523,21 @@
       <c r="RN28"/>
     </row>
     <row r="29" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="A29" s="17"/>
       <c r="I29" s="7"/>
+      <c r="J29" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="L29" s="7"/>
+      <c r="M29" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="P29" s="7"/>
       <c r="T29" s="7"/>
       <c r="X29" s="7"/>
@@ -15892,31 +15998,39 @@
       <c r="RN29"/>
     </row>
     <row r="30" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="17"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="6" t="s">
-        <v>26</v>
+      <c r="J30" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="L30" s="7"/>
-      <c r="M30" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>28</v>
+      <c r="M30" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="O30" s="6" t="s">
         <v>29</v>
       </c>
       <c r="P30" s="7"/>
+      <c r="Q30" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="T30" s="7"/>
+      <c r="U30" s="6">
+        <v>2022</v>
+      </c>
+      <c r="W30" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="X30" s="7"/>
       <c r="AB30" s="7"/>
       <c r="AC30"/>
-      <c r="AD30" t="s">
-        <v>116</v>
-      </c>
+      <c r="AD30"/>
       <c r="AE30"/>
       <c r="AF30"/>
       <c r="AG30"/>
@@ -16371,7 +16485,7 @@
       <c r="RN30"/>
     </row>
     <row r="31" spans="1:482" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -16380,32 +16494,34 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="11"/>
-      <c r="J31" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L31" s="7"/>
-      <c r="M31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O31" s="6" t="s">
+      <c r="J31" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L31" s="11"/>
+      <c r="M31" s="10">
+        <v>4711</v>
+      </c>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="S31" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="T31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="AB31" s="7"/>
-      <c r="AC31" t="s">
-        <v>118</v>
-      </c>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31"/>
       <c r="AD31"/>
       <c r="AE31"/>
       <c r="AF31"/>
@@ -16862,37 +16978,27 @@
     </row>
     <row r="32" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="15"/>
-      <c r="Z32" s="15"/>
-      <c r="AA32" s="15"/>
-      <c r="AB32" s="15"/>
-      <c r="AC32" t="s">
-        <v>115</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32"/>
       <c r="AD32"/>
       <c r="AE32"/>
       <c r="AF32"/>
@@ -17347,38 +17453,1494 @@
       <c r="RM32"/>
       <c r="RN32"/>
     </row>
-    <row r="33" spans="2:30" ht="34" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+    <row r="33" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I33" s="7"/>
+      <c r="J33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33"/>
+      <c r="AD33" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE33"/>
+      <c r="AF33"/>
+      <c r="AG33"/>
+      <c r="AH33"/>
+      <c r="AI33"/>
+      <c r="AJ33"/>
+      <c r="AK33"/>
+      <c r="AL33"/>
+      <c r="AM33"/>
+      <c r="AN33"/>
+      <c r="AO33"/>
+      <c r="AP33"/>
+      <c r="AQ33"/>
+      <c r="AR33"/>
+      <c r="AS33"/>
+      <c r="AT33"/>
+      <c r="AU33"/>
+      <c r="AV33"/>
+      <c r="AW33"/>
+      <c r="AX33"/>
+      <c r="AY33"/>
+      <c r="AZ33"/>
+      <c r="BA33"/>
+      <c r="BB33"/>
+      <c r="BC33"/>
+      <c r="BD33"/>
+      <c r="BE33"/>
+      <c r="BF33"/>
+      <c r="BG33"/>
+      <c r="BH33"/>
+      <c r="BI33"/>
+      <c r="BJ33"/>
+      <c r="BK33"/>
+      <c r="BL33"/>
+      <c r="BM33"/>
+      <c r="BN33"/>
+      <c r="BO33"/>
+      <c r="BP33"/>
+      <c r="BQ33"/>
+      <c r="BR33"/>
+      <c r="BS33"/>
+      <c r="BT33"/>
+      <c r="BU33"/>
+      <c r="BV33"/>
+      <c r="BW33"/>
+      <c r="BX33"/>
+      <c r="BY33"/>
+      <c r="BZ33"/>
+      <c r="CA33"/>
+      <c r="CB33"/>
+      <c r="CC33"/>
+      <c r="CD33"/>
+      <c r="CE33"/>
+      <c r="CF33"/>
+      <c r="CG33"/>
+      <c r="CH33"/>
+      <c r="CI33"/>
+      <c r="CJ33"/>
+      <c r="CK33"/>
+      <c r="CL33"/>
+      <c r="CM33"/>
+      <c r="CN33"/>
+      <c r="CO33"/>
+      <c r="CP33"/>
+      <c r="CQ33"/>
+      <c r="CR33"/>
+      <c r="CS33"/>
+      <c r="CT33"/>
+      <c r="CU33"/>
+      <c r="CV33"/>
+      <c r="CW33"/>
+      <c r="CX33"/>
+      <c r="CY33"/>
+      <c r="CZ33"/>
+      <c r="DA33"/>
+      <c r="DB33"/>
+      <c r="DC33"/>
+      <c r="DD33"/>
+      <c r="DE33"/>
+      <c r="DF33"/>
+      <c r="DG33"/>
+      <c r="DH33"/>
+      <c r="DI33"/>
+      <c r="DJ33"/>
+      <c r="DK33"/>
+      <c r="DL33"/>
+      <c r="DM33"/>
+      <c r="DN33"/>
+      <c r="DO33"/>
+      <c r="DP33"/>
+      <c r="DQ33"/>
+      <c r="DR33"/>
+      <c r="DS33"/>
+      <c r="DT33"/>
+      <c r="DU33"/>
+      <c r="DV33"/>
+      <c r="DW33"/>
+      <c r="DX33"/>
+      <c r="DY33"/>
+      <c r="DZ33"/>
+      <c r="EA33"/>
+      <c r="EB33"/>
+      <c r="EC33"/>
+      <c r="ED33"/>
+      <c r="EE33"/>
+      <c r="EF33"/>
+      <c r="EG33"/>
+      <c r="EH33"/>
+      <c r="EI33"/>
+      <c r="EJ33"/>
+      <c r="EK33"/>
+      <c r="EL33"/>
+      <c r="EM33"/>
+      <c r="EN33"/>
+      <c r="EO33"/>
+      <c r="EP33"/>
+      <c r="EQ33"/>
+      <c r="ER33"/>
+      <c r="ES33"/>
+      <c r="ET33"/>
+      <c r="EU33"/>
+      <c r="EV33"/>
+      <c r="EW33"/>
+      <c r="EX33"/>
+      <c r="EY33"/>
+      <c r="EZ33"/>
+      <c r="FA33"/>
+      <c r="FB33"/>
+      <c r="FC33"/>
+      <c r="FD33"/>
+      <c r="FE33"/>
+      <c r="FF33"/>
+      <c r="FG33"/>
+      <c r="FH33"/>
+      <c r="FI33"/>
+      <c r="FJ33"/>
+      <c r="FK33"/>
+      <c r="FL33"/>
+      <c r="FM33"/>
+      <c r="FN33"/>
+      <c r="FO33"/>
+      <c r="FP33"/>
+      <c r="FQ33"/>
+      <c r="FR33"/>
+      <c r="FS33"/>
+      <c r="FT33"/>
+      <c r="FU33"/>
+      <c r="FV33"/>
+      <c r="FW33"/>
+      <c r="FX33"/>
+      <c r="FY33"/>
+      <c r="FZ33"/>
+      <c r="GA33"/>
+      <c r="GB33"/>
+      <c r="GC33"/>
+      <c r="GD33"/>
+      <c r="GE33"/>
+      <c r="GF33"/>
+      <c r="GG33"/>
+      <c r="GH33"/>
+      <c r="GI33"/>
+      <c r="GJ33"/>
+      <c r="GK33"/>
+      <c r="GL33"/>
+      <c r="GM33"/>
+      <c r="GN33"/>
+      <c r="GO33"/>
+      <c r="GP33"/>
+      <c r="GQ33"/>
+      <c r="GR33"/>
+      <c r="GS33"/>
+      <c r="GT33"/>
+      <c r="GU33"/>
+      <c r="GV33"/>
+      <c r="GW33"/>
+      <c r="GX33"/>
+      <c r="GY33"/>
+      <c r="GZ33"/>
+      <c r="HA33"/>
+      <c r="HB33"/>
+      <c r="HC33"/>
+      <c r="HD33"/>
+      <c r="HE33"/>
+      <c r="HF33"/>
+      <c r="HG33"/>
+      <c r="HH33"/>
+      <c r="HI33"/>
+      <c r="HJ33"/>
+      <c r="HK33"/>
+      <c r="HL33"/>
+      <c r="HM33"/>
+      <c r="HN33"/>
+      <c r="HO33"/>
+      <c r="HP33"/>
+      <c r="HQ33"/>
+      <c r="HR33"/>
+      <c r="HS33"/>
+      <c r="HT33"/>
+      <c r="HU33"/>
+      <c r="HV33"/>
+      <c r="HW33"/>
+      <c r="HX33"/>
+      <c r="HY33"/>
+      <c r="HZ33"/>
+      <c r="IA33"/>
+      <c r="IB33"/>
+      <c r="IC33"/>
+      <c r="ID33"/>
+      <c r="IE33"/>
+      <c r="IF33"/>
+      <c r="IG33"/>
+      <c r="IH33"/>
+      <c r="II33"/>
+      <c r="IJ33"/>
+      <c r="IK33"/>
+      <c r="IL33"/>
+      <c r="IM33"/>
+      <c r="IN33"/>
+      <c r="IO33"/>
+      <c r="IP33"/>
+      <c r="IQ33"/>
+      <c r="IR33"/>
+      <c r="IS33"/>
+      <c r="IT33"/>
+      <c r="IU33"/>
+      <c r="IV33"/>
+      <c r="IW33"/>
+      <c r="IX33"/>
+      <c r="IY33"/>
+      <c r="IZ33"/>
+      <c r="JA33"/>
+      <c r="JB33"/>
+      <c r="JC33"/>
+      <c r="JD33"/>
+      <c r="JE33"/>
+      <c r="JF33"/>
+      <c r="JG33"/>
+      <c r="JH33"/>
+      <c r="JI33"/>
+      <c r="JJ33"/>
+      <c r="JK33"/>
+      <c r="JL33"/>
+      <c r="JM33"/>
+      <c r="JN33"/>
+      <c r="JO33"/>
+      <c r="JP33"/>
+      <c r="JQ33"/>
+      <c r="JR33"/>
+      <c r="JS33"/>
+      <c r="JT33"/>
+      <c r="JU33"/>
+      <c r="JV33"/>
+      <c r="JW33"/>
+      <c r="JX33"/>
+      <c r="JY33"/>
+      <c r="JZ33"/>
+      <c r="KA33"/>
+      <c r="KB33"/>
+      <c r="KC33"/>
+      <c r="KD33"/>
+      <c r="KE33"/>
+      <c r="KF33"/>
+      <c r="KG33"/>
+      <c r="KH33"/>
+      <c r="KI33"/>
+      <c r="KJ33"/>
+      <c r="KK33"/>
+      <c r="KL33"/>
+      <c r="KM33"/>
+      <c r="KN33"/>
+      <c r="KO33"/>
+      <c r="KP33"/>
+      <c r="KQ33"/>
+      <c r="KR33"/>
+      <c r="KS33"/>
+      <c r="KT33"/>
+      <c r="KU33"/>
+      <c r="KV33"/>
+      <c r="KW33"/>
+      <c r="KX33"/>
+      <c r="KY33"/>
+      <c r="KZ33"/>
+      <c r="LA33"/>
+      <c r="LB33"/>
+      <c r="LC33"/>
+      <c r="LD33"/>
+      <c r="LE33"/>
+      <c r="LF33"/>
+      <c r="LG33"/>
+      <c r="LH33"/>
+      <c r="LI33"/>
+      <c r="LJ33"/>
+      <c r="LK33"/>
+      <c r="LL33"/>
+      <c r="LM33"/>
+      <c r="LN33"/>
+      <c r="LO33"/>
+      <c r="LP33"/>
+      <c r="LQ33"/>
+      <c r="LR33"/>
+      <c r="LS33"/>
+      <c r="LT33"/>
+      <c r="LU33"/>
+      <c r="LV33"/>
+      <c r="LW33"/>
+      <c r="LX33"/>
+      <c r="LY33"/>
+      <c r="LZ33"/>
+      <c r="MA33"/>
+      <c r="MB33"/>
+      <c r="MC33"/>
+      <c r="MD33"/>
+      <c r="ME33"/>
+      <c r="MF33"/>
+      <c r="MG33"/>
+      <c r="MH33"/>
+      <c r="MI33"/>
+      <c r="MJ33"/>
+      <c r="MK33"/>
+      <c r="ML33"/>
+      <c r="MM33"/>
+      <c r="MN33"/>
+      <c r="MO33"/>
+      <c r="MP33"/>
+      <c r="MQ33"/>
+      <c r="MR33"/>
+      <c r="MS33"/>
+      <c r="MT33"/>
+      <c r="MU33"/>
+      <c r="MV33"/>
+      <c r="MW33"/>
+      <c r="MX33"/>
+      <c r="MY33"/>
+      <c r="MZ33"/>
+      <c r="NA33"/>
+      <c r="NB33"/>
+      <c r="NC33"/>
+      <c r="ND33"/>
+      <c r="NE33"/>
+      <c r="NF33"/>
+      <c r="NG33"/>
+      <c r="NH33"/>
+      <c r="NI33"/>
+      <c r="NJ33"/>
+      <c r="NK33"/>
+      <c r="NL33"/>
+      <c r="NM33"/>
+      <c r="NN33"/>
+      <c r="NO33"/>
+      <c r="NP33"/>
+      <c r="NQ33"/>
+      <c r="NR33"/>
+      <c r="NS33"/>
+      <c r="NT33"/>
+      <c r="NU33"/>
+      <c r="NV33"/>
+      <c r="NW33"/>
+      <c r="NX33"/>
+      <c r="NY33"/>
+      <c r="NZ33"/>
+      <c r="OA33"/>
+      <c r="OB33"/>
+      <c r="OC33"/>
+      <c r="OD33"/>
+      <c r="OE33"/>
+      <c r="OF33"/>
+      <c r="OG33"/>
+      <c r="OH33"/>
+      <c r="OI33"/>
+      <c r="OJ33"/>
+      <c r="OK33"/>
+      <c r="OL33"/>
+      <c r="OM33"/>
+      <c r="ON33"/>
+      <c r="OO33"/>
+      <c r="OP33"/>
+      <c r="OQ33"/>
+      <c r="OR33"/>
+      <c r="OS33"/>
+      <c r="OT33"/>
+      <c r="OU33"/>
+      <c r="OV33"/>
+      <c r="OW33"/>
+      <c r="OX33"/>
+      <c r="OY33"/>
+      <c r="OZ33"/>
+      <c r="PA33"/>
+      <c r="PB33"/>
+      <c r="PC33"/>
+      <c r="PD33"/>
+      <c r="PE33"/>
+      <c r="PF33"/>
+      <c r="PG33"/>
+      <c r="PH33"/>
+      <c r="PI33"/>
+      <c r="PJ33"/>
+      <c r="PK33"/>
+      <c r="PL33"/>
+      <c r="PM33"/>
+      <c r="PN33"/>
+      <c r="PO33"/>
+      <c r="PP33"/>
+      <c r="PQ33"/>
+      <c r="PR33"/>
+      <c r="PS33"/>
+      <c r="PT33"/>
+      <c r="PU33"/>
+      <c r="PV33"/>
+      <c r="PW33"/>
+      <c r="PX33"/>
+      <c r="PY33"/>
+      <c r="PZ33"/>
+      <c r="QA33"/>
+      <c r="QB33"/>
+      <c r="QC33"/>
+      <c r="QD33"/>
+      <c r="QE33"/>
+      <c r="QF33"/>
+      <c r="QG33"/>
+      <c r="QH33"/>
+      <c r="QI33"/>
+      <c r="QJ33"/>
+      <c r="QK33"/>
+      <c r="QL33"/>
+      <c r="QM33"/>
+      <c r="QN33"/>
+      <c r="QO33"/>
+      <c r="QP33"/>
+      <c r="QQ33"/>
+      <c r="QR33"/>
+      <c r="QS33"/>
+      <c r="QT33"/>
+      <c r="QU33"/>
+      <c r="QV33"/>
+      <c r="QW33"/>
+      <c r="QX33"/>
+      <c r="QY33"/>
+      <c r="QZ33"/>
+      <c r="RA33"/>
+      <c r="RB33"/>
+      <c r="RC33"/>
+      <c r="RD33"/>
+      <c r="RE33"/>
+      <c r="RF33"/>
+      <c r="RG33"/>
+      <c r="RH33"/>
+      <c r="RI33"/>
+      <c r="RJ33"/>
+      <c r="RK33"/>
+      <c r="RL33"/>
+      <c r="RM33"/>
+      <c r="RN33"/>
+    </row>
+    <row r="34" spans="1:482" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L34" s="7"/>
+      <c r="M34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="S34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD34"/>
+      <c r="AE34"/>
+      <c r="AF34"/>
+      <c r="AG34"/>
+      <c r="AH34"/>
+      <c r="AI34"/>
+      <c r="AJ34"/>
+      <c r="AK34"/>
+      <c r="AL34"/>
+      <c r="AM34"/>
+      <c r="AN34"/>
+      <c r="AO34"/>
+      <c r="AP34"/>
+      <c r="AQ34"/>
+      <c r="AR34"/>
+      <c r="AS34"/>
+      <c r="AT34"/>
+      <c r="AU34"/>
+      <c r="AV34"/>
+      <c r="AW34"/>
+      <c r="AX34"/>
+      <c r="AY34"/>
+      <c r="AZ34"/>
+      <c r="BA34"/>
+      <c r="BB34"/>
+      <c r="BC34"/>
+      <c r="BD34"/>
+      <c r="BE34"/>
+      <c r="BF34"/>
+      <c r="BG34"/>
+      <c r="BH34"/>
+      <c r="BI34"/>
+      <c r="BJ34"/>
+      <c r="BK34"/>
+      <c r="BL34"/>
+      <c r="BM34"/>
+      <c r="BN34"/>
+      <c r="BO34"/>
+      <c r="BP34"/>
+      <c r="BQ34"/>
+      <c r="BR34"/>
+      <c r="BS34"/>
+      <c r="BT34"/>
+      <c r="BU34"/>
+      <c r="BV34"/>
+      <c r="BW34"/>
+      <c r="BX34"/>
+      <c r="BY34"/>
+      <c r="BZ34"/>
+      <c r="CA34"/>
+      <c r="CB34"/>
+      <c r="CC34"/>
+      <c r="CD34"/>
+      <c r="CE34"/>
+      <c r="CF34"/>
+      <c r="CG34"/>
+      <c r="CH34"/>
+      <c r="CI34"/>
+      <c r="CJ34"/>
+      <c r="CK34"/>
+      <c r="CL34"/>
+      <c r="CM34"/>
+      <c r="CN34"/>
+      <c r="CO34"/>
+      <c r="CP34"/>
+      <c r="CQ34"/>
+      <c r="CR34"/>
+      <c r="CS34"/>
+      <c r="CT34"/>
+      <c r="CU34"/>
+      <c r="CV34"/>
+      <c r="CW34"/>
+      <c r="CX34"/>
+      <c r="CY34"/>
+      <c r="CZ34"/>
+      <c r="DA34"/>
+      <c r="DB34"/>
+      <c r="DC34"/>
+      <c r="DD34"/>
+      <c r="DE34"/>
+      <c r="DF34"/>
+      <c r="DG34"/>
+      <c r="DH34"/>
+      <c r="DI34"/>
+      <c r="DJ34"/>
+      <c r="DK34"/>
+      <c r="DL34"/>
+      <c r="DM34"/>
+      <c r="DN34"/>
+      <c r="DO34"/>
+      <c r="DP34"/>
+      <c r="DQ34"/>
+      <c r="DR34"/>
+      <c r="DS34"/>
+      <c r="DT34"/>
+      <c r="DU34"/>
+      <c r="DV34"/>
+      <c r="DW34"/>
+      <c r="DX34"/>
+      <c r="DY34"/>
+      <c r="DZ34"/>
+      <c r="EA34"/>
+      <c r="EB34"/>
+      <c r="EC34"/>
+      <c r="ED34"/>
+      <c r="EE34"/>
+      <c r="EF34"/>
+      <c r="EG34"/>
+      <c r="EH34"/>
+      <c r="EI34"/>
+      <c r="EJ34"/>
+      <c r="EK34"/>
+      <c r="EL34"/>
+      <c r="EM34"/>
+      <c r="EN34"/>
+      <c r="EO34"/>
+      <c r="EP34"/>
+      <c r="EQ34"/>
+      <c r="ER34"/>
+      <c r="ES34"/>
+      <c r="ET34"/>
+      <c r="EU34"/>
+      <c r="EV34"/>
+      <c r="EW34"/>
+      <c r="EX34"/>
+      <c r="EY34"/>
+      <c r="EZ34"/>
+      <c r="FA34"/>
+      <c r="FB34"/>
+      <c r="FC34"/>
+      <c r="FD34"/>
+      <c r="FE34"/>
+      <c r="FF34"/>
+      <c r="FG34"/>
+      <c r="FH34"/>
+      <c r="FI34"/>
+      <c r="FJ34"/>
+      <c r="FK34"/>
+      <c r="FL34"/>
+      <c r="FM34"/>
+      <c r="FN34"/>
+      <c r="FO34"/>
+      <c r="FP34"/>
+      <c r="FQ34"/>
+      <c r="FR34"/>
+      <c r="FS34"/>
+      <c r="FT34"/>
+      <c r="FU34"/>
+      <c r="FV34"/>
+      <c r="FW34"/>
+      <c r="FX34"/>
+      <c r="FY34"/>
+      <c r="FZ34"/>
+      <c r="GA34"/>
+      <c r="GB34"/>
+      <c r="GC34"/>
+      <c r="GD34"/>
+      <c r="GE34"/>
+      <c r="GF34"/>
+      <c r="GG34"/>
+      <c r="GH34"/>
+      <c r="GI34"/>
+      <c r="GJ34"/>
+      <c r="GK34"/>
+      <c r="GL34"/>
+      <c r="GM34"/>
+      <c r="GN34"/>
+      <c r="GO34"/>
+      <c r="GP34"/>
+      <c r="GQ34"/>
+      <c r="GR34"/>
+      <c r="GS34"/>
+      <c r="GT34"/>
+      <c r="GU34"/>
+      <c r="GV34"/>
+      <c r="GW34"/>
+      <c r="GX34"/>
+      <c r="GY34"/>
+      <c r="GZ34"/>
+      <c r="HA34"/>
+      <c r="HB34"/>
+      <c r="HC34"/>
+      <c r="HD34"/>
+      <c r="HE34"/>
+      <c r="HF34"/>
+      <c r="HG34"/>
+      <c r="HH34"/>
+      <c r="HI34"/>
+      <c r="HJ34"/>
+      <c r="HK34"/>
+      <c r="HL34"/>
+      <c r="HM34"/>
+      <c r="HN34"/>
+      <c r="HO34"/>
+      <c r="HP34"/>
+      <c r="HQ34"/>
+      <c r="HR34"/>
+      <c r="HS34"/>
+      <c r="HT34"/>
+      <c r="HU34"/>
+      <c r="HV34"/>
+      <c r="HW34"/>
+      <c r="HX34"/>
+      <c r="HY34"/>
+      <c r="HZ34"/>
+      <c r="IA34"/>
+      <c r="IB34"/>
+      <c r="IC34"/>
+      <c r="ID34"/>
+      <c r="IE34"/>
+      <c r="IF34"/>
+      <c r="IG34"/>
+      <c r="IH34"/>
+      <c r="II34"/>
+      <c r="IJ34"/>
+      <c r="IK34"/>
+      <c r="IL34"/>
+      <c r="IM34"/>
+      <c r="IN34"/>
+      <c r="IO34"/>
+      <c r="IP34"/>
+      <c r="IQ34"/>
+      <c r="IR34"/>
+      <c r="IS34"/>
+      <c r="IT34"/>
+      <c r="IU34"/>
+      <c r="IV34"/>
+      <c r="IW34"/>
+      <c r="IX34"/>
+      <c r="IY34"/>
+      <c r="IZ34"/>
+      <c r="JA34"/>
+      <c r="JB34"/>
+      <c r="JC34"/>
+      <c r="JD34"/>
+      <c r="JE34"/>
+      <c r="JF34"/>
+      <c r="JG34"/>
+      <c r="JH34"/>
+      <c r="JI34"/>
+      <c r="JJ34"/>
+      <c r="JK34"/>
+      <c r="JL34"/>
+      <c r="JM34"/>
+      <c r="JN34"/>
+      <c r="JO34"/>
+      <c r="JP34"/>
+      <c r="JQ34"/>
+      <c r="JR34"/>
+      <c r="JS34"/>
+      <c r="JT34"/>
+      <c r="JU34"/>
+      <c r="JV34"/>
+      <c r="JW34"/>
+      <c r="JX34"/>
+      <c r="JY34"/>
+      <c r="JZ34"/>
+      <c r="KA34"/>
+      <c r="KB34"/>
+      <c r="KC34"/>
+      <c r="KD34"/>
+      <c r="KE34"/>
+      <c r="KF34"/>
+      <c r="KG34"/>
+      <c r="KH34"/>
+      <c r="KI34"/>
+      <c r="KJ34"/>
+      <c r="KK34"/>
+      <c r="KL34"/>
+      <c r="KM34"/>
+      <c r="KN34"/>
+      <c r="KO34"/>
+      <c r="KP34"/>
+      <c r="KQ34"/>
+      <c r="KR34"/>
+      <c r="KS34"/>
+      <c r="KT34"/>
+      <c r="KU34"/>
+      <c r="KV34"/>
+      <c r="KW34"/>
+      <c r="KX34"/>
+      <c r="KY34"/>
+      <c r="KZ34"/>
+      <c r="LA34"/>
+      <c r="LB34"/>
+      <c r="LC34"/>
+      <c r="LD34"/>
+      <c r="LE34"/>
+      <c r="LF34"/>
+      <c r="LG34"/>
+      <c r="LH34"/>
+      <c r="LI34"/>
+      <c r="LJ34"/>
+      <c r="LK34"/>
+      <c r="LL34"/>
+      <c r="LM34"/>
+      <c r="LN34"/>
+      <c r="LO34"/>
+      <c r="LP34"/>
+      <c r="LQ34"/>
+      <c r="LR34"/>
+      <c r="LS34"/>
+      <c r="LT34"/>
+      <c r="LU34"/>
+      <c r="LV34"/>
+      <c r="LW34"/>
+      <c r="LX34"/>
+      <c r="LY34"/>
+      <c r="LZ34"/>
+      <c r="MA34"/>
+      <c r="MB34"/>
+      <c r="MC34"/>
+      <c r="MD34"/>
+      <c r="ME34"/>
+      <c r="MF34"/>
+      <c r="MG34"/>
+      <c r="MH34"/>
+      <c r="MI34"/>
+      <c r="MJ34"/>
+      <c r="MK34"/>
+      <c r="ML34"/>
+      <c r="MM34"/>
+      <c r="MN34"/>
+      <c r="MO34"/>
+      <c r="MP34"/>
+      <c r="MQ34"/>
+      <c r="MR34"/>
+      <c r="MS34"/>
+      <c r="MT34"/>
+      <c r="MU34"/>
+      <c r="MV34"/>
+      <c r="MW34"/>
+      <c r="MX34"/>
+      <c r="MY34"/>
+      <c r="MZ34"/>
+      <c r="NA34"/>
+      <c r="NB34"/>
+      <c r="NC34"/>
+      <c r="ND34"/>
+      <c r="NE34"/>
+      <c r="NF34"/>
+      <c r="NG34"/>
+      <c r="NH34"/>
+      <c r="NI34"/>
+      <c r="NJ34"/>
+      <c r="NK34"/>
+      <c r="NL34"/>
+      <c r="NM34"/>
+      <c r="NN34"/>
+      <c r="NO34"/>
+      <c r="NP34"/>
+      <c r="NQ34"/>
+      <c r="NR34"/>
+      <c r="NS34"/>
+      <c r="NT34"/>
+      <c r="NU34"/>
+      <c r="NV34"/>
+      <c r="NW34"/>
+      <c r="NX34"/>
+      <c r="NY34"/>
+      <c r="NZ34"/>
+      <c r="OA34"/>
+      <c r="OB34"/>
+      <c r="OC34"/>
+      <c r="OD34"/>
+      <c r="OE34"/>
+      <c r="OF34"/>
+      <c r="OG34"/>
+      <c r="OH34"/>
+      <c r="OI34"/>
+      <c r="OJ34"/>
+      <c r="OK34"/>
+      <c r="OL34"/>
+      <c r="OM34"/>
+      <c r="ON34"/>
+      <c r="OO34"/>
+      <c r="OP34"/>
+      <c r="OQ34"/>
+      <c r="OR34"/>
+      <c r="OS34"/>
+      <c r="OT34"/>
+      <c r="OU34"/>
+      <c r="OV34"/>
+      <c r="OW34"/>
+      <c r="OX34"/>
+      <c r="OY34"/>
+      <c r="OZ34"/>
+      <c r="PA34"/>
+      <c r="PB34"/>
+      <c r="PC34"/>
+      <c r="PD34"/>
+      <c r="PE34"/>
+      <c r="PF34"/>
+      <c r="PG34"/>
+      <c r="PH34"/>
+      <c r="PI34"/>
+      <c r="PJ34"/>
+      <c r="PK34"/>
+      <c r="PL34"/>
+      <c r="PM34"/>
+      <c r="PN34"/>
+      <c r="PO34"/>
+      <c r="PP34"/>
+      <c r="PQ34"/>
+      <c r="PR34"/>
+      <c r="PS34"/>
+      <c r="PT34"/>
+      <c r="PU34"/>
+      <c r="PV34"/>
+      <c r="PW34"/>
+      <c r="PX34"/>
+      <c r="PY34"/>
+      <c r="PZ34"/>
+      <c r="QA34"/>
+      <c r="QB34"/>
+      <c r="QC34"/>
+      <c r="QD34"/>
+      <c r="QE34"/>
+      <c r="QF34"/>
+      <c r="QG34"/>
+      <c r="QH34"/>
+      <c r="QI34"/>
+      <c r="QJ34"/>
+      <c r="QK34"/>
+      <c r="QL34"/>
+      <c r="QM34"/>
+      <c r="QN34"/>
+      <c r="QO34"/>
+      <c r="QP34"/>
+      <c r="QQ34"/>
+      <c r="QR34"/>
+      <c r="QS34"/>
+      <c r="QT34"/>
+      <c r="QU34"/>
+      <c r="QV34"/>
+      <c r="QW34"/>
+      <c r="QX34"/>
+      <c r="QY34"/>
+      <c r="QZ34"/>
+      <c r="RA34"/>
+      <c r="RB34"/>
+      <c r="RC34"/>
+      <c r="RD34"/>
+      <c r="RE34"/>
+      <c r="RF34"/>
+      <c r="RG34"/>
+      <c r="RH34"/>
+      <c r="RI34"/>
+      <c r="RJ34"/>
+      <c r="RK34"/>
+      <c r="RL34"/>
+      <c r="RM34"/>
+      <c r="RN34"/>
+    </row>
+    <row r="35" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD35"/>
+      <c r="AE35"/>
+      <c r="AF35"/>
+      <c r="AG35"/>
+      <c r="AH35"/>
+      <c r="AI35"/>
+      <c r="AJ35"/>
+      <c r="AK35"/>
+      <c r="AL35"/>
+      <c r="AM35"/>
+      <c r="AN35"/>
+      <c r="AO35"/>
+      <c r="AP35"/>
+      <c r="AQ35"/>
+      <c r="AR35"/>
+      <c r="AS35"/>
+      <c r="AT35"/>
+      <c r="AU35"/>
+      <c r="AV35"/>
+      <c r="AW35"/>
+      <c r="AX35"/>
+      <c r="AY35"/>
+      <c r="AZ35"/>
+      <c r="BA35"/>
+      <c r="BB35"/>
+      <c r="BC35"/>
+      <c r="BD35"/>
+      <c r="BE35"/>
+      <c r="BF35"/>
+      <c r="BG35"/>
+      <c r="BH35"/>
+      <c r="BI35"/>
+      <c r="BJ35"/>
+      <c r="BK35"/>
+      <c r="BL35"/>
+      <c r="BM35"/>
+      <c r="BN35"/>
+      <c r="BO35"/>
+      <c r="BP35"/>
+      <c r="BQ35"/>
+      <c r="BR35"/>
+      <c r="BS35"/>
+      <c r="BT35"/>
+      <c r="BU35"/>
+      <c r="BV35"/>
+      <c r="BW35"/>
+      <c r="BX35"/>
+      <c r="BY35"/>
+      <c r="BZ35"/>
+      <c r="CA35"/>
+      <c r="CB35"/>
+      <c r="CC35"/>
+      <c r="CD35"/>
+      <c r="CE35"/>
+      <c r="CF35"/>
+      <c r="CG35"/>
+      <c r="CH35"/>
+      <c r="CI35"/>
+      <c r="CJ35"/>
+      <c r="CK35"/>
+      <c r="CL35"/>
+      <c r="CM35"/>
+      <c r="CN35"/>
+      <c r="CO35"/>
+      <c r="CP35"/>
+      <c r="CQ35"/>
+      <c r="CR35"/>
+      <c r="CS35"/>
+      <c r="CT35"/>
+      <c r="CU35"/>
+      <c r="CV35"/>
+      <c r="CW35"/>
+      <c r="CX35"/>
+      <c r="CY35"/>
+      <c r="CZ35"/>
+      <c r="DA35"/>
+      <c r="DB35"/>
+      <c r="DC35"/>
+      <c r="DD35"/>
+      <c r="DE35"/>
+      <c r="DF35"/>
+      <c r="DG35"/>
+      <c r="DH35"/>
+      <c r="DI35"/>
+      <c r="DJ35"/>
+      <c r="DK35"/>
+      <c r="DL35"/>
+      <c r="DM35"/>
+      <c r="DN35"/>
+      <c r="DO35"/>
+      <c r="DP35"/>
+      <c r="DQ35"/>
+      <c r="DR35"/>
+      <c r="DS35"/>
+      <c r="DT35"/>
+      <c r="DU35"/>
+      <c r="DV35"/>
+      <c r="DW35"/>
+      <c r="DX35"/>
+      <c r="DY35"/>
+      <c r="DZ35"/>
+      <c r="EA35"/>
+      <c r="EB35"/>
+      <c r="EC35"/>
+      <c r="ED35"/>
+      <c r="EE35"/>
+      <c r="EF35"/>
+      <c r="EG35"/>
+      <c r="EH35"/>
+      <c r="EI35"/>
+      <c r="EJ35"/>
+      <c r="EK35"/>
+      <c r="EL35"/>
+      <c r="EM35"/>
+      <c r="EN35"/>
+      <c r="EO35"/>
+      <c r="EP35"/>
+      <c r="EQ35"/>
+      <c r="ER35"/>
+      <c r="ES35"/>
+      <c r="ET35"/>
+      <c r="EU35"/>
+      <c r="EV35"/>
+      <c r="EW35"/>
+      <c r="EX35"/>
+      <c r="EY35"/>
+      <c r="EZ35"/>
+      <c r="FA35"/>
+      <c r="FB35"/>
+      <c r="FC35"/>
+      <c r="FD35"/>
+      <c r="FE35"/>
+      <c r="FF35"/>
+      <c r="FG35"/>
+      <c r="FH35"/>
+      <c r="FI35"/>
+      <c r="FJ35"/>
+      <c r="FK35"/>
+      <c r="FL35"/>
+      <c r="FM35"/>
+      <c r="FN35"/>
+      <c r="FO35"/>
+      <c r="FP35"/>
+      <c r="FQ35"/>
+      <c r="FR35"/>
+      <c r="FS35"/>
+      <c r="FT35"/>
+      <c r="FU35"/>
+      <c r="FV35"/>
+      <c r="FW35"/>
+      <c r="FX35"/>
+      <c r="FY35"/>
+      <c r="FZ35"/>
+      <c r="GA35"/>
+      <c r="GB35"/>
+      <c r="GC35"/>
+      <c r="GD35"/>
+      <c r="GE35"/>
+      <c r="GF35"/>
+      <c r="GG35"/>
+      <c r="GH35"/>
+      <c r="GI35"/>
+      <c r="GJ35"/>
+      <c r="GK35"/>
+      <c r="GL35"/>
+      <c r="GM35"/>
+      <c r="GN35"/>
+      <c r="GO35"/>
+      <c r="GP35"/>
+      <c r="GQ35"/>
+      <c r="GR35"/>
+      <c r="GS35"/>
+      <c r="GT35"/>
+      <c r="GU35"/>
+      <c r="GV35"/>
+      <c r="GW35"/>
+      <c r="GX35"/>
+      <c r="GY35"/>
+      <c r="GZ35"/>
+      <c r="HA35"/>
+      <c r="HB35"/>
+      <c r="HC35"/>
+      <c r="HD35"/>
+      <c r="HE35"/>
+      <c r="HF35"/>
+      <c r="HG35"/>
+      <c r="HH35"/>
+      <c r="HI35"/>
+      <c r="HJ35"/>
+      <c r="HK35"/>
+      <c r="HL35"/>
+      <c r="HM35"/>
+      <c r="HN35"/>
+      <c r="HO35"/>
+      <c r="HP35"/>
+      <c r="HQ35"/>
+      <c r="HR35"/>
+      <c r="HS35"/>
+      <c r="HT35"/>
+      <c r="HU35"/>
+      <c r="HV35"/>
+      <c r="HW35"/>
+      <c r="HX35"/>
+      <c r="HY35"/>
+      <c r="HZ35"/>
+      <c r="IA35"/>
+      <c r="IB35"/>
+      <c r="IC35"/>
+      <c r="ID35"/>
+      <c r="IE35"/>
+      <c r="IF35"/>
+      <c r="IG35"/>
+      <c r="IH35"/>
+      <c r="II35"/>
+      <c r="IJ35"/>
+      <c r="IK35"/>
+      <c r="IL35"/>
+      <c r="IM35"/>
+      <c r="IN35"/>
+      <c r="IO35"/>
+      <c r="IP35"/>
+      <c r="IQ35"/>
+      <c r="IR35"/>
+      <c r="IS35"/>
+      <c r="IT35"/>
+      <c r="IU35"/>
+      <c r="IV35"/>
+      <c r="IW35"/>
+      <c r="IX35"/>
+      <c r="IY35"/>
+      <c r="IZ35"/>
+      <c r="JA35"/>
+      <c r="JB35"/>
+      <c r="JC35"/>
+      <c r="JD35"/>
+      <c r="JE35"/>
+      <c r="JF35"/>
+      <c r="JG35"/>
+      <c r="JH35"/>
+      <c r="JI35"/>
+      <c r="JJ35"/>
+      <c r="JK35"/>
+      <c r="JL35"/>
+      <c r="JM35"/>
+      <c r="JN35"/>
+      <c r="JO35"/>
+      <c r="JP35"/>
+      <c r="JQ35"/>
+      <c r="JR35"/>
+      <c r="JS35"/>
+      <c r="JT35"/>
+      <c r="JU35"/>
+      <c r="JV35"/>
+      <c r="JW35"/>
+      <c r="JX35"/>
+      <c r="JY35"/>
+      <c r="JZ35"/>
+      <c r="KA35"/>
+      <c r="KB35"/>
+      <c r="KC35"/>
+      <c r="KD35"/>
+      <c r="KE35"/>
+      <c r="KF35"/>
+      <c r="KG35"/>
+      <c r="KH35"/>
+      <c r="KI35"/>
+      <c r="KJ35"/>
+      <c r="KK35"/>
+      <c r="KL35"/>
+      <c r="KM35"/>
+      <c r="KN35"/>
+      <c r="KO35"/>
+      <c r="KP35"/>
+      <c r="KQ35"/>
+      <c r="KR35"/>
+      <c r="KS35"/>
+      <c r="KT35"/>
+      <c r="KU35"/>
+      <c r="KV35"/>
+      <c r="KW35"/>
+      <c r="KX35"/>
+      <c r="KY35"/>
+      <c r="KZ35"/>
+      <c r="LA35"/>
+      <c r="LB35"/>
+      <c r="LC35"/>
+      <c r="LD35"/>
+      <c r="LE35"/>
+      <c r="LF35"/>
+      <c r="LG35"/>
+      <c r="LH35"/>
+      <c r="LI35"/>
+      <c r="LJ35"/>
+      <c r="LK35"/>
+      <c r="LL35"/>
+      <c r="LM35"/>
+      <c r="LN35"/>
+      <c r="LO35"/>
+      <c r="LP35"/>
+      <c r="LQ35"/>
+      <c r="LR35"/>
+      <c r="LS35"/>
+      <c r="LT35"/>
+      <c r="LU35"/>
+      <c r="LV35"/>
+      <c r="LW35"/>
+      <c r="LX35"/>
+      <c r="LY35"/>
+      <c r="LZ35"/>
+      <c r="MA35"/>
+      <c r="MB35"/>
+      <c r="MC35"/>
+      <c r="MD35"/>
+      <c r="ME35"/>
+      <c r="MF35"/>
+      <c r="MG35"/>
+      <c r="MH35"/>
+      <c r="MI35"/>
+      <c r="MJ35"/>
+      <c r="MK35"/>
+      <c r="ML35"/>
+      <c r="MM35"/>
+      <c r="MN35"/>
+      <c r="MO35"/>
+      <c r="MP35"/>
+      <c r="MQ35"/>
+      <c r="MR35"/>
+      <c r="MS35"/>
+      <c r="MT35"/>
+      <c r="MU35"/>
+      <c r="MV35"/>
+      <c r="MW35"/>
+      <c r="MX35"/>
+      <c r="MY35"/>
+      <c r="MZ35"/>
+      <c r="NA35"/>
+      <c r="NB35"/>
+      <c r="NC35"/>
+      <c r="ND35"/>
+      <c r="NE35"/>
+      <c r="NF35"/>
+      <c r="NG35"/>
+      <c r="NH35"/>
+      <c r="NI35"/>
+      <c r="NJ35"/>
+      <c r="NK35"/>
+      <c r="NL35"/>
+      <c r="NM35"/>
+      <c r="NN35"/>
+      <c r="NO35"/>
+      <c r="NP35"/>
+      <c r="NQ35"/>
+      <c r="NR35"/>
+      <c r="NS35"/>
+      <c r="NT35"/>
+      <c r="NU35"/>
+      <c r="NV35"/>
+      <c r="NW35"/>
+      <c r="NX35"/>
+      <c r="NY35"/>
+      <c r="NZ35"/>
+      <c r="OA35"/>
+      <c r="OB35"/>
+      <c r="OC35"/>
+      <c r="OD35"/>
+      <c r="OE35"/>
+      <c r="OF35"/>
+      <c r="OG35"/>
+      <c r="OH35"/>
+      <c r="OI35"/>
+      <c r="OJ35"/>
+      <c r="OK35"/>
+      <c r="OL35"/>
+      <c r="OM35"/>
+      <c r="ON35"/>
+      <c r="OO35"/>
+      <c r="OP35"/>
+      <c r="OQ35"/>
+      <c r="OR35"/>
+      <c r="OS35"/>
+      <c r="OT35"/>
+      <c r="OU35"/>
+      <c r="OV35"/>
+      <c r="OW35"/>
+      <c r="OX35"/>
+      <c r="OY35"/>
+      <c r="OZ35"/>
+      <c r="PA35"/>
+      <c r="PB35"/>
+      <c r="PC35"/>
+      <c r="PD35"/>
+      <c r="PE35"/>
+      <c r="PF35"/>
+      <c r="PG35"/>
+      <c r="PH35"/>
+      <c r="PI35"/>
+      <c r="PJ35"/>
+      <c r="PK35"/>
+      <c r="PL35"/>
+      <c r="PM35"/>
+      <c r="PN35"/>
+      <c r="PO35"/>
+      <c r="PP35"/>
+      <c r="PQ35"/>
+      <c r="PR35"/>
+      <c r="PS35"/>
+      <c r="PT35"/>
+      <c r="PU35"/>
+      <c r="PV35"/>
+      <c r="PW35"/>
+      <c r="PX35"/>
+      <c r="PY35"/>
+      <c r="PZ35"/>
+      <c r="QA35"/>
+      <c r="QB35"/>
+      <c r="QC35"/>
+      <c r="QD35"/>
+      <c r="QE35"/>
+      <c r="QF35"/>
+      <c r="QG35"/>
+      <c r="QH35"/>
+      <c r="QI35"/>
+      <c r="QJ35"/>
+      <c r="QK35"/>
+      <c r="QL35"/>
+      <c r="QM35"/>
+      <c r="QN35"/>
+      <c r="QO35"/>
+      <c r="QP35"/>
+      <c r="QQ35"/>
+      <c r="QR35"/>
+      <c r="QS35"/>
+      <c r="QT35"/>
+      <c r="QU35"/>
+      <c r="QV35"/>
+      <c r="QW35"/>
+      <c r="QX35"/>
+      <c r="QY35"/>
+      <c r="QZ35"/>
+      <c r="RA35"/>
+      <c r="RB35"/>
+      <c r="RC35"/>
+      <c r="RD35"/>
+      <c r="RE35"/>
+      <c r="RF35"/>
+      <c r="RG35"/>
+      <c r="RH35"/>
+      <c r="RI35"/>
+      <c r="RJ35"/>
+      <c r="RK35"/>
+      <c r="RL35"/>
+      <c r="RM35"/>
+      <c r="RN35"/>
+    </row>
+    <row r="36" spans="1:482" ht="34" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="D36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:482" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:482" x14ac:dyDescent="0.2">
+      <c r="AD38" t="s">
         <v>114</v>
       </c>
-      <c r="D33" t="s">
-        <v>111</v>
-      </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>113</v>
-      </c>
-      <c r="E34" t="s">
-        <v>112</v>
-      </c>
+    <row r="43" spans="1:482" x14ac:dyDescent="0.2">
+      <c r="C43" s="5"/>
     </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="AD35" t="s">
-        <v>116</v>
-      </c>
+    <row r="45" spans="1:482" x14ac:dyDescent="0.2">
+      <c r="C45" s="5"/>
     </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="C40" s="5"/>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="C42" s="5"/>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="C44" s="5"/>
+    <row r="47" spans="1:482" x14ac:dyDescent="0.2">
+      <c r="C47" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testdata/excel2xml-testdata.xlsx
+++ b/testdata/excel2xml-testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nusjoh00-adm/Desktop/dsp-tools/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nussbaum/Desktop/dsp-tools/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52D4EAF-34A2-174B-B0AE-B44196716646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A49BD9-00EA-8D40-8CB4-6080470F3D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{8DC9C588-8EAF-9149-8D6F-E65826635888}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="33600" windowHeight="20500" xr2:uid="{8DC9C588-8EAF-9149-8D6F-E65826635888}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="141">
   <si>
     <t>id</t>
   </si>
@@ -713,9 +713,6 @@
     <t>Iliad Prooem</t>
   </si>
   <si>
-    <t>This page shows the prooem of the Iliad in Greek manuscript 1397 in St. Catherine's Monastery on Mount Sinai.</t>
-  </si>
-  <si>
     <t>:hasCopyright</t>
   </si>
   <si>
@@ -904,6 +901,12 @@
   </si>
   <si>
     <t>:hasFourthLink</t>
+  </si>
+  <si>
+    <t>Iliad Prooem ' and a single quote in utf8</t>
+  </si>
+  <si>
+    <t>Iliad Prooem ' and a single quote in xml</t>
   </si>
 </sst>
 </file>
@@ -1437,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B59957-CA62-894B-8744-01ADFD605729}">
   <dimension ref="A1:RN47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1881,10 +1884,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
@@ -1893,7 +1896,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>6</v>
@@ -1953,7 +1956,7 @@
         <v>24</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD1"/>
       <c r="AE1"/>
@@ -1961,7 +1964,7 @@
       <c r="AG1"/>
       <c r="AH1"/>
       <c r="AI1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ1"/>
       <c r="AK1"/>
@@ -2422,7 +2425,7 @@
         <v>48</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>25</v>
@@ -2435,7 +2438,7 @@
       <c r="AB2" s="7"/>
       <c r="AC2"/>
       <c r="AD2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE2"/>
       <c r="AF2"/>
@@ -2920,7 +2923,7 @@
       </c>
       <c r="T3" s="7"/>
       <c r="U3" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>28</v>
@@ -2930,7 +2933,7 @@
       </c>
       <c r="X3" s="7"/>
       <c r="Y3" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Z3" s="6" t="s">
         <v>28</v>
@@ -2942,7 +2945,7 @@
       <c r="AC3"/>
       <c r="AD3"/>
       <c r="AE3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF3"/>
       <c r="AG3"/>
@@ -3406,28 +3409,28 @@
       </c>
       <c r="L4" s="7"/>
       <c r="M4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="T4" s="7"/>
       <c r="U4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="X4" s="7"/>
       <c r="Y4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AA4" s="6" t="s">
         <v>29</v>
@@ -3898,28 +3901,28 @@
       </c>
       <c r="L5" s="7"/>
       <c r="M5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="T5" s="7"/>
       <c r="U5" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="X5" s="7"/>
       <c r="Y5" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA5" s="6" t="s">
         <v>29</v>
@@ -4383,35 +4386,35 @@
     <row r="6" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I6" s="7"/>
       <c r="J6" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>51</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="T6" s="7"/>
       <c r="U6" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="X6" s="7"/>
       <c r="Y6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AA6" s="6" t="s">
         <v>29</v>
@@ -4875,35 +4878,35 @@
     <row r="7" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I7" s="7"/>
       <c r="J7" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>51</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="T7" s="7"/>
       <c r="U7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="X7" s="7"/>
       <c r="Y7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA7" s="6" t="s">
         <v>29</v>
@@ -5375,14 +5378,14 @@
       <c r="H8" s="10"/>
       <c r="I8" s="11"/>
       <c r="J8" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>51</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N8" s="10"/>
       <c r="O8" s="10" t="s">
@@ -5877,12 +5880,12 @@
       <c r="AB9" s="7"/>
       <c r="AC9"/>
       <c r="AD9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AE9"/>
       <c r="AF9"/>
       <c r="AG9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AH9"/>
       <c r="AI9"/>
@@ -7307,7 +7310,7 @@
         <v>25</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>29</v>
@@ -7796,7 +7799,7 @@
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="17" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>28</v>
@@ -7812,7 +7815,7 @@
       <c r="Y13" s="17"/>
       <c r="AB13" s="7"/>
       <c r="AC13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AD13"/>
       <c r="AE13"/>
@@ -8278,7 +8281,7 @@
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="17" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>31</v>
@@ -8751,14 +8754,14 @@
     <row r="15" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I15" s="7"/>
       <c r="J15" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>27</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>31</v>
@@ -9232,16 +9235,16 @@
       <c r="H16" s="10"/>
       <c r="I16" s="11"/>
       <c r="J16" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="M16" s="13" t="s">
         <v>80</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>81</v>
       </c>
       <c r="N16" s="10"/>
       <c r="O16" s="10" t="s">
@@ -9723,10 +9726,10 @@
         <v>38</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
@@ -10220,7 +10223,7 @@
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>28</v>
@@ -11181,20 +11184,20 @@
     </row>
     <row r="20" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>91</v>
-      </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F20"/>
       <c r="G20" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I20" s="7"/>
       <c r="L20" s="7"/>
@@ -11667,7 +11670,7 @@
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>28</v>
@@ -12146,14 +12149,14 @@
     <row r="22" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I22" s="7"/>
       <c r="J22" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O22" s="6" t="s">
         <v>61</v>
@@ -12620,14 +12623,14 @@
     <row r="23" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I23" s="7"/>
       <c r="J23" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>61</v>
@@ -13097,7 +13100,7 @@
       <c r="G24" s="10"/>
       <c r="I24" s="11"/>
       <c r="J24" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>30</v>
@@ -13580,14 +13583,14 @@
       </c>
       <c r="D25" s="15"/>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F25"/>
       <c r="G25" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="15"/>
@@ -16978,16 +16981,16 @@
     </row>
     <row r="32" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="D32" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>25</v>
@@ -17463,7 +17466,7 @@
       </c>
       <c r="L33" s="7"/>
       <c r="M33" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N33" s="6" t="s">
         <v>28</v>
@@ -17477,7 +17480,7 @@
       <c r="AB33" s="7"/>
       <c r="AC33"/>
       <c r="AD33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AE33"/>
       <c r="AF33"/>
@@ -17943,7 +17946,7 @@
       <c r="H34" s="10"/>
       <c r="I34" s="11"/>
       <c r="J34" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>30</v>
@@ -17966,7 +17969,7 @@
       <c r="X34" s="7"/>
       <c r="AB34" s="7"/>
       <c r="AC34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AD34"/>
       <c r="AE34"/>
@@ -18424,10 +18427,10 @@
     </row>
     <row r="35" spans="1:482" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
@@ -18445,7 +18448,7 @@
       <c r="U35" s="15"/>
       <c r="V35" s="15"/>
       <c r="W35" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X35" s="15"/>
       <c r="Y35" s="15"/>
@@ -18453,7 +18456,7 @@
       <c r="AA35" s="15"/>
       <c r="AB35" s="15"/>
       <c r="AC35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD35"/>
       <c r="AE35"/>
@@ -18911,26 +18914,26 @@
     </row>
     <row r="36" spans="1:482" ht="34" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:482" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:482" x14ac:dyDescent="0.2">
       <c r="AD38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:482" x14ac:dyDescent="0.2">
